--- a/Projeto Final/projetoFluxodeCaixa.xlsx
+++ b/Projeto Final/projetoFluxodeCaixa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9825" windowHeight="7035" firstSheet="13" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9825" windowHeight="7035" firstSheet="14" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Início" sheetId="3" r:id="rId1"/>
@@ -52,7 +52,7 @@
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId20"/>
     <pivotCache cacheId="1" r:id="rId21"/>
-    <pivotCache cacheId="2" r:id="rId22"/>
+    <pivotCache cacheId="13" r:id="rId22"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{876F7934-8845-4945-9796-88D515C7AA90}">
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="616">
   <si>
     <t>Vendas de mercadorias</t>
   </si>
@@ -1922,12 +1922,6 @@
     <t>Mês</t>
   </si>
   <si>
-    <t>Pagar Mensal</t>
-  </si>
-  <si>
-    <t>Receber Mensal</t>
-  </si>
-  <si>
     <t>Gráfico</t>
   </si>
   <si>
@@ -1980,6 +1974,17 @@
   </si>
   <si>
     <t>Resultado</t>
+  </si>
+  <si>
+    <t>Pagar 
+Mensal</t>
+  </si>
+  <si>
+    <t>Receber 
+Mensal</t>
+  </si>
+  <si>
+    <t>J F M A M J J A S O N D</t>
   </si>
 </sst>
 </file>
@@ -1994,7 +1999,7 @@
     <numFmt numFmtId="165" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
     <numFmt numFmtId="166" formatCode="&quot;R$&quot;\ #,##0"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2159,6 +2164,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -2222,7 +2243,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -2593,12 +2614,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFA6A6A6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA6A6A6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA6A6A6"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFA6A6A6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFA6A6A6"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA6A6A6"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFA6A6A6"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFA6A6A6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA6A6A6"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFA6A6A6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2759,18 +2842,6 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2780,12 +2851,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2843,12 +2908,6 @@
     <xf numFmtId="43" fontId="17" fillId="9" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="15" fillId="9" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2891,6 +2950,33 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2906,38 +2992,104 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="9" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="9" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="9" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="9" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="9" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="9" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="22" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="22" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="43">
+  <dxfs count="46">
     <dxf>
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
       </font>
     </dxf>
     <dxf>
@@ -3154,6 +3306,818 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Dashboard financeiro anualD'!$M$6:$M$17</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fev</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mai</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Ago</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Set</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Out</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dez</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Dashboard financeiro anualD'!$L$6:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2564</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4732</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5489</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>618</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1654</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1406347648"/>
+        <c:axId val="1406350912"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1406347648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1406350912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1406350912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1406347648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6337,6 +7301,38 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8676,7 +9672,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Autor" refreshedDate="45386.700453472222" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="231">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Autor" refreshedDate="45392.752931134259" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="231">
   <cacheSource type="worksheet">
     <worksheetSource name="TbRegistroEntradas" r:id="rId2"/>
   </cacheSource>
@@ -15975,7 +16971,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TDDetalhamentoReceita" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TDDetalhamentoReceita" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B5:O13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -16108,13 +17104,13 @@
     <dataField name="Soma de Valor" fld="6" baseField="4" baseItem="2" numFmtId="4"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="8">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="9">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -16293,7 +17289,7 @@
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TDContasAPagar" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B6:L14" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <location ref="B6:G12" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
     <pivotField numFmtId="14" showAll="0"/>
@@ -16367,15 +17363,9 @@
     <field x="3"/>
     <field x="4"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="4">
     <i>
       <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
     </i>
     <i r="1">
       <x v="3"/>
@@ -16391,19 +17381,13 @@
     <field x="7"/>
     <field x="11"/>
   </colFields>
-  <colItems count="10">
+  <colItems count="5">
     <i>
       <x/>
       <x/>
     </i>
     <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
       <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
     </i>
     <i r="1">
       <x v="6"/>
@@ -16411,40 +17395,31 @@
     <i r="1">
       <x v="7"/>
     </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
     <i t="default">
       <x/>
     </i>
   </colItems>
   <pageFields count="1">
-    <pageField fld="12" hier="-1"/>
+    <pageField fld="12" item="2" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Soma de Valor" fld="6" baseField="3" baseItem="0" numFmtId="4"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="5">
+    <format dxfId="8">
       <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="7">
       <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="6">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="12" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="5">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="12" count="0"/>
@@ -16462,8 +17437,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TDContasAReceber" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B5:M13" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TDContasAReceber" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B5:G12" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
     <pivotField numFmtId="14" showAll="0"/>
@@ -16536,15 +17511,12 @@
     <field x="3"/>
     <field x="4"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="5">
     <i>
       <x/>
     </i>
     <i r="1">
       <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
     </i>
     <i r="1">
       <x v="3"/>
@@ -16560,7 +17532,7 @@
     <field x="7"/>
     <field x="11"/>
   </colFields>
-  <colItems count="11">
+  <colItems count="5">
     <i>
       <x/>
       <x/>
@@ -16572,32 +17544,14 @@
       <x v="4"/>
     </i>
     <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
       <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
     </i>
     <i t="default">
       <x/>
     </i>
   </colItems>
   <pageFields count="1">
-    <pageField fld="12" hier="-1"/>
+    <pageField fld="12" item="2" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Soma de Valor" fld="6" baseField="3" baseItem="0" numFmtId="4"/>
@@ -16612,7 +17566,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TDContasAReceberVencidas" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TDContasAReceberVencidas" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B6:L14" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -16871,17 +17825,17 @@
     <tabular pivotCacheId="3">
       <items count="12">
         <i x="4" s="1"/>
-        <i x="6" s="1"/>
         <i x="7" s="1"/>
-        <i x="9" s="1"/>
         <i x="10" s="1"/>
         <i x="11" s="1"/>
-        <i x="1" s="1"/>
-        <i x="0" s="1"/>
-        <i x="3" s="1"/>
         <i x="5" s="1" nd="1"/>
+        <i x="6" s="1" nd="1"/>
         <i x="8" s="1" nd="1"/>
+        <i x="9" s="1" nd="1"/>
+        <i x="1" s="1" nd="1"/>
+        <i x="0" s="1" nd="1"/>
         <i x="2" s="1" nd="1"/>
+        <i x="3" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -16896,8 +17850,8 @@
   <data>
     <tabular pivotCacheId="3">
       <items count="3">
-        <i x="0" s="1"/>
-        <i x="1" s="1"/>
+        <i x="0"/>
+        <i x="1"/>
         <i x="2" s="1"/>
       </items>
     </tabular>
@@ -16916,15 +17870,15 @@
         <i x="5" s="1"/>
         <i x="8" s="1"/>
         <i x="9" s="1"/>
-        <i x="10" s="1"/>
         <i x="11" s="1"/>
-        <i x="0" s="1"/>
-        <i x="1" s="1"/>
-        <i x="2" s="1"/>
-        <i x="3" s="1"/>
-        <i x="4" s="1"/>
         <i x="6" s="1" nd="1"/>
         <i x="7" s="1" nd="1"/>
+        <i x="10" s="1" nd="1"/>
+        <i x="0" s="1" nd="1"/>
+        <i x="1" s="1" nd="1"/>
+        <i x="2" s="1" nd="1"/>
+        <i x="3" s="1" nd="1"/>
+        <i x="4" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -16944,8 +17898,8 @@
   <data>
     <tabular pivotCacheId="1">
       <items count="3">
-        <i x="0" s="1"/>
-        <i x="1" s="1"/>
+        <i x="0"/>
+        <i x="1"/>
         <i x="2" s="1"/>
       </items>
     </tabular>
@@ -16994,7 +17948,7 @@
 <file path=xl/slicers/slicer4.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <slicer name="Mês previsto 1" cache="SegmentaçãodeDados_Mês_previsto1" caption="Mês previsto" columnCount="6" rowHeight="241300"/>
-  <slicer name="Ano Previsto 1" cache="SegmentaçãodeDados_Ano_Previsto1" caption="Ano Previsto" rowHeight="241300"/>
+  <slicer name="Ano Previsto 1" cache="SegmentaçãodeDados_Ano_Previsto1" caption="Ano Previsto" startItem="2" rowHeight="241300"/>
 </slicers>
 </file>
 
@@ -17005,7 +17959,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TbPCEntradasN1" displayName="TbPCEntradasN1" ref="B4:B10" totalsRowShown="0" headerRowDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TbPCEntradasN1" displayName="TbPCEntradasN1" ref="B4:B10" totalsRowShown="0" headerRowDxfId="45">
   <autoFilter ref="B4:B10"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Nível 1"/>
@@ -17047,7 +18001,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TbRegistroEntradas" displayName="TbRegistroEntradas" ref="B5:O236" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TbRegistroEntradas" displayName="TbRegistroEntradas" ref="B5:O236" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
   <autoFilter ref="B5:O236">
     <filterColumn colId="8">
       <filters>
@@ -17056,39 +18010,39 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="14">
-    <tableColumn id="1" name="Data do Caixa Realizado" dataDxfId="39"/>
-    <tableColumn id="2" name="Data da Competência" dataDxfId="38"/>
-    <tableColumn id="3" name="Data do Caixa Previsto" dataDxfId="37"/>
-    <tableColumn id="4" name="Conta Nível 1" dataDxfId="36"/>
-    <tableColumn id="5" name="Conta Nível 2" dataDxfId="35"/>
-    <tableColumn id="6" name="Histórico" dataDxfId="34"/>
-    <tableColumn id="7" name="Valor" dataDxfId="33"/>
-    <tableColumn id="8" name="Mês Caixa" dataDxfId="32">
+    <tableColumn id="1" name="Data do Caixa Realizado" dataDxfId="42"/>
+    <tableColumn id="2" name="Data da Competência" dataDxfId="41"/>
+    <tableColumn id="3" name="Data do Caixa Previsto" dataDxfId="40"/>
+    <tableColumn id="4" name="Conta Nível 1" dataDxfId="39"/>
+    <tableColumn id="5" name="Conta Nível 2" dataDxfId="38"/>
+    <tableColumn id="6" name="Histórico" dataDxfId="37"/>
+    <tableColumn id="7" name="Valor" dataDxfId="36"/>
+    <tableColumn id="8" name="Mês Caixa" dataDxfId="35">
       <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Ano Caixa" dataDxfId="31">
+    <tableColumn id="9" name="Ano Caixa" dataDxfId="34">
       <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Mês _x000a_Competência" dataDxfId="30">
+    <tableColumn id="10" name="Mês _x000a_Competência" dataDxfId="33">
       <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data da Competência]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Ano _x000a_Competência" dataDxfId="29">
+    <tableColumn id="11" name="Ano _x000a_Competência" dataDxfId="32">
       <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data da Competência]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Mês previsto" dataDxfId="28">
+    <tableColumn id="12" name="Mês previsto" dataDxfId="31">
       <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Ano Previsto" dataDxfId="27">
+    <tableColumn id="13" name="Ano Previsto" dataDxfId="30">
       <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Conta vencida" dataDxfId="26"/>
+    <tableColumn id="14" name="Conta vencida" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="TbRegistrosSaida" displayName="TbRegistrosSaida" ref="B5:N234" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="TbRegistrosSaida" displayName="TbRegistrosSaida" ref="B5:N234" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25">
   <autoFilter ref="B5:N234">
     <filterColumn colId="8">
       <filters>
@@ -17097,29 +18051,29 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="13">
-    <tableColumn id="1" name="Data do Caixa Realizado" dataDxfId="21"/>
-    <tableColumn id="2" name="Data da Competência" dataDxfId="20"/>
-    <tableColumn id="3" name="Data do Caixa Previsto" dataDxfId="19"/>
-    <tableColumn id="4" name="Conta Nível 1" dataDxfId="18"/>
-    <tableColumn id="5" name="Conta Nível 2" dataDxfId="17"/>
-    <tableColumn id="6" name="Histórico" dataDxfId="16"/>
-    <tableColumn id="7" name="Valor" dataDxfId="15"/>
-    <tableColumn id="8" name="Mês Caixa" dataDxfId="14">
+    <tableColumn id="1" name="Data do Caixa Realizado" dataDxfId="24"/>
+    <tableColumn id="2" name="Data da Competência" dataDxfId="23"/>
+    <tableColumn id="3" name="Data do Caixa Previsto" dataDxfId="22"/>
+    <tableColumn id="4" name="Conta Nível 1" dataDxfId="21"/>
+    <tableColumn id="5" name="Conta Nível 2" dataDxfId="20"/>
+    <tableColumn id="6" name="Histórico" dataDxfId="19"/>
+    <tableColumn id="7" name="Valor" dataDxfId="18"/>
+    <tableColumn id="8" name="Mês Caixa" dataDxfId="17">
       <calculatedColumnFormula>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Ano Caixa" dataDxfId="13">
+    <tableColumn id="9" name="Ano Caixa" dataDxfId="16">
       <calculatedColumnFormula>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Mês _x000a_Competência" dataDxfId="12">
+    <tableColumn id="10" name="Mês _x000a_Competência" dataDxfId="15">
       <calculatedColumnFormula>IF(TbRegistrosSaida[[#This Row],[Data da Competência]]="",0,MONTH(TbRegistrosSaida[[#This Row],[Data da Competência]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Ano _x000a_Competência" dataDxfId="11">
+    <tableColumn id="11" name="Ano _x000a_Competência" dataDxfId="14">
       <calculatedColumnFormula>IF(TbRegistrosSaida[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data da Competência]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Mês previsto" dataDxfId="10">
+    <tableColumn id="12" name="Mês previsto" dataDxfId="13">
       <calculatedColumnFormula>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Ano Previsto" dataDxfId="9">
+    <tableColumn id="13" name="Ano Previsto" dataDxfId="12">
       <calculatedColumnFormula>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -17416,7 +18370,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="H1" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18377,7 +19333,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18428,8 +19384,8 @@
       <c r="B4" s="60" t="s">
         <v>573</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>565</v>
+      <c r="C4" s="22">
+        <v>2019</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18445,7 +19401,7 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="L7" t="s">
+      <c r="G7" t="s">
         <v>574</v>
       </c>
     </row>
@@ -18457,28 +19413,13 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F8">
-        <v>6</v>
-      </c>
-      <c r="G8">
-        <v>7</v>
-      </c>
-      <c r="H8">
         <v>8</v>
-      </c>
-      <c r="I8">
-        <v>9</v>
-      </c>
-      <c r="J8">
-        <v>10</v>
-      </c>
-      <c r="K8">
-        <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -18486,159 +19427,75 @@
         <v>16</v>
       </c>
       <c r="C9" s="61">
-        <v>6314</v>
+        <v>5159</v>
       </c>
       <c r="D9" s="61">
-        <v>4438</v>
+        <v>1753</v>
       </c>
       <c r="E9" s="61">
-        <v>1753</v>
+        <v>2338</v>
       </c>
       <c r="F9" s="61">
-        <v>701</v>
+        <v>2759</v>
       </c>
       <c r="G9" s="61">
-        <v>2338</v>
-      </c>
-      <c r="H9" s="61">
-        <v>6976</v>
-      </c>
-      <c r="I9" s="61">
-        <v>1565</v>
-      </c>
-      <c r="J9" s="61">
-        <v>5873</v>
-      </c>
-      <c r="K9" s="61">
-        <v>1967</v>
-      </c>
-      <c r="L9" s="61">
-        <v>31925</v>
+        <v>12009</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="55" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
+      <c r="D10" s="61">
+        <v>1753</v>
+      </c>
       <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61">
-        <v>4217</v>
-      </c>
-      <c r="I10" s="61">
-        <v>1565</v>
-      </c>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61">
-        <v>5782</v>
+      <c r="F10" s="61">
+        <v>2759</v>
+      </c>
+      <c r="G10" s="61">
+        <v>4512</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="61"/>
+        <v>78</v>
+      </c>
+      <c r="C11" s="61">
+        <v>5159</v>
+      </c>
       <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
+      <c r="E11" s="61">
+        <v>2338</v>
+      </c>
       <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61">
-        <v>5873</v>
-      </c>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61">
-        <v>5873</v>
+      <c r="G11" s="61">
+        <v>7497</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
+      <c r="B12" s="54" t="s">
+        <v>567</v>
+      </c>
+      <c r="C12" s="61">
+        <v>5159</v>
+      </c>
+      <c r="D12" s="61">
+        <v>1753</v>
+      </c>
       <c r="E12" s="61">
-        <v>1753</v>
-      </c>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61">
+        <v>2338</v>
+      </c>
+      <c r="F12" s="61">
         <v>2759</v>
       </c>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61">
-        <v>4512</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="55" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="61">
-        <v>6314</v>
-      </c>
-      <c r="D13" s="61">
-        <v>4438</v>
-      </c>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61">
-        <v>701</v>
-      </c>
-      <c r="G13" s="61">
-        <v>2338</v>
-      </c>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61">
-        <v>1967</v>
-      </c>
-      <c r="L13" s="61">
-        <v>15758</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="54" t="s">
-        <v>567</v>
-      </c>
-      <c r="C14" s="61">
-        <v>6314</v>
-      </c>
-      <c r="D14" s="61">
-        <v>4438</v>
-      </c>
-      <c r="E14" s="61">
-        <v>1753</v>
-      </c>
-      <c r="F14" s="61">
-        <v>701</v>
-      </c>
-      <c r="G14" s="61">
-        <v>2338</v>
-      </c>
-      <c r="H14" s="61">
-        <v>6976</v>
-      </c>
-      <c r="I14" s="61">
-        <v>1565</v>
-      </c>
-      <c r="J14" s="61">
-        <v>5873</v>
-      </c>
-      <c r="K14" s="61">
-        <v>1967</v>
-      </c>
-      <c r="L14" s="61">
-        <v>31925</v>
-      </c>
-    </row>
+      <c r="G12" s="61">
+        <v>12009</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18662,8 +19519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18713,8 +19570,8 @@
       <c r="B3" s="53" t="s">
         <v>573</v>
       </c>
-      <c r="C3" t="s">
-        <v>565</v>
+      <c r="C3" s="54">
+        <v>2019</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18730,7 +19587,7 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="M6" t="s">
+      <c r="G6" t="s">
         <v>574</v>
       </c>
     </row>
@@ -18748,25 +19605,7 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>6</v>
-      </c>
-      <c r="G7">
         <v>7</v>
-      </c>
-      <c r="H7">
-        <v>8</v>
-      </c>
-      <c r="I7">
-        <v>9</v>
-      </c>
-      <c r="J7">
-        <v>10</v>
-      </c>
-      <c r="K7">
-        <v>11</v>
-      </c>
-      <c r="L7">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -18774,185 +19613,90 @@
         <v>0</v>
       </c>
       <c r="C8" s="57">
-        <v>1767</v>
+        <v>483</v>
       </c>
       <c r="D8" s="57">
-        <v>3316</v>
+        <v>928</v>
       </c>
       <c r="E8" s="57">
         <v>2015</v>
       </c>
       <c r="F8" s="57">
-        <v>6102</v>
+        <v>1987</v>
       </c>
       <c r="G8" s="57">
-        <v>1987</v>
-      </c>
-      <c r="H8" s="57">
-        <v>770</v>
-      </c>
-      <c r="I8" s="57">
-        <v>4253</v>
-      </c>
-      <c r="J8" s="57">
-        <v>9905</v>
-      </c>
-      <c r="K8" s="57">
-        <v>1171</v>
-      </c>
-      <c r="L8" s="57">
-        <v>6972</v>
-      </c>
-      <c r="M8" s="57">
-        <v>38258</v>
+        <v>5413</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="57">
-        <v>1284</v>
-      </c>
+      <c r="C9" s="57"/>
       <c r="D9" s="57"/>
       <c r="E9" s="57"/>
       <c r="F9" s="57">
-        <v>3878</v>
+        <v>508</v>
       </c>
       <c r="G9" s="57">
         <v>508</v>
       </c>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57">
-        <v>4922</v>
-      </c>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57">
-        <v>919</v>
-      </c>
-      <c r="M9" s="57">
-        <v>11511</v>
-      </c>
     </row>
     <row r="10" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="55" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C10" s="57"/>
       <c r="D10" s="57">
-        <v>2388</v>
-      </c>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57">
-        <v>1171</v>
-      </c>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57">
-        <v>3559</v>
+        <v>928</v>
+      </c>
+      <c r="E10" s="57">
+        <v>667</v>
+      </c>
+      <c r="F10" s="57">
+        <v>1479</v>
+      </c>
+      <c r="G10" s="57">
+        <v>3074</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57">
-        <v>928</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C11" s="57">
+        <v>483</v>
+      </c>
+      <c r="D11" s="57"/>
       <c r="E11" s="57">
-        <v>667</v>
-      </c>
-      <c r="F11" s="57">
-        <v>2224</v>
-      </c>
+        <v>1348</v>
+      </c>
+      <c r="F11" s="57"/>
       <c r="G11" s="57">
-        <v>1479</v>
-      </c>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57">
-        <v>4253</v>
-      </c>
-      <c r="J11" s="57">
-        <v>4983</v>
-      </c>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57">
-        <v>1414</v>
-      </c>
-      <c r="M11" s="57">
-        <v>15948</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="55" t="s">
-        <v>50</v>
+      <c r="B12" s="54" t="s">
+        <v>567</v>
       </c>
       <c r="C12" s="57">
         <v>483</v>
       </c>
-      <c r="D12" s="57"/>
+      <c r="D12" s="57">
+        <v>928</v>
+      </c>
       <c r="E12" s="57">
-        <v>1348</v>
-      </c>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57">
-        <v>770</v>
-      </c>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57">
-        <v>4639</v>
-      </c>
-      <c r="M12" s="57">
-        <v>7240</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="54" t="s">
-        <v>567</v>
-      </c>
-      <c r="C13" s="57">
-        <v>1767</v>
-      </c>
-      <c r="D13" s="57">
-        <v>3316</v>
-      </c>
-      <c r="E13" s="57">
         <v>2015</v>
       </c>
-      <c r="F13" s="57">
-        <v>6102</v>
-      </c>
-      <c r="G13" s="57">
+      <c r="F12" s="57">
         <v>1987</v>
       </c>
-      <c r="H13" s="57">
-        <v>770</v>
-      </c>
-      <c r="I13" s="57">
-        <v>4253</v>
-      </c>
-      <c r="J13" s="57">
-        <v>9905</v>
-      </c>
-      <c r="K13" s="57">
-        <v>1171</v>
-      </c>
-      <c r="L13" s="57">
-        <v>6972</v>
-      </c>
-      <c r="M13" s="57">
-        <v>38258</v>
-      </c>
-    </row>
+      <c r="G12" s="57">
+        <v>5413</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19018,12 +19762,12 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
-      <c r="N2" s="69">
+      <c r="N2" s="114">
         <f ca="1">TODAY()</f>
-        <v>45390</v>
-      </c>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
+        <v>45392</v>
+      </c>
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
     </row>
     <row r="3" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -19276,8 +20020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19286,12 +20030,13 @@
     <col min="2" max="2" width="39.7109375" customWidth="1"/>
     <col min="3" max="3" width="1.42578125" customWidth="1"/>
     <col min="4" max="4" width="39.7109375" customWidth="1"/>
-    <col min="5" max="5" width="3.42578125" customWidth="1"/>
+    <col min="5" max="5" width="2.5703125" customWidth="1"/>
     <col min="6" max="7" width="16.28515625" customWidth="1"/>
     <col min="8" max="8" width="1.7109375" customWidth="1"/>
     <col min="9" max="10" width="16.28515625" customWidth="1"/>
-    <col min="11" max="11" width="1.7109375" customWidth="1"/>
-    <col min="12" max="13" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="4.5703125" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
     <col min="14" max="14" width="10" customWidth="1"/>
     <col min="15" max="15" width="9.140625" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" hidden="1"/>
@@ -19324,222 +20069,314 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70">
+      <c r="L2" s="62"/>
+      <c r="M2" s="62">
         <v>2019</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="113" t="s">
+      <c r="B4" s="101" t="s">
         <v>577</v>
       </c>
-      <c r="D4" s="113" t="s">
+      <c r="D4" s="101" t="s">
         <v>578</v>
       </c>
-      <c r="F4" s="114" t="s">
+      <c r="F4" s="115" t="s">
         <v>580</v>
       </c>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="115"/>
-      <c r="M4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="138" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="139"/>
     </row>
     <row r="5" spans="2:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="119">
+      <c r="B5" s="140">
         <f>'Dashboard financeiro anualD'!D12</f>
         <v>-3097</v>
       </c>
-      <c r="D5" s="119"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="73"/>
+      <c r="D5" s="134" t="s">
+        <v>615</v>
+      </c>
+      <c r="F5" s="63"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="65"/>
     </row>
     <row r="6" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F6" s="71"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="73"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="65"/>
     </row>
     <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="113"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="125" t="s">
+      <c r="D7" s="132"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="135" t="s">
         <v>581</v>
       </c>
-      <c r="M7" s="73"/>
+      <c r="M7" s="136"/>
     </row>
     <row r="8" spans="2:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="119">
+      <c r="B8" s="140">
+        <f>'Dashboard financeiro anualD'!E14</f>
+        <v>12009</v>
+      </c>
+      <c r="D8" s="133"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="103">
         <v>9999</v>
       </c>
-      <c r="D8" s="119"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="120">
-        <v>9999</v>
-      </c>
-      <c r="L8" s="120"/>
-      <c r="M8" s="121"/>
+      <c r="L8" s="137">
+        <f>SUM('Dashboard financeiro anualD'!K6:K17)</f>
+        <v>15612</v>
+      </c>
+      <c r="M8" s="122"/>
     </row>
     <row r="9" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F9" s="71"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="73"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="65"/>
     </row>
     <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="113" t="s">
+      <c r="B10" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="113"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="73"/>
-    </row>
-    <row r="11" spans="2:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="119">
-        <v>9999</v>
-      </c>
-      <c r="D11" s="119"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="76"/>
+      <c r="D10" s="132"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="65"/>
+    </row>
+    <row r="11" spans="2:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="140">
+        <f>'Dashboard financeiro anualD'!E15</f>
+        <v>5413</v>
+      </c>
+      <c r="D11" s="133"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="68"/>
     </row>
     <row r="12" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="114" t="s">
+      <c r="B13" s="115" t="s">
         <v>579</v>
       </c>
-      <c r="C13" s="115"/>
-      <c r="D13" s="116"/>
-      <c r="F13" s="117" t="s">
+      <c r="C13" s="116"/>
+      <c r="D13" s="117"/>
+      <c r="F13" s="118" t="s">
         <v>582</v>
       </c>
-      <c r="G13" s="118"/>
-      <c r="I13" s="117" t="s">
+      <c r="G13" s="119"/>
+      <c r="I13" s="118" t="s">
         <v>586</v>
       </c>
-      <c r="J13" s="118"/>
-      <c r="L13" s="117" t="s">
+      <c r="J13" s="119"/>
+      <c r="L13" s="118" t="s">
         <v>587</v>
       </c>
-      <c r="M13" s="118"/>
+      <c r="M13" s="119"/>
     </row>
     <row r="14" spans="2:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="71"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="73"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="73"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="73"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="73"/>
-    </row>
-    <row r="15" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="119">
+      <c r="B14" s="63"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="65"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="65"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="65"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="65"/>
+    </row>
+    <row r="15" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="141">
         <v>9999</v>
       </c>
-      <c r="C15" s="72"/>
-      <c r="D15" s="73"/>
-      <c r="F15" s="77" t="s">
+      <c r="C15" s="64"/>
+      <c r="D15" s="65"/>
+      <c r="F15" s="69" t="s">
         <v>583</v>
       </c>
-      <c r="G15" s="78" t="s">
+      <c r="G15" s="70" t="s">
         <v>584</v>
       </c>
-      <c r="I15" s="79"/>
-      <c r="J15" s="80"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="73"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="121"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="65"/>
     </row>
     <row r="16" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="71"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="73"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="73"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="73"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="73"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="65"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="65"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="65"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="65"/>
     </row>
     <row r="17" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="71"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="73"/>
-      <c r="F17" s="122" t="s">
+      <c r="B17" s="63"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="65"/>
+      <c r="F17" s="104" t="s">
         <v>585</v>
       </c>
-      <c r="G17" s="123" t="s">
+      <c r="G17" s="105" t="s">
         <v>585</v>
       </c>
-      <c r="I17" s="71"/>
-      <c r="J17" s="73"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="73"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="65"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="65"/>
     </row>
     <row r="18" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="74"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="76"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="76"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="76"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="76"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="68"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="68"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="68"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="68"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="11">
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="F4:M4"/>
-    <mergeCell ref="L13:M13"/>
   </mergeCells>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:M4">
+      <formula1>pcEntradasN2N2</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries rgb="FF00B050"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Dashboard financeiro anualD'!I6:I17</xm:f>
+              <xm:sqref>D10</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries rgb="FFFF0000"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Dashboard financeiro anualD'!H6:H17</xm:f>
+              <xm:sqref>D7</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries rgb="FF00B050"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Dashboard financeiro anualD'!H6:H17</xm:f>
+              <xm:sqref>D11</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -19547,792 +20384,980 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="81"/>
-      <c r="C2" s="82" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="72" t="s">
         <v>589</v>
       </c>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="83" t="s">
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="73" t="s">
         <v>590</v>
       </c>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="83" t="s">
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="73" t="s">
         <v>591</v>
       </c>
-      <c r="L4" s="84" t="s">
+      <c r="L4" s="74" t="s">
         <v>592</v>
       </c>
-      <c r="M4" s="85"/>
+      <c r="M4" s="75">
+        <f>D5</f>
+        <v>2019</v>
+      </c>
     </row>
     <row r="5" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="81"/>
-      <c r="C5" s="84" t="s">
+      <c r="B5" s="71"/>
+      <c r="C5" s="74" t="s">
         <v>593</v>
       </c>
-      <c r="D5" s="86">
+      <c r="D5" s="76">
         <f>'Dashboard financeiro anual'!M2</f>
         <v>2019</v>
       </c>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="87" t="s">
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="77" t="s">
         <v>594</v>
       </c>
-      <c r="H5" s="88" t="s">
+      <c r="H5" s="125" t="s">
+        <v>613</v>
+      </c>
+      <c r="I5" s="125" t="s">
+        <v>614</v>
+      </c>
+      <c r="J5" s="71"/>
+      <c r="K5" s="79" t="str">
+        <f>'Dashboard financeiro anual'!L4</f>
+        <v>Som e imagem</v>
+      </c>
+      <c r="L5" s="77" t="s">
         <v>595</v>
       </c>
-      <c r="I5" s="87" t="s">
+      <c r="M5" s="77" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="80">
+        <v>1</v>
+      </c>
+      <c r="H6" s="128">
+        <f>SUMIFS(TbRegistrosSaida[Valor],TbRegistrosSaida[Mês previsto],G6,TbRegistrosSaida[Ano Previsto],$D$5,TbRegistrosSaida[Data do Caixa Realizado],"")</f>
+        <v>5159</v>
+      </c>
+      <c r="I6" s="131">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês previsto],G6,TbRegistroEntradas[Ano Previsto],$D$5,TbRegistroEntradas[Data do Caixa Realizado],"")</f>
+        <v>483</v>
+      </c>
+      <c r="J6" s="71"/>
+      <c r="K6" s="81">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$K$5,TbRegistroEntradas[Ano 
+Competência],$M$4,TbRegistroEntradas[Mês 
+Competência],G6)</f>
+        <v>2564</v>
+      </c>
+      <c r="L6" s="81">
+        <f>IF(K6=0,"Não Disp",K6)</f>
+        <v>2564</v>
+      </c>
+      <c r="M6" s="82" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71">
+        <v>2</v>
+      </c>
+      <c r="H7" s="129">
+        <f>SUMIFS(TbRegistrosSaida[Valor],TbRegistrosSaida[Mês previsto],G7,TbRegistrosSaida[Ano Previsto],$D$5,TbRegistrosSaida[Data do Caixa Realizado],"")</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="126">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês previsto],G7,TbRegistroEntradas[Ano Previsto],$D$5,TbRegistroEntradas[Data do Caixa Realizado],"")</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="71"/>
+      <c r="K7" s="83">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$K$5,TbRegistroEntradas[Ano 
+Competência],$M$4,TbRegistroEntradas[Mês 
+Competência],G7)</f>
+        <v>4732</v>
+      </c>
+      <c r="L7" s="83">
+        <f t="shared" ref="L7:L17" si="0">IF(K7=0,"Não Disp",K7)</f>
+        <v>4732</v>
+      </c>
+      <c r="M7" s="74" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="71"/>
+      <c r="C8" s="73" t="s">
         <v>596</v>
       </c>
-      <c r="J5" s="81"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="87" t="s">
-        <v>597</v>
-      </c>
-      <c r="M5" s="87" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="90">
-        <v>1</v>
-      </c>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="92" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81">
-        <v>2</v>
-      </c>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="84" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="81"/>
-      <c r="C8" s="83" t="s">
-        <v>598</v>
-      </c>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81">
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71">
         <v>3</v>
       </c>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="84" t="s">
+      <c r="H8" s="129">
+        <f>SUMIFS(TbRegistrosSaida[Valor],TbRegistrosSaida[Mês previsto],G8,TbRegistrosSaida[Ano Previsto],$D$5,TbRegistrosSaida[Data do Caixa Realizado],"")</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="126">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês previsto],G8,TbRegistroEntradas[Ano Previsto],$D$5,TbRegistroEntradas[Data do Caixa Realizado],"")</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="71"/>
+      <c r="K8" s="83">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$K$5,TbRegistroEntradas[Ano 
+Competência],$M$4,TbRegistroEntradas[Mês 
+Competência],G8)</f>
+        <v>5489</v>
+      </c>
+      <c r="L8" s="83">
+        <f t="shared" si="0"/>
+        <v>5489</v>
+      </c>
+      <c r="M8" s="74" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="81"/>
-      <c r="C9" s="90" t="s">
+      <c r="B9" s="71"/>
+      <c r="C9" s="80" t="s">
         <v>553</v>
       </c>
-      <c r="D9" s="94">
+      <c r="D9" s="84">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Ano Caixa],"&lt;"&amp;D5,TbRegistroEntradas[Ano Caixa],"&lt;&gt;0")-SUMIFS(TbRegistrosSaida[Valor],TbRegistrosSaida[Ano Caixa],"&lt;"&amp;D5,TbRegistrosSaida[Ano Caixa],"&lt;&gt;0")</f>
         <v>14746</v>
       </c>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81">
+      <c r="E9" s="106"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71">
         <v>4</v>
       </c>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="84" t="s">
+      <c r="H9" s="129">
+        <f>SUMIFS(TbRegistrosSaida[Valor],TbRegistrosSaida[Mês previsto],G9,TbRegistrosSaida[Ano Previsto],$D$5,TbRegistrosSaida[Data do Caixa Realizado],"")</f>
+        <v>1753</v>
+      </c>
+      <c r="I9" s="126">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês previsto],G9,TbRegistroEntradas[Ano Previsto],$D$5,TbRegistroEntradas[Data do Caixa Realizado],"")</f>
+        <v>928</v>
+      </c>
+      <c r="J9" s="71"/>
+      <c r="K9" s="83">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$K$5,TbRegistroEntradas[Ano 
+Competência],$M$4,TbRegistroEntradas[Mês 
+Competência],G9)</f>
+        <v>618</v>
+      </c>
+      <c r="L9" s="83">
+        <f t="shared" si="0"/>
+        <v>618</v>
+      </c>
+      <c r="M9" s="74" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="81"/>
-      <c r="C10" s="81" t="s">
+      <c r="B10" s="71"/>
+      <c r="C10" s="71" t="s">
         <v>538</v>
       </c>
-      <c r="D10" s="95">
+      <c r="D10" s="85">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Ano Caixa],"="&amp;D5)</f>
         <v>161998</v>
       </c>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81">
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71">
         <v>5</v>
       </c>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="93"/>
-      <c r="M10" s="84" t="s">
+      <c r="H10" s="129">
+        <f>SUMIFS(TbRegistrosSaida[Valor],TbRegistrosSaida[Mês previsto],G10,TbRegistrosSaida[Ano Previsto],$D$5,TbRegistrosSaida[Data do Caixa Realizado],"")</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="126">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês previsto],G10,TbRegistroEntradas[Ano Previsto],$D$5,TbRegistroEntradas[Data do Caixa Realizado],"")</f>
+        <v>2015</v>
+      </c>
+      <c r="J10" s="71"/>
+      <c r="K10" s="83">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$K$5,TbRegistroEntradas[Ano 
+Competência],$M$4,TbRegistroEntradas[Mês 
+Competência],G10)</f>
+        <v>1654</v>
+      </c>
+      <c r="L10" s="83">
+        <f t="shared" si="0"/>
+        <v>1654</v>
+      </c>
+      <c r="M10" s="74" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="81"/>
-      <c r="C11" s="81" t="s">
+      <c r="B11" s="71"/>
+      <c r="C11" s="71" t="s">
         <v>539</v>
       </c>
-      <c r="D11" s="95">
+      <c r="D11" s="85">
         <f>SUMIFS(TbRegistrosSaida[Valor],TbRegistrosSaida[Ano Caixa],"="&amp;D5)</f>
         <v>179841</v>
       </c>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81">
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71">
         <v>6</v>
       </c>
-      <c r="H11" s="93"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="84" t="s">
+      <c r="H11" s="129">
+        <f>SUMIFS(TbRegistrosSaida[Valor],TbRegistrosSaida[Mês previsto],G11,TbRegistrosSaida[Ano Previsto],$D$5,TbRegistrosSaida[Data do Caixa Realizado],"")</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="126">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês previsto],G11,TbRegistroEntradas[Ano Previsto],$D$5,TbRegistroEntradas[Data do Caixa Realizado],"")</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="71"/>
+      <c r="K11" s="83">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$K$5,TbRegistroEntradas[Ano 
+Competência],$M$4,TbRegistroEntradas[Mês 
+Competência],G11)</f>
+        <v>555</v>
+      </c>
+      <c r="L11" s="83">
+        <f t="shared" si="0"/>
+        <v>555</v>
+      </c>
+      <c r="M11" s="74" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="81"/>
-      <c r="C12" s="96" t="s">
-        <v>599</v>
-      </c>
-      <c r="D12" s="97">
+      <c r="B12" s="71"/>
+      <c r="C12" s="86" t="s">
+        <v>597</v>
+      </c>
+      <c r="D12" s="87">
         <f>D9+D10-D11</f>
         <v>-3097</v>
       </c>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81">
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71">
         <v>7</v>
       </c>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="84" t="s">
+      <c r="H12" s="129">
+        <f>SUMIFS(TbRegistrosSaida[Valor],TbRegistrosSaida[Mês previsto],G12,TbRegistrosSaida[Ano Previsto],$D$5,TbRegistrosSaida[Data do Caixa Realizado],"")</f>
+        <v>2338</v>
+      </c>
+      <c r="I12" s="126">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês previsto],G12,TbRegistroEntradas[Ano Previsto],$D$5,TbRegistroEntradas[Data do Caixa Realizado],"")</f>
+        <v>1987</v>
+      </c>
+      <c r="J12" s="71"/>
+      <c r="K12" s="83">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$K$5,TbRegistroEntradas[Ano 
+Competência],$M$4,TbRegistroEntradas[Mês 
+Competência],G12)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="83" t="str">
+        <f t="shared" si="0"/>
+        <v>Não Disp</v>
+      </c>
+      <c r="M12" s="74" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81">
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71">
         <v>8</v>
       </c>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="84" t="s">
+      <c r="H13" s="129">
+        <f>SUMIFS(TbRegistrosSaida[Valor],TbRegistrosSaida[Mês previsto],G13,TbRegistrosSaida[Ano Previsto],$D$5,TbRegistrosSaida[Data do Caixa Realizado],"")</f>
+        <v>2759</v>
+      </c>
+      <c r="I13" s="126">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês previsto],G13,TbRegistroEntradas[Ano Previsto],$D$5,TbRegistroEntradas[Data do Caixa Realizado],"")</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="71"/>
+      <c r="K13" s="83">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$K$5,TbRegistroEntradas[Ano 
+Competência],$M$4,TbRegistroEntradas[Mês 
+Competência],G13)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="83" t="str">
+        <f t="shared" si="0"/>
+        <v>Não Disp</v>
+      </c>
+      <c r="M13" s="74" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="81"/>
-      <c r="C14" s="98" t="s">
+      <c r="B14" s="71"/>
+      <c r="C14" s="123" t="s">
+        <v>598</v>
+      </c>
+      <c r="D14" s="123"/>
+      <c r="E14" s="106">
+        <f>SUMIFS(TbRegistrosSaida[Valor],TbRegistrosSaida[Data do Caixa Realizado],"",TbRegistrosSaida[Ano Previsto],D5)</f>
+        <v>12009</v>
+      </c>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71">
+        <v>9</v>
+      </c>
+      <c r="H14" s="129">
+        <f>SUMIFS(TbRegistrosSaida[Valor],TbRegistrosSaida[Mês previsto],G14,TbRegistrosSaida[Ano Previsto],$D$5,TbRegistrosSaida[Data do Caixa Realizado],"")</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="126">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês previsto],G14,TbRegistroEntradas[Ano Previsto],$D$5,TbRegistroEntradas[Data do Caixa Realizado],"")</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="71"/>
+      <c r="K14" s="83">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$K$5,TbRegistroEntradas[Ano 
+Competência],$M$4,TbRegistroEntradas[Mês 
+Competência],G14)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="83" t="str">
+        <f t="shared" si="0"/>
+        <v>Não Disp</v>
+      </c>
+      <c r="M14" s="74" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="71"/>
+      <c r="C15" s="124" t="s">
+        <v>599</v>
+      </c>
+      <c r="D15" s="124"/>
+      <c r="E15" s="106">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Data do Caixa Realizado],"",TbRegistroEntradas[Ano Previsto],D5)</f>
+        <v>5413</v>
+      </c>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71">
+        <v>10</v>
+      </c>
+      <c r="H15" s="129">
+        <f>SUMIFS(TbRegistrosSaida[Valor],TbRegistrosSaida[Mês previsto],G15,TbRegistrosSaida[Ano Previsto],$D$5,TbRegistrosSaida[Data do Caixa Realizado],"")</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="126">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês previsto],G15,TbRegistroEntradas[Ano Previsto],$D$5,TbRegistroEntradas[Data do Caixa Realizado],"")</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="71"/>
+      <c r="K15" s="83">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$K$5,TbRegistroEntradas[Ano 
+Competência],$M$4,TbRegistroEntradas[Mês 
+Competência],G15)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="83" t="str">
+        <f t="shared" si="0"/>
+        <v>Não Disp</v>
+      </c>
+      <c r="M15" s="74" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71">
+        <v>11</v>
+      </c>
+      <c r="H16" s="129">
+        <f>SUMIFS(TbRegistrosSaida[Valor],TbRegistrosSaida[Mês previsto],G16,TbRegistrosSaida[Ano Previsto],$D$5,TbRegistrosSaida[Data do Caixa Realizado],"")</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="126">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês previsto],G16,TbRegistroEntradas[Ano Previsto],$D$5,TbRegistroEntradas[Data do Caixa Realizado],"")</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="71"/>
+      <c r="K16" s="83">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$K$5,TbRegistroEntradas[Ano 
+Competência],$M$4,TbRegistroEntradas[Mês 
+Competência],G16)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="83" t="str">
+        <f t="shared" si="0"/>
+        <v>Não Disp</v>
+      </c>
+      <c r="M16" s="74" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="86">
+        <v>12</v>
+      </c>
+      <c r="H17" s="130">
+        <f>SUMIFS(TbRegistrosSaida[Valor],TbRegistrosSaida[Mês previsto],G17,TbRegistrosSaida[Ano Previsto],$D$5,TbRegistrosSaida[Data do Caixa Realizado],"")</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="127">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês previsto],G17,TbRegistroEntradas[Ano Previsto],$D$5,TbRegistroEntradas[Data do Caixa Realizado],"")</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="71"/>
+      <c r="K17" s="88">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$K$5,TbRegistroEntradas[Ano 
+Competência],$M$4,TbRegistroEntradas[Mês 
+Competência],G17)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>Não Disp</v>
+      </c>
+      <c r="M17" s="89" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="71"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="71"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="71"/>
+      <c r="C21" s="73" t="s">
         <v>600</v>
       </c>
-      <c r="D14" s="98"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81">
+      <c r="D21" s="71"/>
+      <c r="E21" s="78" t="s">
+        <v>603</v>
+      </c>
+      <c r="F21" s="78" t="s">
+        <v>581</v>
+      </c>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="71"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="71"/>
+      <c r="C22" s="77" t="s">
+        <v>601</v>
+      </c>
+      <c r="D22" s="78" t="s">
+        <v>602</v>
+      </c>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="71"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="71"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="71"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="71"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="73" t="s">
+        <v>605</v>
+      </c>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="71"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="71"/>
+      <c r="C26" s="73" t="s">
+        <v>604</v>
+      </c>
+      <c r="D26" s="71"/>
+      <c r="E26" s="78" t="s">
+        <v>607</v>
+      </c>
+      <c r="F26" s="78" t="s">
+        <v>608</v>
+      </c>
+      <c r="G26" s="71"/>
+      <c r="H26" s="77" t="s">
+        <v>601</v>
+      </c>
+      <c r="I26" s="78" t="s">
+        <v>606</v>
+      </c>
+      <c r="J26" s="78" t="s">
+        <v>607</v>
+      </c>
+      <c r="K26" s="78" t="s">
+        <v>608</v>
+      </c>
+      <c r="L26" s="71"/>
+      <c r="M26" s="71"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="71"/>
+      <c r="C27" s="77" t="s">
+        <v>601</v>
+      </c>
+      <c r="D27" s="78" t="s">
+        <v>606</v>
+      </c>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="91"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="93"/>
+      <c r="L27" s="71"/>
+      <c r="M27" s="71"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="71"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="71"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="71"/>
+      <c r="M28" s="71"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="71"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="71"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="71"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="73" t="s">
+        <v>610</v>
+      </c>
+      <c r="I30" s="94"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="71"/>
+      <c r="L30" s="71"/>
+      <c r="M30" s="71"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="71"/>
+      <c r="C31" s="73" t="s">
+        <v>609</v>
+      </c>
+      <c r="D31" s="71"/>
+      <c r="E31" s="82" t="s">
+        <v>539</v>
+      </c>
+      <c r="F31" s="82" t="s">
+        <v>612</v>
+      </c>
+      <c r="G31" s="71"/>
+      <c r="H31" s="77" t="s">
+        <v>594</v>
+      </c>
+      <c r="I31" s="96"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="71"/>
+      <c r="L31" s="71"/>
+      <c r="M31" s="71"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="71"/>
+      <c r="C32" s="95" t="s">
+        <v>611</v>
+      </c>
+      <c r="D32" s="82" t="s">
+        <v>538</v>
+      </c>
+      <c r="E32" s="98"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="71">
+        <v>1</v>
+      </c>
+      <c r="I32" s="83"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="71"/>
+      <c r="L32" s="71"/>
+      <c r="M32" s="71"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="71"/>
+      <c r="C33" s="97"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="71">
+        <v>2</v>
+      </c>
+      <c r="I33" s="83"/>
+      <c r="J33" s="71"/>
+      <c r="K33" s="71"/>
+      <c r="L33" s="71"/>
+      <c r="M33" s="71"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="71"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71">
+        <v>3</v>
+      </c>
+      <c r="I34" s="83"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="71"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="71"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71">
+        <v>4</v>
+      </c>
+      <c r="I35" s="83"/>
+      <c r="J35" s="71"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="71"/>
+      <c r="M35" s="71"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="71"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71">
+        <v>5</v>
+      </c>
+      <c r="I36" s="83"/>
+      <c r="J36" s="71"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="71"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B37" s="71"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71">
+        <v>6</v>
+      </c>
+      <c r="I37" s="83"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="71"/>
+      <c r="L37" s="71"/>
+      <c r="M37" s="71"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B38" s="71"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="71">
+        <v>7</v>
+      </c>
+      <c r="I38" s="83"/>
+      <c r="J38" s="71"/>
+      <c r="K38" s="71"/>
+      <c r="L38" s="71"/>
+      <c r="M38" s="71"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39" s="71"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="71">
+        <v>8</v>
+      </c>
+      <c r="I39" s="83"/>
+      <c r="J39" s="71"/>
+      <c r="K39" s="71"/>
+      <c r="L39" s="71"/>
+      <c r="M39" s="71"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B40" s="71"/>
+      <c r="C40" s="71"/>
+      <c r="D40" s="71"/>
+      <c r="E40" s="71"/>
+      <c r="F40" s="71"/>
+      <c r="G40" s="71"/>
+      <c r="H40" s="71">
         <v>9</v>
       </c>
-      <c r="H14" s="93"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="84" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="81"/>
-      <c r="C15" s="99" t="s">
-        <v>601</v>
-      </c>
-      <c r="D15" s="99"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81">
+      <c r="I40" s="83"/>
+      <c r="J40" s="71"/>
+      <c r="K40" s="71"/>
+      <c r="L40" s="71"/>
+      <c r="M40" s="71"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="71"/>
+      <c r="C41" s="71"/>
+      <c r="D41" s="71"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="71">
         <v>10</v>
       </c>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="84" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81">
+      <c r="I41" s="83"/>
+      <c r="J41" s="71"/>
+      <c r="K41" s="71"/>
+      <c r="L41" s="71"/>
+      <c r="M41" s="71"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B42" s="71"/>
+      <c r="C42" s="71"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="71">
         <v>11</v>
       </c>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="84" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="81"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="96">
+      <c r="I42" s="83"/>
+      <c r="J42" s="71"/>
+      <c r="K42" s="71"/>
+      <c r="L42" s="71"/>
+      <c r="M42" s="71"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B43" s="71"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="86">
         <v>12</v>
       </c>
-      <c r="H17" s="100"/>
-      <c r="I17" s="100"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="100"/>
-      <c r="M17" s="101" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="81"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="81"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="81"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="81"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81"/>
-      <c r="M20" s="81"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="81"/>
-      <c r="C21" s="83" t="s">
-        <v>602</v>
-      </c>
-      <c r="D21" s="81"/>
-      <c r="E21" s="88" t="s">
-        <v>605</v>
-      </c>
-      <c r="F21" s="88" t="s">
+      <c r="I43" s="88"/>
+      <c r="J43" s="71"/>
+      <c r="K43" s="71"/>
+      <c r="L43" s="71"/>
+      <c r="M43" s="71"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B44" s="71"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="77" t="s">
         <v>581</v>
       </c>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="81"/>
-      <c r="K21" s="81"/>
-      <c r="L21" s="81"/>
-      <c r="M21" s="81"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="81"/>
-      <c r="C22" s="87" t="s">
-        <v>603</v>
-      </c>
-      <c r="D22" s="88" t="s">
-        <v>604</v>
-      </c>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="81"/>
-      <c r="L22" s="81"/>
-      <c r="M22" s="81"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="81"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="81"/>
-      <c r="L23" s="81"/>
-      <c r="M23" s="81"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="81"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="81"/>
-      <c r="M24" s="81"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="81"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="83" t="s">
-        <v>607</v>
-      </c>
-      <c r="I25" s="81"/>
-      <c r="J25" s="81"/>
-      <c r="K25" s="81"/>
-      <c r="L25" s="81"/>
-      <c r="M25" s="81"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="81"/>
-      <c r="C26" s="83" t="s">
-        <v>606</v>
-      </c>
-      <c r="D26" s="81"/>
-      <c r="E26" s="88" t="s">
-        <v>609</v>
-      </c>
-      <c r="F26" s="88" t="s">
-        <v>610</v>
-      </c>
-      <c r="G26" s="81"/>
-      <c r="H26" s="87" t="s">
-        <v>603</v>
-      </c>
-      <c r="I26" s="88" t="s">
-        <v>608</v>
-      </c>
-      <c r="J26" s="88" t="s">
-        <v>609</v>
-      </c>
-      <c r="K26" s="88" t="s">
-        <v>610</v>
-      </c>
-      <c r="L26" s="81"/>
-      <c r="M26" s="81"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="81"/>
-      <c r="C27" s="87" t="s">
-        <v>603</v>
-      </c>
-      <c r="D27" s="88" t="s">
-        <v>608</v>
-      </c>
-      <c r="E27" s="105"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="103"/>
-      <c r="I27" s="105"/>
-      <c r="J27" s="105"/>
-      <c r="K27" s="105"/>
-      <c r="L27" s="81"/>
-      <c r="M27" s="81"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="81"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="105"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="81"/>
-      <c r="M28" s="81"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="81"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="81"/>
-      <c r="L29" s="81"/>
-      <c r="M29" s="81"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="81"/>
-      <c r="C30" s="81"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="83" t="s">
-        <v>612</v>
-      </c>
-      <c r="I30" s="106"/>
-      <c r="J30" s="81"/>
-      <c r="K30" s="81"/>
-      <c r="L30" s="81"/>
-      <c r="M30" s="81"/>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="81"/>
-      <c r="C31" s="83" t="s">
-        <v>611</v>
-      </c>
-      <c r="D31" s="81"/>
-      <c r="E31" s="92" t="s">
-        <v>539</v>
-      </c>
-      <c r="F31" s="92" t="s">
-        <v>614</v>
-      </c>
-      <c r="G31" s="81"/>
-      <c r="H31" s="87" t="s">
-        <v>594</v>
-      </c>
-      <c r="I31" s="108"/>
-      <c r="J31" s="81"/>
-      <c r="K31" s="81"/>
-      <c r="L31" s="81"/>
-      <c r="M31" s="81"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="81"/>
-      <c r="C32" s="107" t="s">
-        <v>613</v>
-      </c>
-      <c r="D32" s="92" t="s">
-        <v>538</v>
-      </c>
-      <c r="E32" s="110"/>
-      <c r="F32" s="111"/>
-      <c r="G32" s="81"/>
-      <c r="H32" s="81">
-        <v>1</v>
-      </c>
-      <c r="I32" s="93"/>
-      <c r="J32" s="81"/>
-      <c r="K32" s="81"/>
-      <c r="L32" s="81"/>
-      <c r="M32" s="81"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="81"/>
-      <c r="C33" s="109"/>
-      <c r="D33" s="110"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="81">
-        <v>2</v>
-      </c>
-      <c r="I33" s="93"/>
-      <c r="J33" s="81"/>
-      <c r="K33" s="81"/>
-      <c r="L33" s="81"/>
-      <c r="M33" s="81"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="81"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="81"/>
-      <c r="H34" s="81">
-        <v>3</v>
-      </c>
-      <c r="I34" s="93"/>
-      <c r="J34" s="81"/>
-      <c r="K34" s="81"/>
-      <c r="L34" s="81"/>
-      <c r="M34" s="81"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="81"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="81"/>
-      <c r="H35" s="81">
-        <v>4</v>
-      </c>
-      <c r="I35" s="93"/>
-      <c r="J35" s="81"/>
-      <c r="K35" s="81"/>
-      <c r="L35" s="81"/>
-      <c r="M35" s="81"/>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="81"/>
-      <c r="C36" s="81"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="81">
-        <v>5</v>
-      </c>
-      <c r="I36" s="93"/>
-      <c r="J36" s="81"/>
-      <c r="K36" s="81"/>
-      <c r="L36" s="81"/>
-      <c r="M36" s="81"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="81"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81">
-        <v>6</v>
-      </c>
-      <c r="I37" s="93"/>
-      <c r="J37" s="81"/>
-      <c r="K37" s="81"/>
-      <c r="L37" s="81"/>
-      <c r="M37" s="81"/>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="81"/>
-      <c r="C38" s="81"/>
-      <c r="D38" s="81"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="81">
-        <v>7</v>
-      </c>
-      <c r="I38" s="93"/>
-      <c r="J38" s="81"/>
-      <c r="K38" s="81"/>
-      <c r="L38" s="81"/>
-      <c r="M38" s="81"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="81"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="81">
-        <v>8</v>
-      </c>
-      <c r="I39" s="93"/>
-      <c r="J39" s="81"/>
-      <c r="K39" s="81"/>
-      <c r="L39" s="81"/>
-      <c r="M39" s="81"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="81"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="81"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="81">
-        <v>9</v>
-      </c>
-      <c r="I40" s="93"/>
-      <c r="J40" s="81"/>
-      <c r="K40" s="81"/>
-      <c r="L40" s="81"/>
-      <c r="M40" s="81"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="81"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="81"/>
-      <c r="H41" s="81">
-        <v>10</v>
-      </c>
-      <c r="I41" s="93"/>
-      <c r="J41" s="81"/>
-      <c r="K41" s="81"/>
-      <c r="L41" s="81"/>
-      <c r="M41" s="81"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="81"/>
-      <c r="C42" s="81"/>
-      <c r="D42" s="81"/>
-      <c r="E42" s="81"/>
-      <c r="F42" s="81"/>
-      <c r="G42" s="81"/>
-      <c r="H42" s="81">
-        <v>11</v>
-      </c>
-      <c r="I42" s="93"/>
-      <c r="J42" s="81"/>
-      <c r="K42" s="81"/>
-      <c r="L42" s="81"/>
-      <c r="M42" s="81"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="81"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="81"/>
-      <c r="F43" s="81"/>
-      <c r="G43" s="81"/>
-      <c r="H43" s="96">
-        <v>12</v>
-      </c>
-      <c r="I43" s="100"/>
-      <c r="J43" s="81"/>
-      <c r="K43" s="81"/>
-      <c r="L43" s="81"/>
-      <c r="M43" s="81"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="81"/>
-      <c r="C44" s="81"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="87" t="s">
-        <v>581</v>
-      </c>
-      <c r="I44" s="112"/>
-      <c r="J44" s="81"/>
-      <c r="K44" s="81"/>
-      <c r="L44" s="81"/>
-      <c r="M44" s="81"/>
+      <c r="I44" s="100"/>
+      <c r="J44" s="71"/>
+      <c r="K44" s="71"/>
+      <c r="L44" s="71"/>
+      <c r="M44" s="71"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C45" s="81"/>
-      <c r="D45" s="81"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="71"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+  </mergeCells>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20344,9 +21369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -20856,7 +21879,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20975,7 +21998,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21020,10 +22043,10 @@
       <c r="N2" s="6"/>
     </row>
     <row r="3" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="63"/>
+      <c r="C3" s="108"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -21318,10 +22341,10 @@
       <c r="N2" s="6"/>
     </row>
     <row r="3" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="109" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="65"/>
+      <c r="C3" s="110"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -21467,9 +22490,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O236"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H151" sqref="H151:H236"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6:O236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44351,11 +45374,11 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="111" t="s">
         <v>536</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
     </row>
     <row r="8" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="30" t="s">
@@ -44613,12 +45636,12 @@
     <row r="13" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="112" t="s">
         <v>554</v>
       </c>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
     </row>
     <row r="16" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="30" t="s">
@@ -44928,12 +45951,12 @@
     <row r="21" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="68" t="s">
+      <c r="B23" s="113" t="s">
         <v>555</v>
       </c>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="113"/>
     </row>
     <row r="24" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="30" t="s">

--- a/Projeto Final/projetoFluxodeCaixa.xlsx
+++ b/Projeto Final/projetoFluxodeCaixa.xlsx
@@ -52,7 +52,7 @@
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId20"/>
     <pivotCache cacheId="1" r:id="rId21"/>
-    <pivotCache cacheId="13" r:id="rId22"/>
+    <pivotCache cacheId="2" r:id="rId22"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{876F7934-8845-4945-9796-88D515C7AA90}">
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="617">
   <si>
     <t>Vendas de mercadorias</t>
   </si>
@@ -1985,6 +1985,9 @@
   </si>
   <si>
     <t>J F M A M J J A S O N D</t>
+  </si>
+  <si>
+    <t>Á vista</t>
   </si>
 </sst>
 </file>
@@ -2681,7 +2684,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2851,12 +2854,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2956,56 +2953,14 @@
     <xf numFmtId="44" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="43" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3028,14 +2983,50 @@
     <xf numFmtId="43" fontId="15" fillId="9" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="22" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="22" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3046,16 +3037,22 @@
     <xf numFmtId="44" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="22" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="22" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3063,7 +3060,14 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="47">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -3093,11 +3097,20 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="center" readingOrder="0"/>
@@ -3262,18 +3275,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -3394,22 +3395,22 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2564</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4732</c:v>
+                  <c:v>1417</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5489</c:v>
+                  <c:v>4022</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>618</c:v>
+                  <c:v>10057</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1654</c:v>
+                  <c:v>5167</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>555</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -3443,11 +3444,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1406347648"/>
-        <c:axId val="1406350912"/>
+        <c:axId val="-1418492928"/>
+        <c:axId val="-1624664976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1406347648"/>
+        <c:axId val="-1418492928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3490,7 +3491,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1406350912"/>
+        <c:crossAx val="-1624664976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3498,7 +3499,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1406350912"/>
+        <c:axId val="-1624664976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3522,7 +3523,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1406347648"/>
+        <c:crossAx val="-1418492928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3564,7 +3565,282 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.4033202991388678E-2"/>
+          <c:y val="0.12791780419481771"/>
+          <c:w val="0.62242282780907865"/>
+          <c:h val="0.73594636410520886"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="95000"/>
+                        <a:lumOff val="5000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Dashboard financeiro anualD'!$D$22:$E$22</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>À Vista</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>A Prazo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Dashboard financeiro anualD'!$D$23:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>39573</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91086</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="44"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4088,6 +4364,525 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -7333,6 +8128,38 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>631760</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>136070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2459005</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>184667</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -16971,7 +17798,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TDDetalhamentoReceita" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TDDetalhamentoReceita" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B5:O13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -17104,13 +17931,13 @@
     <dataField name="Soma de Valor" fld="6" baseField="4" baseItem="2" numFmtId="4"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="11">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="13">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -17406,20 +18233,20 @@
     <dataField name="Soma de Valor" fld="6" baseField="3" baseItem="0" numFmtId="4"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="8">
+    <format dxfId="12">
       <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="11">
       <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="10">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="12" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="9">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="12" count="0"/>
@@ -17437,7 +18264,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TDContasAReceber" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TDContasAReceber" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B5:G12" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -17566,7 +18393,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TDContasAReceberVencidas" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TDContasAReceberVencidas" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B6:L14" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -17959,7 +18786,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TbPCEntradasN1" displayName="TbPCEntradasN1" ref="B4:B10" totalsRowShown="0" headerRowDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TbPCEntradasN1" displayName="TbPCEntradasN1" ref="B4:B10" totalsRowShown="0" headerRowDxfId="46">
   <autoFilter ref="B4:B10"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Nível 1"/>
@@ -18001,48 +18828,45 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TbRegistroEntradas" displayName="TbRegistroEntradas" ref="B5:O236" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
-  <autoFilter ref="B5:O236">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="2019"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <tableColumns count="14">
-    <tableColumn id="1" name="Data do Caixa Realizado" dataDxfId="42"/>
-    <tableColumn id="2" name="Data da Competência" dataDxfId="41"/>
-    <tableColumn id="3" name="Data do Caixa Previsto" dataDxfId="40"/>
-    <tableColumn id="4" name="Conta Nível 1" dataDxfId="39"/>
-    <tableColumn id="5" name="Conta Nível 2" dataDxfId="38"/>
-    <tableColumn id="6" name="Histórico" dataDxfId="37"/>
-    <tableColumn id="7" name="Valor" dataDxfId="36"/>
-    <tableColumn id="8" name="Mês Caixa" dataDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TbRegistroEntradas" displayName="TbRegistroEntradas" ref="B5:P236" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
+  <autoFilter ref="B5:P236"/>
+  <tableColumns count="15">
+    <tableColumn id="1" name="Data do Caixa Realizado" dataDxfId="43"/>
+    <tableColumn id="2" name="Data da Competência" dataDxfId="7"/>
+    <tableColumn id="3" name="Data do Caixa Previsto" dataDxfId="5"/>
+    <tableColumn id="4" name="Conta Nível 1" dataDxfId="6"/>
+    <tableColumn id="5" name="Conta Nível 2" dataDxfId="42"/>
+    <tableColumn id="6" name="Histórico" dataDxfId="41"/>
+    <tableColumn id="7" name="Valor" dataDxfId="40"/>
+    <tableColumn id="8" name="Mês Caixa" dataDxfId="39">
       <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Ano Caixa" dataDxfId="34">
+    <tableColumn id="9" name="Ano Caixa" dataDxfId="38">
       <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Mês _x000a_Competência" dataDxfId="33">
+    <tableColumn id="10" name="Mês _x000a_Competência" dataDxfId="37">
       <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data da Competência]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Ano _x000a_Competência" dataDxfId="32">
+    <tableColumn id="11" name="Ano _x000a_Competência" dataDxfId="36">
       <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data da Competência]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Mês previsto" dataDxfId="31">
+    <tableColumn id="12" name="Mês previsto" dataDxfId="35">
       <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Ano Previsto" dataDxfId="30">
+    <tableColumn id="13" name="Ano Previsto" dataDxfId="34">
       <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Conta vencida" dataDxfId="29"/>
+    <tableColumn id="16" name="Á vista" dataDxfId="8">
+      <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" name="Conta vencida" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="TbRegistrosSaida" displayName="TbRegistrosSaida" ref="B5:N234" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="TbRegistrosSaida" displayName="TbRegistrosSaida" ref="B5:N234" totalsRowShown="0" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" tableBorderDxfId="29">
   <autoFilter ref="B5:N234">
     <filterColumn colId="8">
       <filters>
@@ -18051,29 +18875,29 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="13">
-    <tableColumn id="1" name="Data do Caixa Realizado" dataDxfId="24"/>
-    <tableColumn id="2" name="Data da Competência" dataDxfId="23"/>
-    <tableColumn id="3" name="Data do Caixa Previsto" dataDxfId="22"/>
-    <tableColumn id="4" name="Conta Nível 1" dataDxfId="21"/>
-    <tableColumn id="5" name="Conta Nível 2" dataDxfId="20"/>
-    <tableColumn id="6" name="Histórico" dataDxfId="19"/>
-    <tableColumn id="7" name="Valor" dataDxfId="18"/>
-    <tableColumn id="8" name="Mês Caixa" dataDxfId="17">
+    <tableColumn id="1" name="Data do Caixa Realizado" dataDxfId="28"/>
+    <tableColumn id="2" name="Data da Competência" dataDxfId="27"/>
+    <tableColumn id="3" name="Data do Caixa Previsto" dataDxfId="26"/>
+    <tableColumn id="4" name="Conta Nível 1" dataDxfId="25"/>
+    <tableColumn id="5" name="Conta Nível 2" dataDxfId="24"/>
+    <tableColumn id="6" name="Histórico" dataDxfId="23"/>
+    <tableColumn id="7" name="Valor" dataDxfId="22"/>
+    <tableColumn id="8" name="Mês Caixa" dataDxfId="21">
       <calculatedColumnFormula>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Ano Caixa" dataDxfId="16">
+    <tableColumn id="9" name="Ano Caixa" dataDxfId="20">
       <calculatedColumnFormula>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Mês _x000a_Competência" dataDxfId="15">
+    <tableColumn id="10" name="Mês _x000a_Competência" dataDxfId="19">
       <calculatedColumnFormula>IF(TbRegistrosSaida[[#This Row],[Data da Competência]]="",0,MONTH(TbRegistrosSaida[[#This Row],[Data da Competência]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Ano _x000a_Competência" dataDxfId="14">
+    <tableColumn id="11" name="Ano _x000a_Competência" dataDxfId="18">
       <calculatedColumnFormula>IF(TbRegistrosSaida[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data da Competência]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Mês previsto" dataDxfId="13">
+    <tableColumn id="12" name="Mês previsto" dataDxfId="17">
       <calculatedColumnFormula>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Ano Previsto" dataDxfId="12">
+    <tableColumn id="13" name="Ano Previsto" dataDxfId="16">
       <calculatedColumnFormula>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -19762,12 +20586,12 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
-      <c r="N2" s="114">
+      <c r="N2" s="122">
         <f ca="1">TODAY()</f>
-        <v>45392</v>
-      </c>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
+        <v>45393</v>
+      </c>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
     </row>
     <row r="3" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -20020,8 +20844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13:J13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20076,31 +20900,31 @@
     </row>
     <row r="3" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="99" t="s">
         <v>577</v>
       </c>
-      <c r="D4" s="101" t="s">
+      <c r="D4" s="99" t="s">
         <v>578</v>
       </c>
-      <c r="F4" s="115" t="s">
+      <c r="F4" s="129" t="s">
         <v>580</v>
       </c>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="138" t="s">
-        <v>50</v>
-      </c>
-      <c r="M4" s="139"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="127" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="128"/>
     </row>
     <row r="5" spans="2:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="140">
+      <c r="B5" s="113">
         <f>'Dashboard financeiro anualD'!D12</f>
         <v>-3097</v>
       </c>
-      <c r="D5" s="134" t="s">
+      <c r="D5" s="112" t="s">
         <v>615</v>
       </c>
       <c r="F5" s="63"/>
@@ -20123,40 +20947,40 @@
       <c r="M6" s="65"/>
     </row>
     <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="132"/>
+      <c r="D7" s="125"/>
       <c r="F7" s="63"/>
       <c r="G7" s="64"/>
       <c r="H7" s="64"/>
       <c r="I7" s="64"/>
       <c r="J7" s="64"/>
       <c r="K7" s="64"/>
-      <c r="L7" s="135" t="s">
+      <c r="L7" s="131" t="s">
         <v>581</v>
       </c>
-      <c r="M7" s="136"/>
+      <c r="M7" s="132"/>
     </row>
     <row r="8" spans="2:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="140">
+      <c r="B8" s="113">
         <f>'Dashboard financeiro anualD'!E14</f>
         <v>12009</v>
       </c>
-      <c r="D8" s="133"/>
+      <c r="D8" s="126"/>
       <c r="F8" s="63"/>
       <c r="G8" s="64"/>
       <c r="H8" s="64"/>
       <c r="I8" s="64"/>
       <c r="J8" s="64"/>
-      <c r="K8" s="103">
+      <c r="K8" s="101">
         <v>9999</v>
       </c>
-      <c r="L8" s="137">
+      <c r="L8" s="133">
         <f>SUM('Dashboard financeiro anualD'!K6:K17)</f>
-        <v>15612</v>
-      </c>
-      <c r="M8" s="122"/>
+        <v>20663</v>
+      </c>
+      <c r="M8" s="134"/>
     </row>
     <row r="9" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="63"/>
@@ -20169,10 +20993,10 @@
       <c r="M9" s="65"/>
     </row>
     <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="132"/>
+      <c r="D10" s="125"/>
       <c r="F10" s="63"/>
       <c r="G10" s="64"/>
       <c r="H10" s="64"/>
@@ -20183,11 +21007,11 @@
       <c r="M10" s="65"/>
     </row>
     <row r="11" spans="2:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="140">
+      <c r="B11" s="113">
         <f>'Dashboard financeiro anualD'!E15</f>
         <v>5413</v>
       </c>
-      <c r="D11" s="133"/>
+      <c r="D11" s="126"/>
       <c r="F11" s="66"/>
       <c r="G11" s="67"/>
       <c r="H11" s="67"/>
@@ -20199,25 +21023,25 @@
     </row>
     <row r="12" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="115" t="s">
+      <c r="B13" s="129" t="s">
         <v>579</v>
       </c>
-      <c r="C13" s="116"/>
-      <c r="D13" s="117"/>
-      <c r="F13" s="118" t="s">
+      <c r="C13" s="130"/>
+      <c r="D13" s="135"/>
+      <c r="F13" s="123" t="s">
         <v>582</v>
       </c>
-      <c r="G13" s="119"/>
-      <c r="I13" s="118" t="s">
+      <c r="G13" s="124"/>
+      <c r="I13" s="123" t="s">
         <v>586</v>
       </c>
-      <c r="J13" s="119"/>
-      <c r="L13" s="118" t="s">
+      <c r="J13" s="124"/>
+      <c r="L13" s="123" t="s">
         <v>587</v>
       </c>
-      <c r="M13" s="119"/>
-    </row>
-    <row r="14" spans="2:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M13" s="124"/>
+    </row>
+    <row r="14" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="63"/>
       <c r="C14" s="64"/>
       <c r="D14" s="65"/>
@@ -20229,21 +21053,22 @@
       <c r="M14" s="65"/>
     </row>
     <row r="15" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="141">
-        <v>9999</v>
+      <c r="B15" s="114">
+        <f>'Dashboard financeiro anualD'!F23</f>
+        <v>130659</v>
       </c>
       <c r="C15" s="64"/>
       <c r="D15" s="65"/>
-      <c r="F15" s="69" t="s">
+      <c r="F15" s="103" t="s">
         <v>583</v>
       </c>
-      <c r="G15" s="70" t="s">
+      <c r="G15" s="104" t="s">
         <v>584</v>
       </c>
-      <c r="I15" s="120"/>
-      <c r="J15" s="121"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="65"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="104"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="104"/>
     </row>
     <row r="16" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="63"/>
@@ -20256,34 +21081,34 @@
       <c r="L16" s="63"/>
       <c r="M16" s="65"/>
     </row>
-    <row r="17" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="63"/>
       <c r="C17" s="64"/>
       <c r="D17" s="65"/>
-      <c r="F17" s="104" t="s">
-        <v>585</v>
-      </c>
-      <c r="G17" s="105" t="s">
-        <v>585</v>
-      </c>
+      <c r="F17" s="63"/>
+      <c r="G17" s="65"/>
       <c r="I17" s="63"/>
       <c r="J17" s="65"/>
       <c r="L17" s="63"/>
       <c r="M17" s="65"/>
     </row>
-    <row r="18" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="66"/>
       <c r="C18" s="67"/>
       <c r="D18" s="68"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="68"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="68"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="68"/>
+      <c r="F18" s="138" t="s">
+        <v>585</v>
+      </c>
+      <c r="G18" s="139" t="s">
+        <v>585</v>
+      </c>
+      <c r="I18" s="138"/>
+      <c r="J18" s="139"/>
+      <c r="L18" s="138"/>
+      <c r="M18" s="139"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="10">
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="D10:D11"/>
@@ -20294,25 +21119,24 @@
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I15:J15"/>
   </mergeCells>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20337,8 +21161,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Dashboard financeiro anualD'!I6:I17</xm:f>
-              <xm:sqref>D10</xm:sqref>
+              <xm:f>'Dashboard financeiro anualD'!H6:H17</xm:f>
+              <xm:sqref>D11</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -20369,8 +21193,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Dashboard financeiro anualD'!H6:H17</xm:f>
-              <xm:sqref>D11</xm:sqref>
+              <xm:f>'Dashboard financeiro anualD'!I6:I17</xm:f>
+              <xm:sqref>D10</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -20384,14 +21208,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M45"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" customWidth="1"/>
     <col min="11" max="11" width="19.28515625" bestFit="1" customWidth="1"/>
@@ -20399,957 +21223,973 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="71"/>
-      <c r="C2" s="72" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="70" t="s">
         <v>589</v>
       </c>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="73" t="s">
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="71" t="s">
         <v>590</v>
       </c>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="73" t="s">
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="71" t="s">
         <v>591</v>
       </c>
-      <c r="L4" s="74" t="s">
+      <c r="L4" s="72" t="s">
         <v>592</v>
       </c>
-      <c r="M4" s="75">
+      <c r="M4" s="73">
         <f>D5</f>
         <v>2019</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="71"/>
-      <c r="C5" s="74" t="s">
+      <c r="B5" s="69"/>
+      <c r="C5" s="72" t="s">
         <v>593</v>
       </c>
-      <c r="D5" s="76">
+      <c r="D5" s="74">
         <f>'Dashboard financeiro anual'!M2</f>
         <v>2019</v>
       </c>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="77" t="s">
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="75" t="s">
         <v>594</v>
       </c>
-      <c r="H5" s="125" t="s">
+      <c r="H5" s="105" t="s">
         <v>613</v>
       </c>
-      <c r="I5" s="125" t="s">
+      <c r="I5" s="105" t="s">
         <v>614</v>
       </c>
-      <c r="J5" s="71"/>
-      <c r="K5" s="79" t="str">
+      <c r="J5" s="69"/>
+      <c r="K5" s="77" t="str">
         <f>'Dashboard financeiro anual'!L4</f>
-        <v>Som e imagem</v>
-      </c>
-      <c r="L5" s="77" t="s">
+        <v>Informática</v>
+      </c>
+      <c r="L5" s="75" t="s">
         <v>595</v>
       </c>
-      <c r="M5" s="77" t="s">
+      <c r="M5" s="75" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="80">
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="78">
         <v>1</v>
       </c>
-      <c r="H6" s="128">
+      <c r="H6" s="108">
         <f>SUMIFS(TbRegistrosSaida[Valor],TbRegistrosSaida[Mês previsto],G6,TbRegistrosSaida[Ano Previsto],$D$5,TbRegistrosSaida[Data do Caixa Realizado],"")</f>
         <v>5159</v>
       </c>
-      <c r="I6" s="131">
+      <c r="I6" s="111">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês previsto],G6,TbRegistroEntradas[Ano Previsto],$D$5,TbRegistroEntradas[Data do Caixa Realizado],"")</f>
         <v>483</v>
       </c>
-      <c r="J6" s="71"/>
-      <c r="K6" s="81">
+      <c r="J6" s="69"/>
+      <c r="K6" s="79">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$K$5,TbRegistroEntradas[Ano 
 Competência],$M$4,TbRegistroEntradas[Mês 
 Competência],G6)</f>
-        <v>2564</v>
-      </c>
-      <c r="L6" s="81">
+        <v>0</v>
+      </c>
+      <c r="L6" s="79" t="str">
         <f>IF(K6=0,"Não Disp",K6)</f>
-        <v>2564</v>
-      </c>
-      <c r="M6" s="82" t="s">
+        <v>Não Disp</v>
+      </c>
+      <c r="M6" s="80" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71">
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69">
         <v>2</v>
       </c>
-      <c r="H7" s="129">
+      <c r="H7" s="109">
         <f>SUMIFS(TbRegistrosSaida[Valor],TbRegistrosSaida[Mês previsto],G7,TbRegistrosSaida[Ano Previsto],$D$5,TbRegistrosSaida[Data do Caixa Realizado],"")</f>
         <v>0</v>
       </c>
-      <c r="I7" s="126">
+      <c r="I7" s="106">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês previsto],G7,TbRegistroEntradas[Ano Previsto],$D$5,TbRegistroEntradas[Data do Caixa Realizado],"")</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="71"/>
-      <c r="K7" s="83">
+        <v>928</v>
+      </c>
+      <c r="J7" s="69"/>
+      <c r="K7" s="81">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$K$5,TbRegistroEntradas[Ano 
 Competência],$M$4,TbRegistroEntradas[Mês 
 Competência],G7)</f>
-        <v>4732</v>
-      </c>
-      <c r="L7" s="83">
+        <v>1417</v>
+      </c>
+      <c r="L7" s="81">
         <f t="shared" ref="L7:L17" si="0">IF(K7=0,"Não Disp",K7)</f>
-        <v>4732</v>
-      </c>
-      <c r="M7" s="74" t="s">
+        <v>1417</v>
+      </c>
+      <c r="M7" s="72" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="71"/>
-      <c r="C8" s="73" t="s">
+      <c r="B8" s="69"/>
+      <c r="C8" s="71" t="s">
         <v>596</v>
       </c>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71">
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69">
         <v>3</v>
       </c>
-      <c r="H8" s="129">
+      <c r="H8" s="109">
         <f>SUMIFS(TbRegistrosSaida[Valor],TbRegistrosSaida[Mês previsto],G8,TbRegistrosSaida[Ano Previsto],$D$5,TbRegistrosSaida[Data do Caixa Realizado],"")</f>
         <v>0</v>
       </c>
-      <c r="I8" s="126">
+      <c r="I8" s="106">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês previsto],G8,TbRegistroEntradas[Ano Previsto],$D$5,TbRegistroEntradas[Data do Caixa Realizado],"")</f>
         <v>0</v>
       </c>
-      <c r="J8" s="71"/>
-      <c r="K8" s="83">
+      <c r="J8" s="69"/>
+      <c r="K8" s="81">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$K$5,TbRegistroEntradas[Ano 
 Competência],$M$4,TbRegistroEntradas[Mês 
 Competência],G8)</f>
-        <v>5489</v>
-      </c>
-      <c r="L8" s="83">
+        <v>4022</v>
+      </c>
+      <c r="L8" s="81">
         <f t="shared" si="0"/>
-        <v>5489</v>
-      </c>
-      <c r="M8" s="74" t="s">
+        <v>4022</v>
+      </c>
+      <c r="M8" s="72" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="71"/>
-      <c r="C9" s="80" t="s">
+      <c r="B9" s="69"/>
+      <c r="C9" s="78" t="s">
         <v>553</v>
       </c>
-      <c r="D9" s="84">
+      <c r="D9" s="82">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Ano Caixa],"&lt;"&amp;D5,TbRegistroEntradas[Ano Caixa],"&lt;&gt;0")-SUMIFS(TbRegistrosSaida[Valor],TbRegistrosSaida[Ano Caixa],"&lt;"&amp;D5,TbRegistrosSaida[Ano Caixa],"&lt;&gt;0")</f>
         <v>14746</v>
       </c>
-      <c r="E9" s="106"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71">
+      <c r="E9" s="102"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69">
         <v>4</v>
       </c>
-      <c r="H9" s="129">
+      <c r="H9" s="109">
         <f>SUMIFS(TbRegistrosSaida[Valor],TbRegistrosSaida[Mês previsto],G9,TbRegistrosSaida[Ano Previsto],$D$5,TbRegistrosSaida[Data do Caixa Realizado],"")</f>
         <v>1753</v>
       </c>
-      <c r="I9" s="126">
+      <c r="I9" s="106">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês previsto],G9,TbRegistroEntradas[Ano Previsto],$D$5,TbRegistroEntradas[Data do Caixa Realizado],"")</f>
-        <v>928</v>
-      </c>
-      <c r="J9" s="71"/>
-      <c r="K9" s="83">
+        <v>0</v>
+      </c>
+      <c r="J9" s="69"/>
+      <c r="K9" s="81">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$K$5,TbRegistroEntradas[Ano 
 Competência],$M$4,TbRegistroEntradas[Mês 
 Competência],G9)</f>
-        <v>618</v>
-      </c>
-      <c r="L9" s="83">
+        <v>10057</v>
+      </c>
+      <c r="L9" s="81">
         <f t="shared" si="0"/>
-        <v>618</v>
-      </c>
-      <c r="M9" s="74" t="s">
+        <v>10057</v>
+      </c>
+      <c r="M9" s="72" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="71"/>
-      <c r="C10" s="71" t="s">
+      <c r="B10" s="69"/>
+      <c r="C10" s="69" t="s">
         <v>538</v>
       </c>
-      <c r="D10" s="85">
+      <c r="D10" s="83">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Ano Caixa],"="&amp;D5)</f>
         <v>161998</v>
       </c>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71">
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69">
         <v>5</v>
       </c>
-      <c r="H10" s="129">
+      <c r="H10" s="109">
         <f>SUMIFS(TbRegistrosSaida[Valor],TbRegistrosSaida[Mês previsto],G10,TbRegistrosSaida[Ano Previsto],$D$5,TbRegistrosSaida[Data do Caixa Realizado],"")</f>
         <v>0</v>
       </c>
-      <c r="I10" s="126">
+      <c r="I10" s="106">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês previsto],G10,TbRegistroEntradas[Ano Previsto],$D$5,TbRegistroEntradas[Data do Caixa Realizado],"")</f>
         <v>2015</v>
       </c>
-      <c r="J10" s="71"/>
-      <c r="K10" s="83">
+      <c r="J10" s="69"/>
+      <c r="K10" s="81">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$K$5,TbRegistroEntradas[Ano 
 Competência],$M$4,TbRegistroEntradas[Mês 
 Competência],G10)</f>
-        <v>1654</v>
-      </c>
-      <c r="L10" s="83">
+        <v>5167</v>
+      </c>
+      <c r="L10" s="81">
         <f t="shared" si="0"/>
-        <v>1654</v>
-      </c>
-      <c r="M10" s="74" t="s">
+        <v>5167</v>
+      </c>
+      <c r="M10" s="72" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="71"/>
-      <c r="C11" s="71" t="s">
+      <c r="B11" s="69"/>
+      <c r="C11" s="69" t="s">
         <v>539</v>
       </c>
-      <c r="D11" s="85">
+      <c r="D11" s="83">
         <f>SUMIFS(TbRegistrosSaida[Valor],TbRegistrosSaida[Ano Caixa],"="&amp;D5)</f>
         <v>179841</v>
       </c>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71">
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69">
         <v>6</v>
       </c>
-      <c r="H11" s="129">
+      <c r="H11" s="109">
         <f>SUMIFS(TbRegistrosSaida[Valor],TbRegistrosSaida[Mês previsto],G11,TbRegistrosSaida[Ano Previsto],$D$5,TbRegistrosSaida[Data do Caixa Realizado],"")</f>
         <v>0</v>
       </c>
-      <c r="I11" s="126">
+      <c r="I11" s="106">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês previsto],G11,TbRegistroEntradas[Ano Previsto],$D$5,TbRegistroEntradas[Data do Caixa Realizado],"")</f>
         <v>0</v>
       </c>
-      <c r="J11" s="71"/>
-      <c r="K11" s="83">
+      <c r="J11" s="69"/>
+      <c r="K11" s="81">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$K$5,TbRegistroEntradas[Ano 
 Competência],$M$4,TbRegistroEntradas[Mês 
 Competência],G11)</f>
-        <v>555</v>
-      </c>
-      <c r="L11" s="83">
+        <v>0</v>
+      </c>
+      <c r="L11" s="81" t="str">
         <f t="shared" si="0"/>
-        <v>555</v>
-      </c>
-      <c r="M11" s="74" t="s">
+        <v>Não Disp</v>
+      </c>
+      <c r="M11" s="72" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="71"/>
-      <c r="C12" s="86" t="s">
+      <c r="B12" s="69"/>
+      <c r="C12" s="84" t="s">
         <v>597</v>
       </c>
-      <c r="D12" s="87">
+      <c r="D12" s="85">
         <f>D9+D10-D11</f>
         <v>-3097</v>
       </c>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71">
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69">
         <v>7</v>
       </c>
-      <c r="H12" s="129">
+      <c r="H12" s="109">
         <f>SUMIFS(TbRegistrosSaida[Valor],TbRegistrosSaida[Mês previsto],G12,TbRegistrosSaida[Ano Previsto],$D$5,TbRegistrosSaida[Data do Caixa Realizado],"")</f>
         <v>2338</v>
       </c>
-      <c r="I12" s="126">
+      <c r="I12" s="106">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês previsto],G12,TbRegistroEntradas[Ano Previsto],$D$5,TbRegistroEntradas[Data do Caixa Realizado],"")</f>
         <v>1987</v>
       </c>
-      <c r="J12" s="71"/>
-      <c r="K12" s="83">
+      <c r="J12" s="69"/>
+      <c r="K12" s="81">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$K$5,TbRegistroEntradas[Ano 
 Competência],$M$4,TbRegistroEntradas[Mês 
 Competência],G12)</f>
         <v>0</v>
       </c>
-      <c r="L12" s="83" t="str">
+      <c r="L12" s="81" t="str">
         <f t="shared" si="0"/>
         <v>Não Disp</v>
       </c>
-      <c r="M12" s="74" t="s">
+      <c r="M12" s="72" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71">
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69">
         <v>8</v>
       </c>
-      <c r="H13" s="129">
+      <c r="H13" s="109">
         <f>SUMIFS(TbRegistrosSaida[Valor],TbRegistrosSaida[Mês previsto],G13,TbRegistrosSaida[Ano Previsto],$D$5,TbRegistrosSaida[Data do Caixa Realizado],"")</f>
         <v>2759</v>
       </c>
-      <c r="I13" s="126">
+      <c r="I13" s="106">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês previsto],G13,TbRegistroEntradas[Ano Previsto],$D$5,TbRegistroEntradas[Data do Caixa Realizado],"")</f>
         <v>0</v>
       </c>
-      <c r="J13" s="71"/>
-      <c r="K13" s="83">
+      <c r="J13" s="69"/>
+      <c r="K13" s="81">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$K$5,TbRegistroEntradas[Ano 
 Competência],$M$4,TbRegistroEntradas[Mês 
 Competência],G13)</f>
         <v>0</v>
       </c>
-      <c r="L13" s="83" t="str">
+      <c r="L13" s="81" t="str">
         <f t="shared" si="0"/>
         <v>Não Disp</v>
       </c>
-      <c r="M13" s="74" t="s">
+      <c r="M13" s="72" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="71"/>
-      <c r="C14" s="123" t="s">
+      <c r="B14" s="69"/>
+      <c r="C14" s="136" t="s">
         <v>598</v>
       </c>
-      <c r="D14" s="123"/>
-      <c r="E14" s="106">
+      <c r="D14" s="136"/>
+      <c r="E14" s="102">
         <f>SUMIFS(TbRegistrosSaida[Valor],TbRegistrosSaida[Data do Caixa Realizado],"",TbRegistrosSaida[Ano Previsto],D5)</f>
         <v>12009</v>
       </c>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71">
+      <c r="F14" s="69"/>
+      <c r="G14" s="69">
         <v>9</v>
       </c>
-      <c r="H14" s="129">
+      <c r="H14" s="109">
         <f>SUMIFS(TbRegistrosSaida[Valor],TbRegistrosSaida[Mês previsto],G14,TbRegistrosSaida[Ano Previsto],$D$5,TbRegistrosSaida[Data do Caixa Realizado],"")</f>
         <v>0</v>
       </c>
-      <c r="I14" s="126">
+      <c r="I14" s="106">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês previsto],G14,TbRegistroEntradas[Ano Previsto],$D$5,TbRegistroEntradas[Data do Caixa Realizado],"")</f>
         <v>0</v>
       </c>
-      <c r="J14" s="71"/>
-      <c r="K14" s="83">
+      <c r="J14" s="69"/>
+      <c r="K14" s="81">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$K$5,TbRegistroEntradas[Ano 
 Competência],$M$4,TbRegistroEntradas[Mês 
 Competência],G14)</f>
         <v>0</v>
       </c>
-      <c r="L14" s="83" t="str">
+      <c r="L14" s="81" t="str">
         <f t="shared" si="0"/>
         <v>Não Disp</v>
       </c>
-      <c r="M14" s="74" t="s">
+      <c r="M14" s="72" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="71"/>
-      <c r="C15" s="124" t="s">
+      <c r="B15" s="69"/>
+      <c r="C15" s="137" t="s">
         <v>599</v>
       </c>
-      <c r="D15" s="124"/>
-      <c r="E15" s="106">
+      <c r="D15" s="137"/>
+      <c r="E15" s="102">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Data do Caixa Realizado],"",TbRegistroEntradas[Ano Previsto],D5)</f>
         <v>5413</v>
       </c>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71">
+      <c r="F15" s="69"/>
+      <c r="G15" s="69">
         <v>10</v>
       </c>
-      <c r="H15" s="129">
+      <c r="H15" s="109">
         <f>SUMIFS(TbRegistrosSaida[Valor],TbRegistrosSaida[Mês previsto],G15,TbRegistrosSaida[Ano Previsto],$D$5,TbRegistrosSaida[Data do Caixa Realizado],"")</f>
         <v>0</v>
       </c>
-      <c r="I15" s="126">
+      <c r="I15" s="106">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês previsto],G15,TbRegistroEntradas[Ano Previsto],$D$5,TbRegistroEntradas[Data do Caixa Realizado],"")</f>
         <v>0</v>
       </c>
-      <c r="J15" s="71"/>
-      <c r="K15" s="83">
+      <c r="J15" s="69"/>
+      <c r="K15" s="81">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$K$5,TbRegistroEntradas[Ano 
 Competência],$M$4,TbRegistroEntradas[Mês 
 Competência],G15)</f>
         <v>0</v>
       </c>
-      <c r="L15" s="83" t="str">
+      <c r="L15" s="81" t="str">
         <f t="shared" si="0"/>
         <v>Não Disp</v>
       </c>
-      <c r="M15" s="74" t="s">
+      <c r="M15" s="72" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71">
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69">
         <v>11</v>
       </c>
-      <c r="H16" s="129">
+      <c r="H16" s="109">
         <f>SUMIFS(TbRegistrosSaida[Valor],TbRegistrosSaida[Mês previsto],G16,TbRegistrosSaida[Ano Previsto],$D$5,TbRegistrosSaida[Data do Caixa Realizado],"")</f>
         <v>0</v>
       </c>
-      <c r="I16" s="126">
+      <c r="I16" s="106">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês previsto],G16,TbRegistroEntradas[Ano Previsto],$D$5,TbRegistroEntradas[Data do Caixa Realizado],"")</f>
         <v>0</v>
       </c>
-      <c r="J16" s="71"/>
-      <c r="K16" s="83">
+      <c r="J16" s="69"/>
+      <c r="K16" s="81">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$K$5,TbRegistroEntradas[Ano 
 Competência],$M$4,TbRegistroEntradas[Mês 
 Competência],G16)</f>
         <v>0</v>
       </c>
-      <c r="L16" s="83" t="str">
+      <c r="L16" s="81" t="str">
         <f t="shared" si="0"/>
         <v>Não Disp</v>
       </c>
-      <c r="M16" s="74" t="s">
+      <c r="M16" s="72" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="86">
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="84">
         <v>12</v>
       </c>
-      <c r="H17" s="130">
+      <c r="H17" s="110">
         <f>SUMIFS(TbRegistrosSaida[Valor],TbRegistrosSaida[Mês previsto],G17,TbRegistrosSaida[Ano Previsto],$D$5,TbRegistrosSaida[Data do Caixa Realizado],"")</f>
         <v>0</v>
       </c>
-      <c r="I17" s="127">
+      <c r="I17" s="107">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Mês previsto],G17,TbRegistroEntradas[Ano Previsto],$D$5,TbRegistroEntradas[Data do Caixa Realizado],"")</f>
         <v>0</v>
       </c>
-      <c r="J17" s="71"/>
-      <c r="K17" s="88">
+      <c r="J17" s="69"/>
+      <c r="K17" s="86">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Conta Nível 2],$K$5,TbRegistroEntradas[Ano 
 Competência],$M$4,TbRegistroEntradas[Mês 
 Competência],G17)</f>
         <v>0</v>
       </c>
-      <c r="L17" s="88" t="str">
+      <c r="L17" s="86" t="str">
         <f t="shared" si="0"/>
         <v>Não Disp</v>
       </c>
-      <c r="M17" s="89" t="s">
+      <c r="M17" s="87" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="71"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="71"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="71"/>
-      <c r="C21" s="73" t="s">
+      <c r="B21" s="69"/>
+      <c r="C21" s="71" t="s">
         <v>600</v>
       </c>
-      <c r="D21" s="71"/>
-      <c r="E21" s="78" t="s">
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="69"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="69"/>
+      <c r="C22" s="75" t="s">
+        <v>601</v>
+      </c>
+      <c r="D22" s="76" t="s">
+        <v>602</v>
+      </c>
+      <c r="E22" s="76" t="s">
         <v>603</v>
       </c>
-      <c r="F21" s="78" t="s">
+      <c r="F22" s="76" t="s">
         <v>581</v>
       </c>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="71"/>
-      <c r="C22" s="77" t="s">
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="69"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="69"/>
+      <c r="C23" s="89">
+        <f>D5</f>
+        <v>2019</v>
+      </c>
+      <c r="D23" s="90">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Á vista],"Vista",TbRegistroEntradas[Ano 
+Competência],C23)</f>
+        <v>39573</v>
+      </c>
+      <c r="E23" s="90">
+        <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Á vista],"Prazo",TbRegistroEntradas[Ano 
+Competência],C23)</f>
+        <v>91086</v>
+      </c>
+      <c r="F23" s="90">
+        <f>SUM(D23,E23)</f>
+        <v>130659</v>
+      </c>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="69"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="69"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="69"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="71" t="s">
+        <v>605</v>
+      </c>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="69"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="69"/>
+      <c r="C26" s="71" t="s">
+        <v>604</v>
+      </c>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="75" t="s">
         <v>601</v>
       </c>
-      <c r="D22" s="78" t="s">
-        <v>602</v>
-      </c>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="71"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="71"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="71"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="73" t="s">
-        <v>605</v>
-      </c>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="71"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="71"/>
-      <c r="C26" s="73" t="s">
-        <v>604</v>
-      </c>
-      <c r="D26" s="71"/>
-      <c r="E26" s="78" t="s">
+      <c r="I26" s="76" t="s">
+        <v>606</v>
+      </c>
+      <c r="J26" s="76" t="s">
         <v>607</v>
       </c>
-      <c r="F26" s="78" t="s">
+      <c r="K26" s="76" t="s">
         <v>608</v>
       </c>
-      <c r="G26" s="71"/>
-      <c r="H26" s="77" t="s">
+      <c r="L26" s="69"/>
+      <c r="M26" s="69"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="69"/>
+      <c r="C27" s="75" t="s">
         <v>601</v>
       </c>
-      <c r="I26" s="78" t="s">
+      <c r="D27" s="76" t="s">
         <v>606</v>
       </c>
-      <c r="J26" s="78" t="s">
+      <c r="E27" s="76" t="s">
         <v>607</v>
       </c>
-      <c r="K26" s="78" t="s">
+      <c r="F27" s="76" t="s">
         <v>608</v>
       </c>
-      <c r="L26" s="71"/>
-      <c r="M26" s="71"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="71"/>
-      <c r="C27" s="77" t="s">
-        <v>601</v>
-      </c>
-      <c r="D27" s="78" t="s">
-        <v>606</v>
-      </c>
-      <c r="E27" s="93"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="93"/>
-      <c r="K27" s="93"/>
-      <c r="L27" s="71"/>
-      <c r="M27" s="71"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="91"/>
+      <c r="J27" s="91"/>
+      <c r="K27" s="91"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="69"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="71"/>
-      <c r="C28" s="91"/>
-      <c r="D28" s="93"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="71"/>
-      <c r="K28" s="71"/>
-      <c r="L28" s="71"/>
-      <c r="M28" s="71"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="91"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="69"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="71"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="71"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="69"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="71"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="73" t="s">
+      <c r="B30" s="69"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="71" t="s">
         <v>610</v>
       </c>
-      <c r="I30" s="94"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="71"/>
-      <c r="L30" s="71"/>
-      <c r="M30" s="71"/>
+      <c r="I30" s="92"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="69"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="71"/>
-      <c r="C31" s="73" t="s">
+      <c r="B31" s="69"/>
+      <c r="C31" s="71" t="s">
         <v>609</v>
       </c>
-      <c r="D31" s="71"/>
-      <c r="E31" s="82" t="s">
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="75" t="s">
+        <v>594</v>
+      </c>
+      <c r="I31" s="94"/>
+      <c r="J31" s="69"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="69"/>
+      <c r="M31" s="69"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="69"/>
+      <c r="C32" s="93" t="s">
+        <v>611</v>
+      </c>
+      <c r="D32" s="80" t="s">
+        <v>538</v>
+      </c>
+      <c r="E32" s="80" t="s">
         <v>539</v>
       </c>
-      <c r="F31" s="82" t="s">
+      <c r="F32" s="80" t="s">
         <v>612</v>
       </c>
-      <c r="G31" s="71"/>
-      <c r="H31" s="77" t="s">
-        <v>594</v>
-      </c>
-      <c r="I31" s="96"/>
-      <c r="J31" s="71"/>
-      <c r="K31" s="71"/>
-      <c r="L31" s="71"/>
-      <c r="M31" s="71"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="71"/>
-      <c r="C32" s="95" t="s">
-        <v>611</v>
-      </c>
-      <c r="D32" s="82" t="s">
-        <v>538</v>
-      </c>
-      <c r="E32" s="98"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="71">
+      <c r="G32" s="69"/>
+      <c r="H32" s="69">
         <v>1</v>
       </c>
-      <c r="I32" s="83"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="71"/>
-      <c r="L32" s="71"/>
-      <c r="M32" s="71"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="69"/>
+      <c r="M32" s="69"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="71"/>
-      <c r="C33" s="97"/>
-      <c r="D33" s="98"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71">
+      <c r="B33" s="69"/>
+      <c r="C33" s="95"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="97"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="69">
         <v>2</v>
       </c>
-      <c r="I33" s="83"/>
-      <c r="J33" s="71"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="71"/>
-      <c r="M33" s="71"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="69"/>
+      <c r="M33" s="69"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71">
+      <c r="B34" s="69"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="69">
         <v>3</v>
       </c>
-      <c r="I34" s="83"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="71"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="71"/>
+      <c r="I34" s="81"/>
+      <c r="J34" s="69"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="69"/>
+      <c r="M34" s="69"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="71"/>
-      <c r="C35" s="71"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="71">
+      <c r="B35" s="69"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="69">
         <v>4</v>
       </c>
-      <c r="I35" s="83"/>
-      <c r="J35" s="71"/>
-      <c r="K35" s="71"/>
-      <c r="L35" s="71"/>
-      <c r="M35" s="71"/>
+      <c r="I35" s="81"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="69"/>
+      <c r="M35" s="69"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="71"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71">
+      <c r="B36" s="69"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="69">
         <v>5</v>
       </c>
-      <c r="I36" s="83"/>
-      <c r="J36" s="71"/>
-      <c r="K36" s="71"/>
-      <c r="L36" s="71"/>
-      <c r="M36" s="71"/>
+      <c r="I36" s="81"/>
+      <c r="J36" s="69"/>
+      <c r="K36" s="69"/>
+      <c r="L36" s="69"/>
+      <c r="M36" s="69"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="71"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71">
+      <c r="B37" s="69"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="69">
         <v>6</v>
       </c>
-      <c r="I37" s="83"/>
-      <c r="J37" s="71"/>
-      <c r="K37" s="71"/>
-      <c r="L37" s="71"/>
-      <c r="M37" s="71"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="69"/>
+      <c r="M37" s="69"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="71"/>
-      <c r="C38" s="71"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="71">
+      <c r="B38" s="69"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="69"/>
+      <c r="H38" s="69">
         <v>7</v>
       </c>
-      <c r="I38" s="83"/>
-      <c r="J38" s="71"/>
-      <c r="K38" s="71"/>
-      <c r="L38" s="71"/>
-      <c r="M38" s="71"/>
+      <c r="I38" s="81"/>
+      <c r="J38" s="69"/>
+      <c r="K38" s="69"/>
+      <c r="L38" s="69"/>
+      <c r="M38" s="69"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="71"/>
-      <c r="C39" s="71"/>
-      <c r="D39" s="71"/>
-      <c r="E39" s="71"/>
-      <c r="F39" s="71"/>
-      <c r="G39" s="71"/>
-      <c r="H39" s="71">
+      <c r="B39" s="69"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="69"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="69">
         <v>8</v>
       </c>
-      <c r="I39" s="83"/>
-      <c r="J39" s="71"/>
-      <c r="K39" s="71"/>
-      <c r="L39" s="71"/>
-      <c r="M39" s="71"/>
+      <c r="I39" s="81"/>
+      <c r="J39" s="69"/>
+      <c r="K39" s="69"/>
+      <c r="L39" s="69"/>
+      <c r="M39" s="69"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="71"/>
-      <c r="C40" s="71"/>
-      <c r="D40" s="71"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="71"/>
-      <c r="H40" s="71">
+      <c r="B40" s="69"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="69"/>
+      <c r="G40" s="69"/>
+      <c r="H40" s="69">
         <v>9</v>
       </c>
-      <c r="I40" s="83"/>
-      <c r="J40" s="71"/>
-      <c r="K40" s="71"/>
-      <c r="L40" s="71"/>
-      <c r="M40" s="71"/>
+      <c r="I40" s="81"/>
+      <c r="J40" s="69"/>
+      <c r="K40" s="69"/>
+      <c r="L40" s="69"/>
+      <c r="M40" s="69"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="71"/>
-      <c r="C41" s="71"/>
-      <c r="D41" s="71"/>
-      <c r="E41" s="71"/>
-      <c r="F41" s="71"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="71">
+      <c r="B41" s="69"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="69"/>
+      <c r="G41" s="69"/>
+      <c r="H41" s="69">
         <v>10</v>
       </c>
-      <c r="I41" s="83"/>
-      <c r="J41" s="71"/>
-      <c r="K41" s="71"/>
-      <c r="L41" s="71"/>
-      <c r="M41" s="71"/>
+      <c r="I41" s="81"/>
+      <c r="J41" s="69"/>
+      <c r="K41" s="69"/>
+      <c r="L41" s="69"/>
+      <c r="M41" s="69"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="71"/>
-      <c r="C42" s="71"/>
-      <c r="D42" s="71"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="71">
+      <c r="B42" s="69"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="69"/>
+      <c r="H42" s="69">
         <v>11</v>
       </c>
-      <c r="I42" s="83"/>
-      <c r="J42" s="71"/>
-      <c r="K42" s="71"/>
-      <c r="L42" s="71"/>
-      <c r="M42" s="71"/>
+      <c r="I42" s="81"/>
+      <c r="J42" s="69"/>
+      <c r="K42" s="69"/>
+      <c r="L42" s="69"/>
+      <c r="M42" s="69"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="71"/>
-      <c r="C43" s="71"/>
-      <c r="D43" s="71"/>
-      <c r="E43" s="71"/>
-      <c r="F43" s="71"/>
-      <c r="G43" s="71"/>
-      <c r="H43" s="86">
+      <c r="B43" s="69"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="69"/>
+      <c r="H43" s="84">
         <v>12</v>
       </c>
-      <c r="I43" s="88"/>
-      <c r="J43" s="71"/>
-      <c r="K43" s="71"/>
-      <c r="L43" s="71"/>
-      <c r="M43" s="71"/>
+      <c r="I43" s="86"/>
+      <c r="J43" s="69"/>
+      <c r="K43" s="69"/>
+      <c r="L43" s="69"/>
+      <c r="M43" s="69"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="71"/>
-      <c r="C44" s="71"/>
-      <c r="D44" s="71"/>
-      <c r="E44" s="71"/>
-      <c r="F44" s="71"/>
-      <c r="G44" s="71"/>
-      <c r="H44" s="77" t="s">
+      <c r="B44" s="69"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="69"/>
+      <c r="H44" s="75" t="s">
         <v>581</v>
       </c>
-      <c r="I44" s="100"/>
-      <c r="J44" s="71"/>
-      <c r="K44" s="71"/>
-      <c r="L44" s="71"/>
-      <c r="M44" s="71"/>
+      <c r="I44" s="98"/>
+      <c r="J44" s="69"/>
+      <c r="K44" s="69"/>
+      <c r="L44" s="69"/>
+      <c r="M44" s="69"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C45" s="71"/>
-      <c r="D45" s="71"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -21357,7 +22197,7 @@
     <mergeCell ref="C15:D15"/>
   </mergeCells>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22043,10 +22883,10 @@
       <c r="N2" s="6"/>
     </row>
     <row r="3" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="108"/>
+      <c r="C3" s="116"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -22341,10 +23181,10 @@
       <c r="N2" s="6"/>
     </row>
     <row r="3" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="117" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="110"/>
+      <c r="C3" s="118"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -22488,11 +23328,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O236"/>
+  <dimension ref="A1:XFD236"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6:O236"/>
+    <sheetView showGridLines="0" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22505,12 +23345,16 @@
     <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="7.7109375" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" hidden="1"/>
+    <col min="13" max="15" width="7.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" customWidth="1"/>
+    <col min="17" max="16380" width="9.140625" hidden="1"/>
+    <col min="16381" max="16381" width="2.28515625" hidden="1" customWidth="1"/>
+    <col min="16382" max="16382" width="8.28515625" hidden="1" customWidth="1"/>
+    <col min="16383" max="16383" width="5.140625" hidden="1" customWidth="1"/>
+    <col min="16384" max="16384" width="8.7109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:16" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -22521,7 +23365,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="2:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -22530,9 +23374,9 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:15" s="17" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:16" s="17" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
         <v>9</v>
       </c>
@@ -22573,10 +23417,13 @@
         <v>573</v>
       </c>
       <c r="O5" s="18" t="s">
+        <v>616</v>
+      </c>
+      <c r="P5" s="18" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="6" spans="2:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14">
         <v>42994.360242603791</v>
       </c>
@@ -22622,9 +23469,13 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2017</v>
       </c>
-      <c r="O6" s="15"/>
-    </row>
-    <row r="7" spans="2:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O6" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P6" s="15"/>
+    </row>
+    <row r="7" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14">
         <v>42985.921072815276</v>
       </c>
@@ -22670,9 +23521,13 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2017</v>
       </c>
-      <c r="O7" s="15"/>
-    </row>
-    <row r="8" spans="2:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O7" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P7" s="15"/>
+    </row>
+    <row r="8" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14">
         <v>43007.497531597422</v>
       </c>
@@ -22719,11 +23574,15 @@
         <v>2017</v>
       </c>
       <c r="O8" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P8" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),Vencida,"Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="14">
         <v>43020.93099062844</v>
       </c>
@@ -22770,11 +23629,15 @@
         <v>2017</v>
       </c>
       <c r="O9" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P9" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),Vencida,"Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14">
         <v>43014.490029992223</v>
       </c>
@@ -22821,11 +23684,15 @@
         <v>2017</v>
       </c>
       <c r="O10" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P10" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),Vencida,"Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="14">
         <v>43054.754604096757</v>
       </c>
@@ -22872,11 +23739,15 @@
         <v>2017</v>
       </c>
       <c r="O11" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P11" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),Vencida,"Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="14">
         <v>43087.201387518355</v>
       </c>
@@ -22923,11 +23794,15 @@
         <v>2017</v>
       </c>
       <c r="O12" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P12" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="14">
         <v>43004.688402044558</v>
       </c>
@@ -22974,11 +23849,15 @@
         <v>2017</v>
       </c>
       <c r="O13" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P13" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
         <v>43015.979718768547</v>
       </c>
@@ -23025,11 +23904,15 @@
         <v>2017</v>
       </c>
       <c r="O14" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P14" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="15" spans="2:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>93</v>
       </c>
@@ -23076,16 +23959,20 @@
         <v>2017</v>
       </c>
       <c r="O15" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P15" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Vencida</v>
       </c>
     </row>
-    <row r="16" spans="2:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="14">
         <v>42997.551902670813</v>
       </c>
       <c r="C16" s="14">
-        <v>42990</v>
+        <v>42997</v>
       </c>
       <c r="D16" s="14">
         <v>42997.551902670813</v>
@@ -23127,11 +24014,15 @@
         <v>2017</v>
       </c>
       <c r="O16" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P16" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="17" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="14">
         <v>43004.663371860901</v>
       </c>
@@ -23178,11 +24069,15 @@
         <v>2017</v>
       </c>
       <c r="O17" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P17" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="18" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="14">
         <v>43010.987674560682</v>
       </c>
@@ -23190,7 +24085,7 @@
         <v>43001</v>
       </c>
       <c r="D18" s="14">
-        <v>43010.987674560682</v>
+        <v>43001</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>0</v>
@@ -23222,18 +24117,22 @@
       </c>
       <c r="M18" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N18" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2017</v>
       </c>
       <c r="O18" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P18" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="19" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="14">
         <v>43056.628172621648</v>
       </c>
@@ -23280,11 +24179,15 @@
         <v>2017</v>
       </c>
       <c r="O19" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P19" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="20" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="14">
         <v>43033.143288673884</v>
       </c>
@@ -23331,11 +24234,15 @@
         <v>2017</v>
       </c>
       <c r="O20" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P20" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="21" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="14">
         <v>43019.580095755031</v>
       </c>
@@ -23382,11 +24289,15 @@
         <v>2017</v>
       </c>
       <c r="O21" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P21" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="22" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="14">
         <v>43025.995076094237</v>
       </c>
@@ -23433,11 +24344,15 @@
         <v>2017</v>
       </c>
       <c r="O22" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P22" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="23" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="14">
         <v>43052.454388600381</v>
       </c>
@@ -23484,11 +24399,15 @@
         <v>2017</v>
       </c>
       <c r="O23" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P23" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="24" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
         <v>93</v>
       </c>
@@ -23535,11 +24454,15 @@
         <v>2017</v>
       </c>
       <c r="O24" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P24" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Vencida</v>
       </c>
     </row>
-    <row r="25" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="14">
         <v>43134.960630268302</v>
       </c>
@@ -23586,11 +24509,15 @@
         <v>2017</v>
       </c>
       <c r="O25" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P25" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="26" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="14">
         <v>43045.105355406915</v>
       </c>
@@ -23637,11 +24564,15 @@
         <v>2017</v>
       </c>
       <c r="O26" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P26" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="27" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="14">
         <v>43057.775638731524</v>
       </c>
@@ -23649,7 +24580,7 @@
         <v>43026</v>
       </c>
       <c r="D27" s="14">
-        <v>43057.775638731524</v>
+        <v>43026</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>0</v>
@@ -23681,18 +24612,22 @@
       </c>
       <c r="M27" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N27" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2017</v>
       </c>
       <c r="O27" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P27" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="28" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="14">
         <v>43037.453877289088</v>
       </c>
@@ -23700,7 +24635,7 @@
         <v>43030</v>
       </c>
       <c r="D28" s="14">
-        <v>43037.453877289088</v>
+        <v>43030</v>
       </c>
       <c r="E28" s="15" t="s">
         <v>0</v>
@@ -23739,11 +24674,15 @@
         <v>2017</v>
       </c>
       <c r="O28" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P28" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="29" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="14">
         <v>43086.43235653804</v>
       </c>
@@ -23751,7 +24690,7 @@
         <v>43032</v>
       </c>
       <c r="D29" s="14">
-        <v>43058.598248659349</v>
+        <v>43032</v>
       </c>
       <c r="E29" s="15" t="s">
         <v>0</v>
@@ -23783,18 +24722,22 @@
       </c>
       <c r="M29" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N29" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2017</v>
       </c>
       <c r="O29" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P29" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="30" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="14">
         <v>43068.089414353737</v>
       </c>
@@ -23841,11 +24784,15 @@
         <v>2017</v>
       </c>
       <c r="O30" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P30" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="31" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="14">
         <v>43091.729186681107</v>
       </c>
@@ -23853,7 +24800,7 @@
         <v>43034</v>
       </c>
       <c r="D31" s="14">
-        <v>43091.729186681107</v>
+        <v>43034</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>0</v>
@@ -23885,18 +24832,22 @@
       </c>
       <c r="M31" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N31" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2017</v>
       </c>
       <c r="O31" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P31" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="32" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="14">
         <v>43052.461098465239</v>
       </c>
@@ -23943,11 +24894,15 @@
         <v>2017</v>
       </c>
       <c r="O32" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P32" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="33" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="14">
         <v>43057.597589016004</v>
       </c>
@@ -23994,11 +24949,15 @@
         <v>2017</v>
       </c>
       <c r="O33" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P33" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="34" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="14">
         <v>43082.490898737618</v>
       </c>
@@ -24045,11 +25004,15 @@
         <v>2017</v>
       </c>
       <c r="O34" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P34" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="35" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35" s="14">
         <v>43073.038025931273</v>
       </c>
@@ -24057,7 +25020,7 @@
         <v>43047</v>
       </c>
       <c r="D35" s="14">
-        <v>43053.702992393824</v>
+        <v>43047</v>
       </c>
       <c r="E35" s="15" t="s">
         <v>0</v>
@@ -24096,11 +25059,15 @@
         <v>2017</v>
       </c>
       <c r="O35" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P35" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="36" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" s="14">
         <v>43090.51661478445</v>
       </c>
@@ -24108,7 +25075,7 @@
         <v>43051</v>
       </c>
       <c r="D36" s="14">
-        <v>43090.51661478445</v>
+        <v>43051</v>
       </c>
       <c r="E36" s="15" t="s">
         <v>0</v>
@@ -24140,18 +25107,22 @@
       </c>
       <c r="M36" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N36" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2017</v>
       </c>
       <c r="O36" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P36" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="37" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" s="14">
         <v>43130.815754318886</v>
       </c>
@@ -24198,11 +25169,15 @@
         <v>2018</v>
       </c>
       <c r="O37" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P37" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="38" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="14">
         <v>43081.249044856137</v>
       </c>
@@ -24210,7 +25185,7 @@
         <v>43055</v>
       </c>
       <c r="D38" s="14">
-        <v>43081.249044856137</v>
+        <v>43055</v>
       </c>
       <c r="E38" s="15" t="s">
         <v>0</v>
@@ -24242,18 +25217,22 @@
       </c>
       <c r="M38" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N38" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2017</v>
       </c>
       <c r="O38" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P38" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="39" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" s="14">
         <v>43101.376481739084</v>
       </c>
@@ -24300,11 +25279,15 @@
         <v>2018</v>
       </c>
       <c r="O39" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P39" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="40" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" s="14">
         <v>43151.25396646517</v>
       </c>
@@ -24351,11 +25334,15 @@
         <v>2017</v>
       </c>
       <c r="O40" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P40" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="41" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41" s="14">
         <v>43188.080050119235</v>
       </c>
@@ -24363,7 +25350,7 @@
         <v>43059</v>
       </c>
       <c r="D41" s="14">
-        <v>43105.942043921394</v>
+        <v>43059</v>
       </c>
       <c r="E41" s="15" t="s">
         <v>0</v>
@@ -24395,18 +25382,22 @@
       </c>
       <c r="M41" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="N41" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="O41" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P41" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="42" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" s="14">
         <v>43122.64068927092</v>
       </c>
@@ -24453,11 +25444,15 @@
         <v>2018</v>
       </c>
       <c r="O42" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P42" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="43" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
         <v>93</v>
       </c>
@@ -24465,7 +25460,7 @@
         <v>43068</v>
       </c>
       <c r="D43" s="14">
-        <v>43126.500969843044</v>
+        <v>43068</v>
       </c>
       <c r="E43" s="15" t="s">
         <v>0</v>
@@ -24497,18 +25492,22 @@
       </c>
       <c r="M43" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="N43" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="O43" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P43" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Vencida</v>
       </c>
     </row>
-    <row r="44" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B44" s="14">
         <v>43121.095142901788</v>
       </c>
@@ -24516,7 +25515,7 @@
         <v>43073</v>
       </c>
       <c r="D44" s="14">
-        <v>43121.095142901788</v>
+        <v>43073</v>
       </c>
       <c r="E44" s="15" t="s">
         <v>0</v>
@@ -24548,18 +25547,22 @@
       </c>
       <c r="M44" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="N44" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="O44" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P44" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="45" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B45" s="14">
         <v>43084.95442532179</v>
       </c>
@@ -24567,7 +25570,7 @@
         <v>43073</v>
       </c>
       <c r="D45" s="14">
-        <v>43084.95442532179</v>
+        <v>43073</v>
       </c>
       <c r="E45" s="15" t="s">
         <v>0</v>
@@ -24606,11 +25609,15 @@
         <v>2017</v>
       </c>
       <c r="O45" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P45" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="46" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" s="14">
         <v>43131.56407100569</v>
       </c>
@@ -24618,7 +25625,7 @@
         <v>43080</v>
       </c>
       <c r="D46" s="14">
-        <v>43131.56407100569</v>
+        <v>43080</v>
       </c>
       <c r="E46" s="15" t="s">
         <v>0</v>
@@ -24650,18 +25657,22 @@
       </c>
       <c r="M46" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="N46" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="O46" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P46" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="47" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B47" s="14">
         <v>43103.027346399656</v>
       </c>
@@ -24708,11 +25719,15 @@
         <v>2018</v>
       </c>
       <c r="O47" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P47" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="48" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B48" s="14">
         <v>43086.779201496618</v>
       </c>
@@ -24759,11 +25774,15 @@
         <v>2017</v>
       </c>
       <c r="O48" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P48" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="49" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B49" s="14">
         <v>43135.384353482346</v>
       </c>
@@ -24810,11 +25829,15 @@
         <v>2018</v>
       </c>
       <c r="O49" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P49" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="50" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B50" s="14">
         <v>43123.054998054176</v>
       </c>
@@ -24861,11 +25884,15 @@
         <v>2018</v>
       </c>
       <c r="O50" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P50" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="51" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B51" s="14">
         <v>43125.461755740398</v>
       </c>
@@ -24912,11 +25939,15 @@
         <v>2018</v>
       </c>
       <c r="O51" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P51" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="52" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B52" s="14">
         <v>43117.265187618672</v>
       </c>
@@ -24924,7 +25955,7 @@
         <v>43089</v>
       </c>
       <c r="D52" s="14">
-        <v>43117.265187618672</v>
+        <v>43089</v>
       </c>
       <c r="E52" s="15" t="s">
         <v>0</v>
@@ -24956,18 +25987,22 @@
       </c>
       <c r="M52" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="N52" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="O52" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P52" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="53" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B53" s="14">
         <v>43222.826071389798</v>
       </c>
@@ -25014,11 +26049,15 @@
         <v>2018</v>
       </c>
       <c r="O53" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P53" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="54" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B54" s="14">
         <v>43171.526334246679</v>
       </c>
@@ -25026,7 +26065,7 @@
         <v>43095</v>
       </c>
       <c r="D54" s="14">
-        <v>43150.040142629892</v>
+        <v>43095</v>
       </c>
       <c r="E54" s="15" t="s">
         <v>0</v>
@@ -25058,18 +26097,22 @@
       </c>
       <c r="M54" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N54" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="O54" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P54" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="55" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B55" s="14">
         <v>43101.6816504218</v>
       </c>
@@ -25116,11 +26159,15 @@
         <v>2018</v>
       </c>
       <c r="O55" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P55" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="56" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B56" s="14">
         <v>43144.070709460881</v>
       </c>
@@ -25167,11 +26214,15 @@
         <v>2018</v>
       </c>
       <c r="O56" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P56" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="57" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B57" s="14">
         <v>43159.768399969107</v>
       </c>
@@ -25218,11 +26269,15 @@
         <v>2018</v>
       </c>
       <c r="O57" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P57" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="58" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B58" s="14">
         <v>43113.535870555577</v>
       </c>
@@ -25269,11 +26324,15 @@
         <v>2018</v>
       </c>
       <c r="O58" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P58" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="59" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B59" s="14">
         <v>43147.636765206888</v>
       </c>
@@ -25281,7 +26340,7 @@
         <v>43117</v>
       </c>
       <c r="D59" s="14">
-        <v>43147.636765206888</v>
+        <v>43117</v>
       </c>
       <c r="E59" s="15" t="s">
         <v>0</v>
@@ -25313,18 +26372,22 @@
       </c>
       <c r="M59" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N59" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
       <c r="O59" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P59" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="60" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B60" s="14">
         <v>43166.506331380886</v>
       </c>
@@ -25371,11 +26434,15 @@
         <v>2018</v>
       </c>
       <c r="O60" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P60" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="61" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B61" s="14">
         <v>43164.402079160267</v>
       </c>
@@ -25422,11 +26489,15 @@
         <v>2018</v>
       </c>
       <c r="O61" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P61" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="62" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B62" s="14">
         <v>43142.713591319029</v>
       </c>
@@ -25473,11 +26544,15 @@
         <v>2018</v>
       </c>
       <c r="O62" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P62" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="63" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B63" s="14">
         <v>43183.516256023155</v>
       </c>
@@ -25524,11 +26599,15 @@
         <v>2018</v>
       </c>
       <c r="O63" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P63" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="64" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B64" s="14">
         <v>43181.942093945734</v>
       </c>
@@ -25536,7 +26615,7 @@
         <v>43128</v>
       </c>
       <c r="D64" s="14">
-        <v>43181.942093945734</v>
+        <v>43128</v>
       </c>
       <c r="E64" s="15" t="s">
         <v>0</v>
@@ -25568,18 +26647,22 @@
       </c>
       <c r="M64" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N64" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
       <c r="O64" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P64" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="65" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B65" s="14">
         <v>43161.227605046144</v>
       </c>
@@ -25626,11 +26709,15 @@
         <v>2018</v>
       </c>
       <c r="O65" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P65" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="66" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B66" s="14">
         <v>43178.327075601032</v>
       </c>
@@ -25677,11 +26764,15 @@
         <v>2018</v>
       </c>
       <c r="O66" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P66" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="67" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B67" s="14">
         <v>43138.085439585935</v>
       </c>
@@ -25728,11 +26819,15 @@
         <v>2018</v>
       </c>
       <c r="O67" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P67" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="68" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B68" s="14">
         <v>43190.17599100792</v>
       </c>
@@ -25779,11 +26874,15 @@
         <v>2018</v>
       </c>
       <c r="O68" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P68" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="69" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B69" s="14">
         <v>43145.940969359632</v>
       </c>
@@ -25830,11 +26929,15 @@
         <v>2018</v>
       </c>
       <c r="O69" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P69" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="70" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B70" s="14">
         <v>43146.225751185812</v>
       </c>
@@ -25881,11 +26984,15 @@
         <v>2018</v>
       </c>
       <c r="O70" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P70" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="71" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B71" s="14">
         <v>43193.467827275977</v>
       </c>
@@ -25932,11 +27039,15 @@
         <v>2018</v>
       </c>
       <c r="O71" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P71" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="72" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B72" s="14">
         <v>43193.409618971542</v>
       </c>
@@ -25983,11 +27094,15 @@
         <v>2018</v>
       </c>
       <c r="O72" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P72" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="73" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B73" s="14">
         <v>43261.17512133922</v>
       </c>
@@ -25995,7 +27110,7 @@
         <v>43154</v>
       </c>
       <c r="D73" s="14">
-        <v>43180.340377186512</v>
+        <v>43154</v>
       </c>
       <c r="E73" s="15" t="s">
         <v>0</v>
@@ -26027,18 +27142,22 @@
       </c>
       <c r="M73" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N73" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
       <c r="O73" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P73" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="74" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B74" s="14">
         <v>43253.722363167413</v>
       </c>
@@ -26085,11 +27204,15 @@
         <v>2018</v>
       </c>
       <c r="O74" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P74" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="75" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B75" s="14">
         <v>43268.070563511268</v>
       </c>
@@ -26136,11 +27259,15 @@
         <v>2018</v>
       </c>
       <c r="O75" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P75" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="76" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B76" s="14">
         <v>43169.443907551016</v>
       </c>
@@ -26187,11 +27314,15 @@
         <v>2018</v>
       </c>
       <c r="O76" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P76" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="77" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B77" s="14">
         <v>43202.812742183109</v>
       </c>
@@ -26238,11 +27369,15 @@
         <v>2018</v>
       </c>
       <c r="O77" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P77" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="78" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B78" s="14">
         <v>43277.69194849013</v>
       </c>
@@ -26289,11 +27424,15 @@
         <v>2018</v>
       </c>
       <c r="O78" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P78" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="79" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B79" s="14">
         <v>43283.817447549081</v>
       </c>
@@ -26340,11 +27479,15 @@
         <v>2018</v>
       </c>
       <c r="O79" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P79" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="80" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B80" s="14">
         <v>43184.083980960655</v>
       </c>
@@ -26352,7 +27495,7 @@
         <v>43169</v>
       </c>
       <c r="D80" s="14">
-        <v>43184.083980960655</v>
+        <v>43169</v>
       </c>
       <c r="E80" s="15" t="s">
         <v>0</v>
@@ -26391,11 +27534,15 @@
         <v>2018</v>
       </c>
       <c r="O80" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P80" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="81" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B81" s="14">
         <v>43200.147034627953</v>
       </c>
@@ -26442,11 +27589,15 @@
         <v>2018</v>
       </c>
       <c r="O81" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P81" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="82" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B82" s="14">
         <v>43207.818228031581</v>
       </c>
@@ -26454,7 +27605,7 @@
         <v>43176</v>
       </c>
       <c r="D82" s="14">
-        <v>43207.818228031581</v>
+        <v>43176</v>
       </c>
       <c r="E82" s="15" t="s">
         <v>0</v>
@@ -26486,18 +27637,22 @@
       </c>
       <c r="M82" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N82" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
       <c r="O82" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P82" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="83" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B83" s="14">
         <v>43234.457970610572</v>
       </c>
@@ -26505,7 +27660,7 @@
         <v>43177</v>
       </c>
       <c r="D83" s="14">
-        <v>43234.457970610572</v>
+        <v>43177</v>
       </c>
       <c r="E83" s="15" t="s">
         <v>0</v>
@@ -26537,18 +27692,22 @@
       </c>
       <c r="M83" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N83" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
       <c r="O83" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P83" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="84" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B84" s="14">
         <v>43220.822063654756</v>
       </c>
@@ -26556,7 +27715,7 @@
         <v>43180</v>
       </c>
       <c r="D84" s="14">
-        <v>43220.822063654756</v>
+        <v>43180</v>
       </c>
       <c r="E84" s="15" t="s">
         <v>0</v>
@@ -26588,18 +27747,22 @@
       </c>
       <c r="M84" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N84" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
       <c r="O84" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P84" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="85" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B85" s="14" t="s">
         <v>93</v>
       </c>
@@ -26646,11 +27809,15 @@
         <v>2018</v>
       </c>
       <c r="O85" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P85" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Vencida</v>
       </c>
     </row>
-    <row r="86" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B86" s="14">
         <v>43187.544050679455</v>
       </c>
@@ -26697,11 +27864,15 @@
         <v>2018</v>
       </c>
       <c r="O86" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P86" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="87" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B87" s="14">
         <v>43205.258677559352</v>
       </c>
@@ -26748,11 +27919,15 @@
         <v>2018</v>
       </c>
       <c r="O87" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P87" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="88" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B88" s="14">
         <v>43228.479640925485</v>
       </c>
@@ -26760,7 +27935,7 @@
         <v>43189</v>
       </c>
       <c r="D88" s="14">
-        <v>43228.479640925485</v>
+        <v>43189</v>
       </c>
       <c r="E88" s="15" t="s">
         <v>0</v>
@@ -26792,18 +27967,22 @@
       </c>
       <c r="M88" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N88" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
       <c r="O88" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P88" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="89" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B89" s="14">
         <v>43228.526498585612</v>
       </c>
@@ -26850,11 +28029,15 @@
         <v>2018</v>
       </c>
       <c r="O89" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P89" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="90" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B90" s="14">
         <v>43289.577504759094</v>
       </c>
@@ -26862,7 +28045,7 @@
         <v>43193</v>
       </c>
       <c r="D90" s="14">
-        <v>43251.952991180231</v>
+        <v>43193</v>
       </c>
       <c r="E90" s="15" t="s">
         <v>0</v>
@@ -26894,18 +28077,22 @@
       </c>
       <c r="M90" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N90" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
       <c r="O90" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P90" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="91" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B91" s="14">
         <v>43221.091190775791</v>
       </c>
@@ -26913,7 +28100,7 @@
         <v>43196</v>
       </c>
       <c r="D91" s="14">
-        <v>43221.091190775791</v>
+        <v>43196</v>
       </c>
       <c r="E91" s="15" t="s">
         <v>0</v>
@@ -26945,18 +28132,22 @@
       </c>
       <c r="M91" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N91" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
       <c r="O91" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P91" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="92" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B92" s="14">
         <v>43251.171133907985</v>
       </c>
@@ -27003,11 +28194,15 @@
         <v>2018</v>
       </c>
       <c r="O92" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P92" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="93" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B93" s="14">
         <v>43264.89293629631</v>
       </c>
@@ -27054,11 +28249,15 @@
         <v>2018</v>
       </c>
       <c r="O93" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P93" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="94" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B94" s="14">
         <v>43224.851474146271</v>
       </c>
@@ -27105,11 +28304,15 @@
         <v>2018</v>
       </c>
       <c r="O94" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P94" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="95" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B95" s="14" t="s">
         <v>93</v>
       </c>
@@ -27117,7 +28320,7 @@
         <v>43209</v>
       </c>
       <c r="D95" s="14">
-        <v>43266.340119269124</v>
+        <v>43209</v>
       </c>
       <c r="E95" s="15" t="s">
         <v>0</v>
@@ -27149,18 +28352,22 @@
       </c>
       <c r="M95" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N95" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
       <c r="O95" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P95" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Vencida</v>
       </c>
     </row>
-    <row r="96" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B96" s="14">
         <v>43302.517348540277</v>
       </c>
@@ -27207,11 +28414,15 @@
         <v>2018</v>
       </c>
       <c r="O96" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P96" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="97" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B97" s="14">
         <v>43299.933065152305</v>
       </c>
@@ -27219,7 +28430,7 @@
         <v>43216</v>
       </c>
       <c r="D97" s="14">
-        <v>43265.015379904566</v>
+        <v>43216</v>
       </c>
       <c r="E97" s="15" t="s">
         <v>0</v>
@@ -27251,18 +28462,22 @@
       </c>
       <c r="M97" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N97" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
       <c r="O97" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P97" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="98" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B98" s="14">
         <v>43265.565544078599</v>
       </c>
@@ -27270,7 +28485,7 @@
         <v>43220</v>
       </c>
       <c r="D98" s="14">
-        <v>43265.565544078599</v>
+        <v>43220</v>
       </c>
       <c r="E98" s="15" t="s">
         <v>0</v>
@@ -27302,18 +28517,22 @@
       </c>
       <c r="M98" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N98" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
       <c r="O98" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P98" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="99" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B99" s="14">
         <v>43330.643378541507</v>
       </c>
@@ -27360,11 +28579,15 @@
         <v>2018</v>
       </c>
       <c r="O99" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P99" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="100" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B100" s="14">
         <v>43279.381017407846</v>
       </c>
@@ -27411,11 +28634,15 @@
         <v>2018</v>
       </c>
       <c r="O100" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P100" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="101" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B101" s="14">
         <v>43285.463133098099</v>
       </c>
@@ -27423,7 +28650,7 @@
         <v>43233</v>
       </c>
       <c r="D101" s="14">
-        <v>43285.463133098099</v>
+        <v>43233</v>
       </c>
       <c r="E101" s="15" t="s">
         <v>0</v>
@@ -27455,18 +28682,22 @@
       </c>
       <c r="M101" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N101" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
       <c r="O101" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P101" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="102" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B102" s="14">
         <v>43252.121501784946</v>
       </c>
@@ -27513,11 +28744,15 @@
         <v>2018</v>
       </c>
       <c r="O102" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P102" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="103" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B103" s="14" t="s">
         <v>93</v>
       </c>
@@ -27564,11 +28799,15 @@
         <v>2018</v>
       </c>
       <c r="O103" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P103" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Vencida</v>
       </c>
     </row>
-    <row r="104" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B104" s="14">
         <v>43275.663970819842</v>
       </c>
@@ -27615,11 +28854,15 @@
         <v>2018</v>
       </c>
       <c r="O104" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P104" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="105" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B105" s="14">
         <v>43265.40932974538</v>
       </c>
@@ -27666,11 +28909,15 @@
         <v>2018</v>
       </c>
       <c r="O105" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P105" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="106" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B106" s="14">
         <v>43313.778330733978</v>
       </c>
@@ -27717,11 +28964,15 @@
         <v>2018</v>
       </c>
       <c r="O106" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P106" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="107" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B107" s="14">
         <v>43309.034479812522</v>
       </c>
@@ -27729,7 +28980,7 @@
         <v>43255</v>
       </c>
       <c r="D107" s="14">
-        <v>43309.034479812522</v>
+        <v>43255</v>
       </c>
       <c r="E107" s="15" t="s">
         <v>0</v>
@@ -27761,18 +29012,22 @@
       </c>
       <c r="M107" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N107" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
       <c r="O107" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P107" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="108" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B108" s="14">
         <v>43267.639792395334</v>
       </c>
@@ -27819,11 +29074,15 @@
         <v>2018</v>
       </c>
       <c r="O108" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P108" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="109" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B109" s="14">
         <v>43295.992726264638</v>
       </c>
@@ -27831,7 +29090,7 @@
         <v>43259</v>
       </c>
       <c r="D109" s="14">
-        <v>43295.992726264638</v>
+        <v>43259</v>
       </c>
       <c r="E109" s="15" t="s">
         <v>0</v>
@@ -27863,18 +29122,22 @@
       </c>
       <c r="M109" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N109" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
       <c r="O109" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P109" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="110" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B110" s="14">
         <v>43276.511490365912</v>
       </c>
@@ -27921,11 +29184,15 @@
         <v>2018</v>
       </c>
       <c r="O110" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P110" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="111" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B111" s="14">
         <v>43320.151513939236</v>
       </c>
@@ -27972,11 +29239,15 @@
         <v>2018</v>
       </c>
       <c r="O111" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P111" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="112" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B112" s="14">
         <v>43303.335943391627</v>
       </c>
@@ -28023,11 +29294,15 @@
         <v>2018</v>
       </c>
       <c r="O112" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P112" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="113" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B113" s="14">
         <v>43293.385542692129</v>
       </c>
@@ -28074,11 +29349,15 @@
         <v>2018</v>
       </c>
       <c r="O113" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P113" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="114" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B114" s="14">
         <v>43347.784698126074</v>
       </c>
@@ -28086,7 +29365,7 @@
         <v>43268</v>
       </c>
       <c r="D114" s="14">
-        <v>43310.26005003383</v>
+        <v>43268</v>
       </c>
       <c r="E114" s="15" t="s">
         <v>0</v>
@@ -28118,18 +29397,22 @@
       </c>
       <c r="M114" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N114" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
       <c r="O114" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P114" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="115" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B115" s="14">
         <v>43328.142631140596</v>
       </c>
@@ -28176,11 +29459,15 @@
         <v>2018</v>
       </c>
       <c r="O115" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P115" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="116" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B116" s="14" t="s">
         <v>93</v>
       </c>
@@ -28227,11 +29514,15 @@
         <v>2018</v>
       </c>
       <c r="O116" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P116" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Vencida</v>
       </c>
     </row>
-    <row r="117" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B117" s="14">
         <v>43321.066181249873</v>
       </c>
@@ -28278,11 +29569,15 @@
         <v>2018</v>
       </c>
       <c r="O117" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P117" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="118" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B118" s="14">
         <v>43328.896220051167</v>
       </c>
@@ -28329,11 +29624,15 @@
         <v>2018</v>
       </c>
       <c r="O118" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P118" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="119" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B119" s="14">
         <v>43310.362560784597</v>
       </c>
@@ -28380,11 +29679,15 @@
         <v>2018</v>
       </c>
       <c r="O119" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P119" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="120" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B120" s="14">
         <v>43343.848263098727</v>
       </c>
@@ -28431,11 +29734,15 @@
         <v>2018</v>
       </c>
       <c r="O120" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P120" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="121" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B121" s="14">
         <v>43316.086897207155</v>
       </c>
@@ -28482,11 +29789,15 @@
         <v>2018</v>
       </c>
       <c r="O121" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P121" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="122" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B122" s="14">
         <v>43336.184362990563</v>
       </c>
@@ -28533,11 +29844,15 @@
         <v>2018</v>
       </c>
       <c r="O122" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P122" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="123" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B123" s="14">
         <v>43367.055849144577</v>
       </c>
@@ -28584,11 +29899,15 @@
         <v>2018</v>
       </c>
       <c r="O123" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P123" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="124" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B124" s="14">
         <v>43311.051743268465</v>
       </c>
@@ -28635,11 +29954,15 @@
         <v>2018</v>
       </c>
       <c r="O124" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P124" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="125" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B125" s="14">
         <v>43302.671415134202</v>
       </c>
@@ -28686,11 +30009,15 @@
         <v>2018</v>
       </c>
       <c r="O125" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P125" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="126" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B126" s="14">
         <v>43346.313143570049</v>
       </c>
@@ -28737,11 +30064,15 @@
         <v>2018</v>
       </c>
       <c r="O126" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P126" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="127" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B127" s="14">
         <v>43333.777244922574</v>
       </c>
@@ -28749,7 +30080,7 @@
         <v>43304</v>
       </c>
       <c r="D127" s="14">
-        <v>43333.777244922574</v>
+        <v>43304</v>
       </c>
       <c r="E127" s="15" t="s">
         <v>0</v>
@@ -28781,18 +30112,22 @@
       </c>
       <c r="M127" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N127" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
       <c r="O127" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P127" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="128" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B128" s="14">
         <v>43428.73128891184</v>
       </c>
@@ -28839,11 +30174,15 @@
         <v>2018</v>
       </c>
       <c r="O128" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P128" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="129" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B129" s="14">
         <v>43352.69621488743</v>
       </c>
@@ -28851,7 +30190,7 @@
         <v>43310</v>
       </c>
       <c r="D129" s="14">
-        <v>43352.69621488743</v>
+        <v>43310</v>
       </c>
       <c r="E129" s="15" t="s">
         <v>0</v>
@@ -28883,18 +30222,22 @@
       </c>
       <c r="M129" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N129" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
       <c r="O129" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P129" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="130" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B130" s="14">
         <v>43357.5698549507</v>
       </c>
@@ -28941,11 +30284,15 @@
         <v>2018</v>
       </c>
       <c r="O130" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P130" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="131" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B131" s="14">
         <v>43321.343775306508</v>
       </c>
@@ -28953,7 +30300,7 @@
         <v>43318</v>
       </c>
       <c r="D131" s="14">
-        <v>43321.343775306508</v>
+        <v>43318</v>
       </c>
       <c r="E131" s="15" t="s">
         <v>0</v>
@@ -28992,11 +30339,15 @@
         <v>2018</v>
       </c>
       <c r="O131" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P131" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="132" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B132" s="14">
         <v>43341.446775987133</v>
       </c>
@@ -29043,11 +30394,15 @@
         <v>2018</v>
       </c>
       <c r="O132" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P132" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="133" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B133" s="14">
         <v>43343.77071694022</v>
       </c>
@@ -29055,7 +30410,7 @@
         <v>43323</v>
       </c>
       <c r="D133" s="14">
-        <v>43343.77071694022</v>
+        <v>43323</v>
       </c>
       <c r="E133" s="15" t="s">
         <v>0</v>
@@ -29094,11 +30449,15 @@
         <v>2018</v>
       </c>
       <c r="O133" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P133" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="134" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B134" s="14">
         <v>43360.32999077069</v>
       </c>
@@ -29145,11 +30504,15 @@
         <v>2018</v>
       </c>
       <c r="O134" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P134" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="135" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B135" s="14">
         <v>43329.315214521994</v>
       </c>
@@ -29157,7 +30520,7 @@
         <v>43329</v>
       </c>
       <c r="D135" s="14">
-        <v>43329.315214521994</v>
+        <v>43329</v>
       </c>
       <c r="E135" s="15" t="s">
         <v>0</v>
@@ -29196,11 +30559,15 @@
         <v>2018</v>
       </c>
       <c r="O135" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P135" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="136" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B136" s="14">
         <v>43388.49957155843</v>
       </c>
@@ -29208,7 +30575,7 @@
         <v>43336</v>
       </c>
       <c r="D136" s="14">
-        <v>43388.49957155843</v>
+        <v>43336</v>
       </c>
       <c r="E136" s="15" t="s">
         <v>0</v>
@@ -29240,18 +30607,22 @@
       </c>
       <c r="M136" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N136" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
       <c r="O136" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P136" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="137" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B137" s="14">
         <v>43395.898810917068</v>
       </c>
@@ -29298,11 +30669,15 @@
         <v>2018</v>
       </c>
       <c r="O137" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P137" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="138" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B138" s="14">
         <v>43393.910050358987</v>
       </c>
@@ -29349,11 +30724,15 @@
         <v>2018</v>
       </c>
       <c r="O138" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P138" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="139" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B139" s="14">
         <v>43354.387651420941</v>
       </c>
@@ -29400,11 +30779,15 @@
         <v>2018</v>
       </c>
       <c r="O139" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P139" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="140" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B140" s="14" t="s">
         <v>93</v>
       </c>
@@ -29451,11 +30834,15 @@
         <v>2018</v>
       </c>
       <c r="O140" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P140" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Vencida</v>
       </c>
     </row>
-    <row r="141" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B141" s="14">
         <v>43357.782262904322</v>
       </c>
@@ -29463,7 +30850,7 @@
         <v>43350</v>
       </c>
       <c r="D141" s="14">
-        <v>43357.782262904322</v>
+        <v>43350</v>
       </c>
       <c r="E141" s="15" t="s">
         <v>0</v>
@@ -29502,11 +30889,15 @@
         <v>2018</v>
       </c>
       <c r="O141" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P141" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="142" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B142" s="14">
         <v>43370.746792358121</v>
       </c>
@@ -29553,11 +30944,15 @@
         <v>2018</v>
       </c>
       <c r="O142" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P142" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="143" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B143" s="14">
         <v>43452.502445224149</v>
       </c>
@@ -29604,11 +30999,15 @@
         <v>2018</v>
       </c>
       <c r="O143" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P143" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="144" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B144" s="14">
         <v>43412.045933493078</v>
       </c>
@@ -29655,11 +31054,15 @@
         <v>2018</v>
       </c>
       <c r="O144" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P144" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="145" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B145" s="14">
         <v>43374.505096957248</v>
       </c>
@@ -29706,11 +31109,15 @@
         <v>2018</v>
       </c>
       <c r="O145" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P145" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="146" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B146" s="14">
         <v>43388.790596442639</v>
       </c>
@@ -29718,7 +31125,7 @@
         <v>43364</v>
       </c>
       <c r="D146" s="14">
-        <v>43377.195562585111</v>
+        <v>43364</v>
       </c>
       <c r="E146" s="15" t="s">
         <v>0</v>
@@ -29750,18 +31157,22 @@
       </c>
       <c r="M146" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N146" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
       <c r="O146" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P146" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="147" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B147" s="14">
         <v>43405.698265794999</v>
       </c>
@@ -29808,11 +31219,15 @@
         <v>2018</v>
       </c>
       <c r="O147" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P147" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="148" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B148" s="14">
         <v>43395.635115246572</v>
       </c>
@@ -29820,7 +31235,7 @@
         <v>43369</v>
       </c>
       <c r="D148" s="14">
-        <v>43395.635115246572</v>
+        <v>43369</v>
       </c>
       <c r="E148" s="15" t="s">
         <v>0</v>
@@ -29852,18 +31267,22 @@
       </c>
       <c r="M148" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N148" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
       <c r="O148" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P148" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="149" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B149" s="14">
         <v>43392.294011107704</v>
       </c>
@@ -29910,11 +31329,15 @@
         <v>2018</v>
       </c>
       <c r="O149" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P149" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="150" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B150" s="14" t="s">
         <v>93</v>
       </c>
@@ -29961,11 +31384,15 @@
         <v>2018</v>
       </c>
       <c r="O150" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P150" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Vencida</v>
       </c>
     </row>
-    <row r="151" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B151" s="14">
         <v>43491.255960910879</v>
       </c>
@@ -30012,11 +31439,15 @@
         <v>2018</v>
       </c>
       <c r="O151" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P151" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="152" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B152" s="14">
         <v>43442.77456497735</v>
       </c>
@@ -30024,7 +31455,7 @@
         <v>43382</v>
       </c>
       <c r="D152" s="14">
-        <v>43423.510226289633</v>
+        <v>43382</v>
       </c>
       <c r="E152" s="15" t="s">
         <v>0</v>
@@ -30056,18 +31487,22 @@
       </c>
       <c r="M152" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N152" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
       <c r="O152" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P152" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="153" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B153" s="14">
         <v>43400.871146361249</v>
       </c>
@@ -30114,11 +31549,15 @@
         <v>2018</v>
       </c>
       <c r="O153" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P153" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="154" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B154" s="14">
         <v>43438.136766228803</v>
       </c>
@@ -30165,11 +31604,15 @@
         <v>2018</v>
       </c>
       <c r="O154" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P154" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="155" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B155" s="14">
         <v>43493.104436604881</v>
       </c>
@@ -30216,11 +31659,15 @@
         <v>2018</v>
       </c>
       <c r="O155" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P155" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="156" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B156" s="14">
         <v>43419.609240604143</v>
       </c>
@@ -30267,11 +31714,15 @@
         <v>2018</v>
       </c>
       <c r="O156" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P156" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="157" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B157" s="14">
         <v>43457.427069040656</v>
       </c>
@@ -30279,7 +31730,7 @@
         <v>43398</v>
       </c>
       <c r="D157" s="14">
-        <v>43457.427069040656</v>
+        <v>43398</v>
       </c>
       <c r="E157" s="15" t="s">
         <v>0</v>
@@ -30311,18 +31762,22 @@
       </c>
       <c r="M157" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N157" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
       <c r="O157" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P157" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="158" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B158" s="14">
         <v>43416.791420716982</v>
       </c>
@@ -30330,7 +31785,7 @@
         <v>43403</v>
       </c>
       <c r="D158" s="14">
-        <v>43416.791420716982</v>
+        <v>43403</v>
       </c>
       <c r="E158" s="15" t="s">
         <v>0</v>
@@ -30362,18 +31817,22 @@
       </c>
       <c r="M158" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N158" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
       <c r="O158" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P158" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="159" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B159" s="14">
         <v>43503.017030074843</v>
       </c>
@@ -30420,11 +31879,15 @@
         <v>2018</v>
       </c>
       <c r="O159" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P159" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="160" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B160" s="14">
         <v>43431.589825007759</v>
       </c>
@@ -30471,11 +31934,15 @@
         <v>2018</v>
       </c>
       <c r="O160" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P160" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="161" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B161" s="14">
         <v>43467.343545956064</v>
       </c>
@@ -30522,11 +31989,15 @@
         <v>2018</v>
       </c>
       <c r="O161" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P161" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="162" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B162" s="14">
         <v>43523.081285354827</v>
       </c>
@@ -30534,7 +32005,7 @@
         <v>43418</v>
       </c>
       <c r="D162" s="14">
-        <v>43441.738773120276</v>
+        <v>43418</v>
       </c>
       <c r="E162" s="15" t="s">
         <v>0</v>
@@ -30566,18 +32037,22 @@
       </c>
       <c r="M162" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N162" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
       <c r="O162" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P162" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="163" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B163" s="14">
         <v>43464.748499618698</v>
       </c>
@@ -30624,11 +32099,15 @@
         <v>2018</v>
       </c>
       <c r="O163" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P163" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="164" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B164" s="14">
         <v>43455.375597423525</v>
       </c>
@@ -30636,7 +32115,7 @@
         <v>43425</v>
       </c>
       <c r="D164" s="14">
-        <v>43455.375597423525</v>
+        <v>43425</v>
       </c>
       <c r="E164" s="15" t="s">
         <v>0</v>
@@ -30668,18 +32147,22 @@
       </c>
       <c r="M164" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N164" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
       <c r="O164" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P164" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="165" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B165" s="14" t="s">
         <v>93</v>
       </c>
@@ -30726,11 +32209,15 @@
         <v>2018</v>
       </c>
       <c r="O165" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P165" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Vencida</v>
       </c>
     </row>
-    <row r="166" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B166" s="14" t="s">
         <v>93</v>
       </c>
@@ -30777,11 +32264,15 @@
         <v>2018</v>
       </c>
       <c r="O166" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P166" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Vencida</v>
       </c>
     </row>
-    <row r="167" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B167" s="14">
         <v>43477.965813489587</v>
       </c>
@@ -30789,7 +32280,7 @@
         <v>43431</v>
       </c>
       <c r="D167" s="14">
-        <v>43477.965813489587</v>
+        <v>43431</v>
       </c>
       <c r="E167" s="15" t="s">
         <v>0</v>
@@ -30821,18 +32312,22 @@
       </c>
       <c r="M167" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="N167" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="O167" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P167" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="168" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B168" s="14" t="s">
         <v>93</v>
       </c>
@@ -30840,7 +32335,7 @@
         <v>43434</v>
       </c>
       <c r="D168" s="14">
-        <v>43455.267564406917</v>
+        <v>43434</v>
       </c>
       <c r="E168" s="15" t="s">
         <v>0</v>
@@ -30872,18 +32367,22 @@
       </c>
       <c r="M168" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N168" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
       <c r="O168" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P168" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Vencida</v>
       </c>
     </row>
-    <row r="169" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B169" s="14">
         <v>43544.142248909535</v>
       </c>
@@ -30930,11 +32429,15 @@
         <v>2019</v>
       </c>
       <c r="O169" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P169" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="170" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B170" s="14" t="s">
         <v>93</v>
       </c>
@@ -30981,11 +32484,15 @@
         <v>2019</v>
       </c>
       <c r="O170" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P170" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Vencida</v>
       </c>
     </row>
-    <row r="171" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B171" s="14">
         <v>43469.404646888193</v>
       </c>
@@ -31032,11 +32539,15 @@
         <v>2019</v>
       </c>
       <c r="O171" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P171" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="172" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B172" s="14">
         <v>43459.694209767709</v>
       </c>
@@ -31083,11 +32594,15 @@
         <v>2018</v>
       </c>
       <c r="O172" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P172" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="173" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B173" s="14">
         <v>43497.817197182514</v>
       </c>
@@ -31134,11 +32649,15 @@
         <v>2019</v>
       </c>
       <c r="O173" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P173" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="174" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B174" s="14">
         <v>43550.908167683869</v>
       </c>
@@ -31146,7 +32665,7 @@
         <v>43457</v>
       </c>
       <c r="D174" s="14">
-        <v>43493.892299226922</v>
+        <v>43457</v>
       </c>
       <c r="E174" s="15" t="s">
         <v>0</v>
@@ -31178,18 +32697,22 @@
       </c>
       <c r="M174" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="N174" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="O174" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P174" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="175" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B175" s="14">
         <v>43519.692753371986</v>
       </c>
@@ -31236,11 +32759,15 @@
         <v>2019</v>
       </c>
       <c r="O175" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P175" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="176" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B176" s="14">
         <v>43484.08707667359</v>
       </c>
@@ -31287,11 +32814,15 @@
         <v>2019</v>
       </c>
       <c r="O176" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P176" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="177" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B177" s="14">
         <v>43511.69240968494</v>
       </c>
@@ -31338,11 +32869,15 @@
         <v>2019</v>
       </c>
       <c r="O177" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P177" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="178" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B178" s="14">
         <v>43511.114471984198</v>
       </c>
@@ -31350,7 +32885,7 @@
         <v>43473</v>
       </c>
       <c r="D178" s="14">
-        <v>43511.114471984198</v>
+        <v>43473</v>
       </c>
       <c r="E178" s="15" t="s">
         <v>0</v>
@@ -31382,18 +32917,22 @@
       </c>
       <c r="M178" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N178" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
       <c r="O178" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P178" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="179" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B179" s="14">
         <v>43509.221158562403</v>
       </c>
@@ -31401,7 +32940,7 @@
         <v>43478</v>
       </c>
       <c r="D179" s="14">
-        <v>43509.221158562403</v>
+        <v>43478</v>
       </c>
       <c r="E179" s="15" t="s">
         <v>0</v>
@@ -31433,18 +32972,22 @@
       </c>
       <c r="M179" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N179" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
       <c r="O179" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P179" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="180" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B180" s="14">
         <v>43601.782099050732</v>
       </c>
@@ -31491,11 +33034,15 @@
         <v>2019</v>
       </c>
       <c r="O180" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P180" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="181" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B181" s="14">
         <v>43485.955494346097</v>
       </c>
@@ -31542,11 +33089,15 @@
         <v>2019</v>
       </c>
       <c r="O181" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P181" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="182" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B182" s="14">
         <v>43522.615238592094</v>
       </c>
@@ -31593,11 +33144,15 @@
         <v>2019</v>
       </c>
       <c r="O182" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P182" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="183" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B183" s="14">
         <v>43505.043861470636</v>
       </c>
@@ -31644,11 +33199,15 @@
         <v>2019</v>
       </c>
       <c r="O183" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P183" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="184" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B184" s="14">
         <v>43513.423178401492</v>
       </c>
@@ -31695,11 +33254,15 @@
         <v>2019</v>
       </c>
       <c r="O184" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P184" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="185" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B185" s="14">
         <v>43513.404065853094</v>
       </c>
@@ -31707,7 +33270,7 @@
         <v>43494</v>
       </c>
       <c r="D185" s="14">
-        <v>43513.404065853094</v>
+        <v>43494</v>
       </c>
       <c r="E185" s="15" t="s">
         <v>0</v>
@@ -31739,18 +33302,22 @@
       </c>
       <c r="M185" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N185" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
       <c r="O185" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P185" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="186" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B186" s="14">
         <v>43534.989762344601</v>
       </c>
@@ -31797,11 +33364,15 @@
         <v>2019</v>
       </c>
       <c r="O186" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P186" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="187" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B187" s="14">
         <v>43512.886043755854</v>
       </c>
@@ -31848,11 +33419,15 @@
         <v>2019</v>
       </c>
       <c r="O187" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P187" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="188" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B188" s="14">
         <v>43532.824988934779</v>
       </c>
@@ -31899,11 +33474,15 @@
         <v>2019</v>
       </c>
       <c r="O188" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P188" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="189" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B189" s="14">
         <v>43540.311131757786</v>
       </c>
@@ -31950,11 +33529,15 @@
         <v>2019</v>
       </c>
       <c r="O189" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P189" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="190" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B190" s="14">
         <v>43541.652544038297</v>
       </c>
@@ -32001,11 +33584,15 @@
         <v>2019</v>
       </c>
       <c r="O190" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P190" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="191" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B191" s="14">
         <v>43560.051672837129</v>
       </c>
@@ -32013,7 +33600,7 @@
         <v>43508</v>
       </c>
       <c r="D191" s="14">
-        <v>43554.09538121894</v>
+        <v>43508</v>
       </c>
       <c r="E191" s="15" t="s">
         <v>0</v>
@@ -32045,18 +33632,22 @@
       </c>
       <c r="M191" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N191" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
       <c r="O191" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P191" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="192" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B192" s="14">
         <v>43512.426649972214</v>
       </c>
@@ -32064,7 +33655,7 @@
         <v>43509</v>
       </c>
       <c r="D192" s="14">
-        <v>43512.426649972214</v>
+        <v>43509</v>
       </c>
       <c r="E192" s="15" t="s">
         <v>0</v>
@@ -32103,11 +33694,15 @@
         <v>2019</v>
       </c>
       <c r="O192" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P192" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="193" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B193" s="14" t="s">
         <v>93</v>
       </c>
@@ -32115,7 +33710,7 @@
         <v>43512</v>
       </c>
       <c r="D193" s="14">
-        <v>43570.205876707638</v>
+        <v>43512</v>
       </c>
       <c r="E193" s="15" t="s">
         <v>0</v>
@@ -32147,18 +33742,22 @@
       </c>
       <c r="M193" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N193" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
       <c r="O193" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P193" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Vencida</v>
       </c>
     </row>
-    <row r="194" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B194" s="14">
         <v>43560.066685649028</v>
       </c>
@@ -32166,7 +33765,7 @@
         <v>43513</v>
       </c>
       <c r="D194" s="14">
-        <v>43560.066685649028</v>
+        <v>43513</v>
       </c>
       <c r="E194" s="15" t="s">
         <v>0</v>
@@ -32198,18 +33797,22 @@
       </c>
       <c r="M194" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N194" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
       <c r="O194" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P194" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="195" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B195" s="14">
         <v>43540.820705056554</v>
       </c>
@@ -32256,11 +33859,15 @@
         <v>2019</v>
       </c>
       <c r="O195" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P195" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="196" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B196" s="14">
         <v>43548.222942782464</v>
       </c>
@@ -32307,11 +33914,15 @@
         <v>2019</v>
       </c>
       <c r="O196" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P196" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="197" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B197" s="14">
         <v>43625.080024605937</v>
       </c>
@@ -32319,7 +33930,7 @@
         <v>43522</v>
       </c>
       <c r="D197" s="14">
-        <v>43563.814201596448</v>
+        <v>43522</v>
       </c>
       <c r="E197" s="15" t="s">
         <v>0</v>
@@ -32351,18 +33962,22 @@
       </c>
       <c r="M197" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N197" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
       <c r="O197" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P197" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="198" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B198" s="14">
         <v>43571.459066587013</v>
       </c>
@@ -32370,7 +33985,7 @@
         <v>43525</v>
       </c>
       <c r="D198" s="14">
-        <v>43571.459066587013</v>
+        <v>43525</v>
       </c>
       <c r="E198" s="15" t="s">
         <v>0</v>
@@ -32402,18 +34017,22 @@
       </c>
       <c r="M198" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N198" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
       <c r="O198" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P198" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="199" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B199" s="14">
         <v>43590.006789576961</v>
       </c>
@@ -32421,7 +34040,7 @@
         <v>43527</v>
       </c>
       <c r="D199" s="14">
-        <v>43568.716482543525</v>
+        <v>43527</v>
       </c>
       <c r="E199" s="15" t="s">
         <v>0</v>
@@ -32453,18 +34072,22 @@
       </c>
       <c r="M199" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N199" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
       <c r="O199" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P199" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="200" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B200" s="14">
         <v>43563.221434488092</v>
       </c>
@@ -32511,11 +34134,15 @@
         <v>2019</v>
       </c>
       <c r="O200" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P200" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="201" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B201" s="14">
         <v>43578.576921560554</v>
       </c>
@@ -32562,11 +34189,15 @@
         <v>2019</v>
       </c>
       <c r="O201" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P201" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="202" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B202" s="14">
         <v>43555.68421267363</v>
       </c>
@@ -32574,7 +34205,7 @@
         <v>43543</v>
       </c>
       <c r="D202" s="14">
-        <v>43555.68421267363</v>
+        <v>43543</v>
       </c>
       <c r="E202" s="15" t="s">
         <v>0</v>
@@ -32613,11 +34244,15 @@
         <v>2019</v>
       </c>
       <c r="O202" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P202" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="203" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B203" s="14">
         <v>43614.347330751698</v>
       </c>
@@ -32625,7 +34260,7 @@
         <v>43545</v>
       </c>
       <c r="D203" s="14">
-        <v>43559.473956858106</v>
+        <v>43545</v>
       </c>
       <c r="E203" s="15" t="s">
         <v>0</v>
@@ -32657,18 +34292,22 @@
       </c>
       <c r="M203" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N203" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
       <c r="O203" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P203" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="204" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B204" s="14">
         <v>43622.661194715285</v>
       </c>
@@ -32715,11 +34354,15 @@
         <v>2019</v>
       </c>
       <c r="O204" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P204" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="205" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B205" s="14" t="s">
         <v>93</v>
       </c>
@@ -32766,11 +34409,15 @@
         <v>2019</v>
       </c>
       <c r="O205" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P205" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Vencida</v>
       </c>
     </row>
-    <row r="206" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B206" s="14">
         <v>43579.560843489548</v>
       </c>
@@ -32778,7 +34425,7 @@
         <v>43558</v>
       </c>
       <c r="D206" s="14">
-        <v>43579.560843489548</v>
+        <v>43558</v>
       </c>
       <c r="E206" s="15" t="s">
         <v>0</v>
@@ -32817,11 +34464,15 @@
         <v>2019</v>
       </c>
       <c r="O206" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P206" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="207" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B207" s="14">
         <v>43616.927767605004</v>
       </c>
@@ -32829,7 +34480,7 @@
         <v>43561</v>
       </c>
       <c r="D207" s="14">
-        <v>43616.927767605004</v>
+        <v>43561</v>
       </c>
       <c r="E207" s="15" t="s">
         <v>0</v>
@@ -32861,18 +34512,22 @@
       </c>
       <c r="M207" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N207" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
       <c r="O207" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P207" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="208" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B208" s="14">
         <v>43625.82552449884</v>
       </c>
@@ -32919,11 +34574,15 @@
         <v>2019</v>
       </c>
       <c r="O208" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P208" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="209" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B209" s="14">
         <v>43680.092544285042</v>
       </c>
@@ -32970,11 +34629,15 @@
         <v>2019</v>
       </c>
       <c r="O209" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P209" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="210" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B210" s="14">
         <v>43615.075827004257</v>
       </c>
@@ -33021,11 +34684,15 @@
         <v>2019</v>
       </c>
       <c r="O210" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P210" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="211" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B211" s="14">
         <v>43570.769485626974</v>
       </c>
@@ -33033,7 +34700,7 @@
         <v>43569</v>
       </c>
       <c r="D211" s="14">
-        <v>43570.769485626974</v>
+        <v>43569</v>
       </c>
       <c r="E211" s="15" t="s">
         <v>0</v>
@@ -33072,11 +34739,15 @@
         <v>2019</v>
       </c>
       <c r="O211" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P211" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="212" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B212" s="14">
         <v>43579.931861207129</v>
       </c>
@@ -33123,11 +34794,15 @@
         <v>2019</v>
       </c>
       <c r="O212" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P212" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="213" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B213" s="14">
         <v>43598.937055888804</v>
       </c>
@@ -33174,11 +34849,15 @@
         <v>2019</v>
       </c>
       <c r="O213" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P213" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="214" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B214" s="14">
         <v>43625.868579479997</v>
       </c>
@@ -33225,11 +34904,15 @@
         <v>2019</v>
       </c>
       <c r="O214" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P214" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="215" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B215" s="14">
         <v>43595.986786318994</v>
       </c>
@@ -33276,11 +34959,15 @@
         <v>2019</v>
       </c>
       <c r="O215" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P215" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="216" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B216" s="14">
         <v>43594.434933470475</v>
       </c>
@@ -33327,11 +35014,15 @@
         <v>2019</v>
       </c>
       <c r="O216" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P216" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="217" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B217" s="14">
         <v>43604.067998386839</v>
       </c>
@@ -33339,7 +35030,7 @@
         <v>43587</v>
       </c>
       <c r="D217" s="14">
-        <v>43604.067998386839</v>
+        <v>43587</v>
       </c>
       <c r="E217" s="15" t="s">
         <v>0</v>
@@ -33378,11 +35069,15 @@
         <v>2019</v>
       </c>
       <c r="O217" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P217" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="218" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B218" s="14">
         <v>43626.576857263979</v>
       </c>
@@ -33429,11 +35124,15 @@
         <v>2019</v>
       </c>
       <c r="O218" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P218" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="219" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B219" s="14">
         <v>43624.539951944804</v>
       </c>
@@ -33441,7 +35140,7 @@
         <v>43592</v>
       </c>
       <c r="D219" s="14">
-        <v>43609.115059144882</v>
+        <v>43592</v>
       </c>
       <c r="E219" s="15" t="s">
         <v>0</v>
@@ -33480,11 +35179,15 @@
         <v>2019</v>
       </c>
       <c r="O219" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P219" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="220" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B220" s="14">
         <v>43603.679990785502</v>
       </c>
@@ -33531,11 +35234,15 @@
         <v>2019</v>
       </c>
       <c r="O220" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P220" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="221" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B221" s="14" t="s">
         <v>93</v>
       </c>
@@ -33543,7 +35250,7 @@
         <v>43597</v>
       </c>
       <c r="D221" s="14">
-        <v>43605.396059977378</v>
+        <v>43597</v>
       </c>
       <c r="E221" s="15" t="s">
         <v>0</v>
@@ -33582,11 +35289,15 @@
         <v>2019</v>
       </c>
       <c r="O221" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P221" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Vencida</v>
       </c>
     </row>
-    <row r="222" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B222" s="14">
         <v>43631.169319753048</v>
       </c>
@@ -33633,11 +35344,15 @@
         <v>2019</v>
       </c>
       <c r="O222" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P222" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="223" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B223" s="14">
         <v>43686.642670066765</v>
       </c>
@@ -33684,11 +35399,15 @@
         <v>2019</v>
       </c>
       <c r="O223" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P223" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="224" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B224" s="14">
         <v>43630.288414733965</v>
       </c>
@@ -33735,11 +35454,15 @@
         <v>2019</v>
       </c>
       <c r="O224" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P224" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="225" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B225" s="14">
         <v>43611.846709635254</v>
       </c>
@@ -33786,11 +35509,15 @@
         <v>2019</v>
       </c>
       <c r="O225" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P225" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="226" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B226" s="14">
         <v>43708.684678024969</v>
       </c>
@@ -33837,11 +35564,15 @@
         <v>2019</v>
       </c>
       <c r="O226" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P226" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="227" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B227" s="14">
         <v>43648.175451286195</v>
       </c>
@@ -33888,11 +35619,15 @@
         <v>2019</v>
       </c>
       <c r="O227" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P227" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="228" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B228" s="14">
         <v>43667.504857748412</v>
       </c>
@@ -33939,11 +35674,15 @@
         <v>2019</v>
       </c>
       <c r="O228" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P228" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="229" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B229" s="14">
         <v>43633.202763509209</v>
       </c>
@@ -33990,11 +35729,15 @@
         <v>2019</v>
       </c>
       <c r="O229" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P229" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="230" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B230" s="14" t="s">
         <v>93</v>
       </c>
@@ -34041,11 +35784,15 @@
         <v>2019</v>
       </c>
       <c r="O230" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P230" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Vencida</v>
       </c>
     </row>
-    <row r="231" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B231" s="14">
         <v>43663.604642253973</v>
       </c>
@@ -34053,7 +35800,7 @@
         <v>43631</v>
       </c>
       <c r="D231" s="14">
-        <v>43663.604642253973</v>
+        <v>43631</v>
       </c>
       <c r="E231" s="15" t="s">
         <v>0</v>
@@ -34085,18 +35832,22 @@
       </c>
       <c r="M231" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N231" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
       <c r="O231" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Vista</v>
+      </c>
+      <c r="P231" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="232" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B232" s="14">
         <v>43647.603244851816</v>
       </c>
@@ -34143,11 +35894,15 @@
         <v>2019</v>
       </c>
       <c r="O232" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P232" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="233" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B233" s="14">
         <v>43741.143740040614</v>
       </c>
@@ -34194,11 +35949,15 @@
         <v>2019</v>
       </c>
       <c r="O233" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P233" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="234" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B234" s="14">
         <v>43645.269692137255</v>
       </c>
@@ -34245,11 +36004,15 @@
         <v>2019</v>
       </c>
       <c r="O234" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P234" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="235" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B235" s="14" t="s">
         <v>93</v>
       </c>
@@ -34296,20 +36059,22 @@
         <v>2019</v>
       </c>
       <c r="O235" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P235" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Vencida</v>
       </c>
     </row>
-    <row r="236" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B236" s="14">
         <v>43727.35674683658</v>
       </c>
       <c r="C236" s="14">
         <v>43645</v>
       </c>
-      <c r="D236" s="14">
-        <v>43647.81451187309</v>
-      </c>
+      <c r="D236" s="14"/>
       <c r="E236" s="15" t="s">
         <v>0</v>
       </c>
@@ -34340,13 +36105,17 @@
       </c>
       <c r="M236" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N236" s="15">
         <f>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</f>
-        <v>2019</v>
+        <v>0</v>
       </c>
       <c r="O236" s="15" t="str">
+        <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
+        <v>Prazo</v>
+      </c>
+      <c r="P236" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
@@ -45374,11 +47143,11 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="119" t="s">
         <v>536</v>
       </c>
-      <c r="C7" s="111"/>
-      <c r="D7" s="111"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
     </row>
     <row r="8" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="30" t="s">
@@ -45636,12 +47405,12 @@
     <row r="13" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="112" t="s">
+      <c r="B15" s="120" t="s">
         <v>554</v>
       </c>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
     </row>
     <row r="16" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="30" t="s">
@@ -45951,12 +47720,12 @@
     <row r="21" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="113" t="s">
+      <c r="B23" s="121" t="s">
         <v>555</v>
       </c>
-      <c r="C23" s="113"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="113"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="121"/>
     </row>
     <row r="24" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="30" t="s">

--- a/Projeto Final/projetoFluxodeCaixa.xlsx
+++ b/Projeto Final/projetoFluxodeCaixa.xlsx
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="617">
   <si>
     <t>Vendas de mercadorias</t>
   </si>
@@ -1892,9 +1892,6 @@
     <t>A pagar</t>
   </si>
   <si>
-    <t>dias</t>
-  </si>
-  <si>
     <t>Resultado Aculmulado</t>
   </si>
   <si>
@@ -1988,6 +1985,10 @@
   </si>
   <si>
     <t>Á vista</t>
+  </si>
+  <si>
+    <t>Dias de 
+atraso</t>
   </si>
 </sst>
 </file>
@@ -2002,7 +2003,7 @@
     <numFmt numFmtId="165" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
     <numFmt numFmtId="166" formatCode="&quot;R$&quot;\ #,##0"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2179,6 +2180,37 @@
       <b/>
       <sz val="13"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="4" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2684,7 +2716,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2992,6 +3024,12 @@
     <xf numFmtId="44" fontId="22" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3049,10 +3087,40 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="26" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3060,7 +3128,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="47">
+  <dxfs count="49">
     <dxf>
       <font>
         <b/>
@@ -3098,15 +3166,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3263,6 +3323,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -3272,6 +3336,18 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3444,11 +3520,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1418492928"/>
-        <c:axId val="-1624664976"/>
+        <c:axId val="-56605520"/>
+        <c:axId val="-56606064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1418492928"/>
+        <c:axId val="-56605520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3491,7 +3567,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1624664976"/>
+        <c:crossAx val="-56606064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3499,7 +3575,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1624664976"/>
+        <c:axId val="-56606064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3523,7 +3599,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1418492928"/>
+        <c:crossAx val="-56605520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17931,13 +18007,13 @@
     <dataField name="Soma de Valor" fld="6" baseField="4" baseItem="2" numFmtId="4"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="15">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="11">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -18233,20 +18309,20 @@
     <dataField name="Soma de Valor" fld="6" baseField="3" baseItem="0" numFmtId="4"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="12">
+    <format dxfId="10">
       <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="9">
       <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="8">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="12" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="7">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="12" count="0"/>
@@ -18786,7 +18862,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TbPCEntradasN1" displayName="TbPCEntradasN1" ref="B4:B10" totalsRowShown="0" headerRowDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TbPCEntradasN1" displayName="TbPCEntradasN1" ref="B4:B10" totalsRowShown="0" headerRowDxfId="48">
   <autoFilter ref="B4:B10"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Nível 1"/>
@@ -18828,77 +18904,83 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TbRegistroEntradas" displayName="TbRegistroEntradas" ref="B5:P236" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
-  <autoFilter ref="B5:P236"/>
-  <tableColumns count="15">
-    <tableColumn id="1" name="Data do Caixa Realizado" dataDxfId="43"/>
-    <tableColumn id="2" name="Data da Competência" dataDxfId="7"/>
-    <tableColumn id="3" name="Data do Caixa Previsto" dataDxfId="5"/>
-    <tableColumn id="4" name="Conta Nível 1" dataDxfId="6"/>
-    <tableColumn id="5" name="Conta Nível 2" dataDxfId="42"/>
-    <tableColumn id="6" name="Histórico" dataDxfId="41"/>
-    <tableColumn id="7" name="Valor" dataDxfId="40"/>
-    <tableColumn id="8" name="Mês Caixa" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="TbRegistroEntradas" displayName="TbRegistroEntradas" ref="B5:Q236" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+  <autoFilter ref="B5:Q236"/>
+  <tableColumns count="16">
+    <tableColumn id="1" name="Data do Caixa Realizado" dataDxfId="45"/>
+    <tableColumn id="2" name="Data da Competência" dataDxfId="44"/>
+    <tableColumn id="3" name="Data do Caixa Previsto" dataDxfId="43"/>
+    <tableColumn id="4" name="Conta Nível 1" dataDxfId="42"/>
+    <tableColumn id="5" name="Conta Nível 2" dataDxfId="41"/>
+    <tableColumn id="6" name="Histórico" dataDxfId="40"/>
+    <tableColumn id="7" name="Valor" dataDxfId="39"/>
+    <tableColumn id="8" name="Mês Caixa" dataDxfId="38">
       <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Ano Caixa" dataDxfId="38">
+    <tableColumn id="9" name="Ano Caixa" dataDxfId="37">
       <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Mês _x000a_Competência" dataDxfId="37">
+    <tableColumn id="10" name="Mês _x000a_Competência" dataDxfId="36">
       <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data da Competência]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Ano _x000a_Competência" dataDxfId="36">
+    <tableColumn id="11" name="Ano _x000a_Competência" dataDxfId="35">
       <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data da Competência]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Mês previsto" dataDxfId="35">
+    <tableColumn id="12" name="Mês previsto" dataDxfId="34">
       <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Ano Previsto" dataDxfId="34">
+    <tableColumn id="13" name="Ano Previsto" dataDxfId="33">
       <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="Á vista" dataDxfId="8">
+    <tableColumn id="16" name="Á vista" dataDxfId="32">
       <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Conta vencida" dataDxfId="33"/>
+    <tableColumn id="17" name="Dias de _x000a_atraso" dataDxfId="6">
+      <calculatedColumnFormula>IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" name="Conta vencida" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="TbRegistrosSaida" displayName="TbRegistrosSaida" ref="B5:N234" totalsRowShown="0" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" tableBorderDxfId="29">
-  <autoFilter ref="B5:N234">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="TbRegistrosSaida" displayName="TbRegistrosSaida" ref="B5:O234" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27">
+  <autoFilter ref="B5:O234">
     <filterColumn colId="8">
       <filters>
         <filter val="2019"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="13">
-    <tableColumn id="1" name="Data do Caixa Realizado" dataDxfId="28"/>
-    <tableColumn id="2" name="Data da Competência" dataDxfId="27"/>
-    <tableColumn id="3" name="Data do Caixa Previsto" dataDxfId="26"/>
-    <tableColumn id="4" name="Conta Nível 1" dataDxfId="25"/>
-    <tableColumn id="5" name="Conta Nível 2" dataDxfId="24"/>
-    <tableColumn id="6" name="Histórico" dataDxfId="23"/>
-    <tableColumn id="7" name="Valor" dataDxfId="22"/>
-    <tableColumn id="8" name="Mês Caixa" dataDxfId="21">
+  <tableColumns count="14">
+    <tableColumn id="1" name="Data do Caixa Realizado" dataDxfId="26"/>
+    <tableColumn id="2" name="Data da Competência" dataDxfId="25"/>
+    <tableColumn id="3" name="Data do Caixa Previsto" dataDxfId="24"/>
+    <tableColumn id="4" name="Conta Nível 1" dataDxfId="23"/>
+    <tableColumn id="5" name="Conta Nível 2" dataDxfId="22"/>
+    <tableColumn id="6" name="Histórico" dataDxfId="21"/>
+    <tableColumn id="7" name="Valor" dataDxfId="20"/>
+    <tableColumn id="8" name="Mês Caixa" dataDxfId="19">
       <calculatedColumnFormula>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]="",0,MONTH(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Ano Caixa" dataDxfId="20">
+    <tableColumn id="9" name="Ano Caixa" dataDxfId="18">
       <calculatedColumnFormula>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Mês _x000a_Competência" dataDxfId="19">
+    <tableColumn id="10" name="Mês _x000a_Competência" dataDxfId="17">
       <calculatedColumnFormula>IF(TbRegistrosSaida[[#This Row],[Data da Competência]]="",0,MONTH(TbRegistrosSaida[[#This Row],[Data da Competência]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Ano _x000a_Competência" dataDxfId="18">
+    <tableColumn id="11" name="Ano _x000a_Competência" dataDxfId="16">
       <calculatedColumnFormula>IF(TbRegistrosSaida[[#This Row],[Data da Competência]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data da Competência]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Mês previsto" dataDxfId="17">
+    <tableColumn id="12" name="Mês previsto" dataDxfId="15">
       <calculatedColumnFormula>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,MONTH(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Ano Previsto" dataDxfId="16">
+    <tableColumn id="13" name="Ano Previsto" dataDxfId="14">
       <calculatedColumnFormula>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" name="Dias de _x000a_atraso" dataDxfId="5">
+      <calculatedColumnFormula>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -19194,9 +19276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
-    </sheetView>
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -20586,12 +20666,12 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
-      <c r="N2" s="122">
+      <c r="N2" s="124">
         <f ca="1">TODAY()</f>
         <v>45393</v>
       </c>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="124"/>
     </row>
     <row r="3" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -20845,7 +20925,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20879,7 +20959,7 @@
       <c r="K1" s="7"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="2" spans="2:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -20906,18 +20986,18 @@
       <c r="D4" s="99" t="s">
         <v>578</v>
       </c>
-      <c r="F4" s="129" t="s">
+      <c r="F4" s="131" t="s">
         <v>580</v>
       </c>
-      <c r="G4" s="130"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="130"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="132"/>
       <c r="K4" s="100"/>
-      <c r="L4" s="127" t="s">
+      <c r="L4" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="128"/>
+      <c r="M4" s="130"/>
     </row>
     <row r="5" spans="2:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="113">
@@ -20925,7 +21005,7 @@
         <v>-3097</v>
       </c>
       <c r="D5" s="112" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F5" s="63"/>
       <c r="G5" s="64"/>
@@ -20950,24 +21030,24 @@
       <c r="B7" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="125"/>
+      <c r="D7" s="127"/>
       <c r="F7" s="63"/>
       <c r="G7" s="64"/>
       <c r="H7" s="64"/>
       <c r="I7" s="64"/>
       <c r="J7" s="64"/>
       <c r="K7" s="64"/>
-      <c r="L7" s="131" t="s">
+      <c r="L7" s="133" t="s">
         <v>581</v>
       </c>
-      <c r="M7" s="132"/>
+      <c r="M7" s="134"/>
     </row>
     <row r="8" spans="2:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="113">
         <f>'Dashboard financeiro anualD'!E14</f>
         <v>12009</v>
       </c>
-      <c r="D8" s="126"/>
+      <c r="D8" s="128"/>
       <c r="F8" s="63"/>
       <c r="G8" s="64"/>
       <c r="H8" s="64"/>
@@ -20976,11 +21056,11 @@
       <c r="K8" s="101">
         <v>9999</v>
       </c>
-      <c r="L8" s="133">
+      <c r="L8" s="135">
         <f>SUM('Dashboard financeiro anualD'!K6:K17)</f>
         <v>20663</v>
       </c>
-      <c r="M8" s="134"/>
+      <c r="M8" s="136"/>
     </row>
     <row r="9" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="63"/>
@@ -20996,7 +21076,7 @@
       <c r="B10" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="125"/>
+      <c r="D10" s="127"/>
       <c r="F10" s="63"/>
       <c r="G10" s="64"/>
       <c r="H10" s="64"/>
@@ -21011,7 +21091,7 @@
         <f>'Dashboard financeiro anualD'!E15</f>
         <v>5413</v>
       </c>
-      <c r="D11" s="126"/>
+      <c r="D11" s="128"/>
       <c r="F11" s="66"/>
       <c r="G11" s="67"/>
       <c r="H11" s="67"/>
@@ -21023,23 +21103,23 @@
     </row>
     <row r="12" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="129" t="s">
+      <c r="B13" s="131" t="s">
         <v>579</v>
       </c>
-      <c r="C13" s="130"/>
-      <c r="D13" s="135"/>
-      <c r="F13" s="123" t="s">
+      <c r="C13" s="132"/>
+      <c r="D13" s="137"/>
+      <c r="F13" s="147" t="s">
         <v>582</v>
       </c>
-      <c r="G13" s="124"/>
-      <c r="I13" s="123" t="s">
+      <c r="G13" s="148"/>
+      <c r="I13" s="125" t="s">
+        <v>585</v>
+      </c>
+      <c r="J13" s="126"/>
+      <c r="L13" s="125" t="s">
         <v>586</v>
       </c>
-      <c r="J13" s="124"/>
-      <c r="L13" s="123" t="s">
-        <v>587</v>
-      </c>
-      <c r="M13" s="124"/>
+      <c r="M13" s="126"/>
     </row>
     <row r="14" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="63"/>
@@ -21059,10 +21139,10 @@
       </c>
       <c r="C15" s="64"/>
       <c r="D15" s="65"/>
-      <c r="F15" s="103" t="s">
+      <c r="F15" s="145" t="s">
         <v>583</v>
       </c>
-      <c r="G15" s="104" t="s">
+      <c r="G15" s="146" t="s">
         <v>584</v>
       </c>
       <c r="I15" s="103"/>
@@ -21070,23 +21150,33 @@
       <c r="L15" s="103"/>
       <c r="M15" s="104"/>
     </row>
-    <row r="16" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="63"/>
       <c r="C16" s="64"/>
       <c r="D16" s="65"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="65"/>
+      <c r="F16" s="144">
+        <f ca="1">'Dashboard financeiro anualD'!F28</f>
+        <v>1678.3289961263829</v>
+      </c>
+      <c r="G16" s="149">
+        <f ca="1">'Dashboard financeiro anualD'!K27</f>
+        <v>366.39813975176094</v>
+      </c>
       <c r="I16" s="63"/>
       <c r="J16" s="65"/>
       <c r="L16" s="63"/>
       <c r="M16" s="65"/>
     </row>
-    <row r="17" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="63"/>
       <c r="C17" s="64"/>
       <c r="D17" s="65"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="65"/>
+      <c r="F17" s="150" t="s">
+        <v>606</v>
+      </c>
+      <c r="G17" s="151" t="s">
+        <v>606</v>
+      </c>
       <c r="I17" s="63"/>
       <c r="J17" s="65"/>
       <c r="L17" s="63"/>
@@ -21096,16 +21186,12 @@
       <c r="B18" s="66"/>
       <c r="C18" s="67"/>
       <c r="D18" s="68"/>
-      <c r="F18" s="138" t="s">
-        <v>585</v>
-      </c>
-      <c r="G18" s="139" t="s">
-        <v>585</v>
-      </c>
-      <c r="I18" s="138"/>
-      <c r="J18" s="139"/>
-      <c r="L18" s="138"/>
-      <c r="M18" s="139"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="116"/>
+      <c r="I18" s="115"/>
+      <c r="J18" s="116"/>
+      <c r="L18" s="115"/>
+      <c r="M18" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -21161,8 +21247,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Dashboard financeiro anualD'!H6:H17</xm:f>
-              <xm:sqref>D11</xm:sqref>
+              <xm:f>'Dashboard financeiro anualD'!I6:I17</xm:f>
+              <xm:sqref>D10</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -21193,8 +21279,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Dashboard financeiro anualD'!I6:I17</xm:f>
-              <xm:sqref>D10</xm:sqref>
+              <xm:f>'Dashboard financeiro anualD'!H6:H17</xm:f>
+              <xm:sqref>D11</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -21208,8 +21294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M45"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22:E23"/>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21218,6 +21304,7 @@
     <col min="4" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
     <col min="11" max="11" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -21225,7 +21312,7 @@
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="69"/>
       <c r="C2" s="70" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D2" s="70"/>
       <c r="E2" s="70"/>
@@ -21259,16 +21346,16 @@
       <c r="E4" s="69"/>
       <c r="F4" s="69"/>
       <c r="G4" s="71" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H4" s="69"/>
       <c r="I4" s="69"/>
       <c r="J4" s="69"/>
       <c r="K4" s="71" t="s">
+        <v>590</v>
+      </c>
+      <c r="L4" s="72" t="s">
         <v>591</v>
-      </c>
-      <c r="L4" s="72" t="s">
-        <v>592</v>
       </c>
       <c r="M4" s="73">
         <f>D5</f>
@@ -21278,7 +21365,7 @@
     <row r="5" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="69"/>
       <c r="C5" s="72" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D5" s="74">
         <f>'Dashboard financeiro anual'!M2</f>
@@ -21287,13 +21374,13 @@
       <c r="E5" s="69"/>
       <c r="F5" s="69"/>
       <c r="G5" s="75" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H5" s="105" t="s">
+        <v>612</v>
+      </c>
+      <c r="I5" s="105" t="s">
         <v>613</v>
-      </c>
-      <c r="I5" s="105" t="s">
-        <v>614</v>
       </c>
       <c r="J5" s="69"/>
       <c r="K5" s="77" t="str">
@@ -21301,10 +21388,10 @@
         <v>Informática</v>
       </c>
       <c r="L5" s="75" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M5" s="75" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
@@ -21374,7 +21461,7 @@
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="69"/>
       <c r="C8" s="71" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D8" s="69"/>
       <c r="E8" s="69"/>
@@ -21519,7 +21606,7 @@
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="69"/>
       <c r="C12" s="84" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D12" s="85">
         <f>D9+D10-D11</f>
@@ -21587,10 +21674,10 @@
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="69"/>
-      <c r="C14" s="136" t="s">
-        <v>598</v>
-      </c>
-      <c r="D14" s="136"/>
+      <c r="C14" s="138" t="s">
+        <v>597</v>
+      </c>
+      <c r="D14" s="138"/>
       <c r="E14" s="102">
         <f>SUMIFS(TbRegistrosSaida[Valor],TbRegistrosSaida[Data do Caixa Realizado],"",TbRegistrosSaida[Ano Previsto],D5)</f>
         <v>12009</v>
@@ -21624,10 +21711,10 @@
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="69"/>
-      <c r="C15" s="137" t="s">
-        <v>599</v>
-      </c>
-      <c r="D15" s="137"/>
+      <c r="C15" s="139" t="s">
+        <v>598</v>
+      </c>
+      <c r="D15" s="139"/>
       <c r="E15" s="102">
         <f>SUMIFS(TbRegistroEntradas[Valor],TbRegistroEntradas[Data do Caixa Realizado],"",TbRegistroEntradas[Ano Previsto],D5)</f>
         <v>5413</v>
@@ -21768,7 +21855,7 @@
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="69"/>
       <c r="C21" s="71" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D21" s="69"/>
       <c r="E21" s="69"/>
@@ -21784,13 +21871,13 @@
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="69"/>
       <c r="C22" s="75" t="s">
+        <v>600</v>
+      </c>
+      <c r="D22" s="76" t="s">
         <v>601</v>
       </c>
-      <c r="D22" s="76" t="s">
+      <c r="E22" s="76" t="s">
         <v>602</v>
-      </c>
-      <c r="E22" s="76" t="s">
-        <v>603</v>
       </c>
       <c r="F22" s="76" t="s">
         <v>581</v>
@@ -21853,7 +21940,7 @@
       <c r="F25" s="69"/>
       <c r="G25" s="69"/>
       <c r="H25" s="71" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I25" s="69"/>
       <c r="J25" s="69"/>
@@ -21864,23 +21951,23 @@
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="69"/>
       <c r="C26" s="71" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D26" s="69"/>
       <c r="E26" s="69"/>
       <c r="F26" s="69"/>
       <c r="G26" s="69"/>
       <c r="H26" s="75" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I26" s="76" t="s">
+        <v>605</v>
+      </c>
+      <c r="J26" s="76" t="s">
         <v>606</v>
       </c>
-      <c r="J26" s="76" t="s">
+      <c r="K26" s="76" t="s">
         <v>607</v>
-      </c>
-      <c r="K26" s="76" t="s">
-        <v>608</v>
       </c>
       <c r="L26" s="69"/>
       <c r="M26" s="69"/>
@@ -21888,34 +21975,68 @@
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="69"/>
       <c r="C27" s="75" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D27" s="76" t="s">
+        <v>605</v>
+      </c>
+      <c r="E27" s="76" t="s">
         <v>606</v>
       </c>
-      <c r="E27" s="76" t="s">
+      <c r="F27" s="76" t="s">
         <v>607</v>
       </c>
-      <c r="F27" s="76" t="s">
-        <v>608</v>
-      </c>
       <c r="G27" s="69"/>
-      <c r="H27" s="89"/>
-      <c r="I27" s="91"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="91"/>
+      <c r="H27" s="89">
+        <f>D5</f>
+        <v>2019</v>
+      </c>
+      <c r="I27" s="91">
+        <f ca="1">COUNTIFS(TbRegistrosSaida[Ano 
+Competência],C28,TbRegistrosSaida[Dias de 
+atraso],"&gt;0")</f>
+        <v>16</v>
+      </c>
+      <c r="J27" s="143">
+        <f ca="1">SUMIFS(TbRegistrosSaida[Dias de 
+atraso],TbRegistrosSaida[Ano 
+Competência],C28,TbRegistrosSaida[Dias de 
+atraso],"&gt;0")</f>
+        <v>5862.370236028175</v>
+      </c>
+      <c r="K27" s="91">
+        <f ca="1">J27/I27</f>
+        <v>366.39813975176094</v>
+      </c>
       <c r="L27" s="69"/>
       <c r="M27" s="69"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="69"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="91"/>
+      <c r="C28" s="89">
+        <f>D5</f>
+        <v>2019</v>
+      </c>
+      <c r="D28" s="91">
+        <f ca="1">COUNTIFS(TbRegistroEntradas[Ano 
+Competência],C28,TbRegistroEntradas[Dias de 
+atraso],"&gt;0")</f>
+        <v>32</v>
+      </c>
+      <c r="E28" s="91">
+        <f ca="1">SUMIFS(TbRegistroEntradas[Dias de 
+atraso],TbRegistroEntradas[Ano 
+Competência],C28,TbRegistroEntradas[Dias de 
+atraso],"&gt;0")</f>
+        <v>53706.527876044252</v>
+      </c>
+      <c r="F28" s="91">
+        <f ca="1">E28/D28</f>
+        <v>1678.3289961263829</v>
+      </c>
       <c r="G28" s="69"/>
       <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
+      <c r="I28" s="142"/>
       <c r="J28" s="69"/>
       <c r="K28" s="69"/>
       <c r="L28" s="69"/>
@@ -21942,10 +22063,8 @@
       <c r="E30" s="69"/>
       <c r="F30" s="69"/>
       <c r="G30" s="69"/>
-      <c r="H30" s="71" t="s">
-        <v>610</v>
-      </c>
-      <c r="I30" s="92"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="69"/>
       <c r="J30" s="69"/>
       <c r="K30" s="69"/>
       <c r="L30" s="69"/>
@@ -21954,16 +22073,16 @@
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="69"/>
       <c r="C31" s="71" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D31" s="69"/>
       <c r="E31" s="69"/>
       <c r="F31" s="69"/>
       <c r="G31" s="69"/>
-      <c r="H31" s="75" t="s">
-        <v>594</v>
-      </c>
-      <c r="I31" s="94"/>
+      <c r="H31" s="71" t="s">
+        <v>609</v>
+      </c>
+      <c r="I31" s="92"/>
       <c r="J31" s="69"/>
       <c r="K31" s="69"/>
       <c r="L31" s="69"/>
@@ -21972,7 +22091,7 @@
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="69"/>
       <c r="C32" s="93" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D32" s="80" t="s">
         <v>538</v>
@@ -21981,13 +22100,13 @@
         <v>539</v>
       </c>
       <c r="F32" s="80" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G32" s="69"/>
-      <c r="H32" s="69">
-        <v>1</v>
-      </c>
-      <c r="I32" s="81"/>
+      <c r="H32" s="75" t="s">
+        <v>593</v>
+      </c>
+      <c r="I32" s="94"/>
       <c r="J32" s="69"/>
       <c r="K32" s="69"/>
       <c r="L32" s="69"/>
@@ -22001,7 +22120,7 @@
       <c r="F33" s="97"/>
       <c r="G33" s="69"/>
       <c r="H33" s="69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" s="81"/>
       <c r="J33" s="69"/>
@@ -22017,7 +22136,7 @@
       <c r="F34" s="69"/>
       <c r="G34" s="69"/>
       <c r="H34" s="69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34" s="81"/>
       <c r="J34" s="69"/>
@@ -22033,7 +22152,7 @@
       <c r="F35" s="69"/>
       <c r="G35" s="69"/>
       <c r="H35" s="69">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I35" s="81"/>
       <c r="J35" s="69"/>
@@ -22049,7 +22168,7 @@
       <c r="F36" s="69"/>
       <c r="G36" s="69"/>
       <c r="H36" s="69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I36" s="81"/>
       <c r="J36" s="69"/>
@@ -22065,7 +22184,7 @@
       <c r="F37" s="69"/>
       <c r="G37" s="69"/>
       <c r="H37" s="69">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I37" s="81"/>
       <c r="J37" s="69"/>
@@ -22081,7 +22200,7 @@
       <c r="F38" s="69"/>
       <c r="G38" s="69"/>
       <c r="H38" s="69">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I38" s="81"/>
       <c r="J38" s="69"/>
@@ -22097,7 +22216,7 @@
       <c r="F39" s="69"/>
       <c r="G39" s="69"/>
       <c r="H39" s="69">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I39" s="81"/>
       <c r="J39" s="69"/>
@@ -22113,7 +22232,7 @@
       <c r="F40" s="69"/>
       <c r="G40" s="69"/>
       <c r="H40" s="69">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I40" s="81"/>
       <c r="J40" s="69"/>
@@ -22129,7 +22248,7 @@
       <c r="F41" s="69"/>
       <c r="G41" s="69"/>
       <c r="H41" s="69">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I41" s="81"/>
       <c r="J41" s="69"/>
@@ -22145,7 +22264,7 @@
       <c r="F42" s="69"/>
       <c r="G42" s="69"/>
       <c r="H42" s="69">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I42" s="81"/>
       <c r="J42" s="69"/>
@@ -22160,10 +22279,10 @@
       <c r="E43" s="69"/>
       <c r="F43" s="69"/>
       <c r="G43" s="69"/>
-      <c r="H43" s="84">
-        <v>12</v>
-      </c>
-      <c r="I43" s="86"/>
+      <c r="H43" s="69">
+        <v>11</v>
+      </c>
+      <c r="I43" s="81"/>
       <c r="J43" s="69"/>
       <c r="K43" s="69"/>
       <c r="L43" s="69"/>
@@ -22176,10 +22295,10 @@
       <c r="E44" s="69"/>
       <c r="F44" s="69"/>
       <c r="G44" s="69"/>
-      <c r="H44" s="75" t="s">
-        <v>581</v>
-      </c>
-      <c r="I44" s="98"/>
+      <c r="H44" s="84">
+        <v>12</v>
+      </c>
+      <c r="I44" s="86"/>
       <c r="J44" s="69"/>
       <c r="K44" s="69"/>
       <c r="L44" s="69"/>
@@ -22190,6 +22309,10 @@
       <c r="D45" s="69"/>
       <c r="E45" s="69"/>
       <c r="F45" s="69"/>
+      <c r="H45" s="75" t="s">
+        <v>581</v>
+      </c>
+      <c r="I45" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -22883,10 +23006,10 @@
       <c r="N2" s="6"/>
     </row>
     <row r="3" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="116"/>
+      <c r="C3" s="118"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -23181,10 +23304,10 @@
       <c r="N2" s="6"/>
     </row>
     <row r="3" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="118"/>
+      <c r="C3" s="120"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -23330,14 +23453,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD236"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O44" sqref="O44"/>
+    <sheetView showGridLines="0" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="1" max="1" width="1.7109375" customWidth="1"/>
     <col min="2" max="4" width="18.7109375" customWidth="1"/>
     <col min="5" max="6" width="31.7109375" customWidth="1"/>
     <col min="7" max="7" width="45.42578125" customWidth="1"/>
@@ -23345,16 +23468,15 @@
     <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="7.7109375" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" customWidth="1"/>
-    <col min="17" max="16380" width="9.140625" hidden="1"/>
-    <col min="16381" max="16381" width="2.28515625" hidden="1" customWidth="1"/>
-    <col min="16382" max="16382" width="8.28515625" hidden="1" customWidth="1"/>
-    <col min="16383" max="16383" width="5.140625" hidden="1" customWidth="1"/>
-    <col min="16384" max="16384" width="8.7109375" hidden="1" customWidth="1"/>
+    <col min="13" max="16" width="7.7109375" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" customWidth="1"/>
+    <col min="18" max="16381" width="9.140625" hidden="1"/>
+    <col min="16382" max="16382" width="2.28515625" hidden="1" customWidth="1"/>
+    <col min="16383" max="16383" width="8.28515625" hidden="1" customWidth="1"/>
+    <col min="16384" max="16384" width="5.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -23365,7 +23487,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="2:16" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -23374,9 +23496,9 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:16" s="17" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:17" s="17" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
         <v>9</v>
       </c>
@@ -23417,13 +23539,16 @@
         <v>573</v>
       </c>
       <c r="O5" s="18" t="s">
+        <v>615</v>
+      </c>
+      <c r="P5" s="18" t="s">
         <v>616</v>
       </c>
-      <c r="P5" s="18" t="s">
+      <c r="Q5" s="18" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="6" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14">
         <v>42994.360242603791</v>
       </c>
@@ -23473,9 +23598,13 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P6" s="15"/>
-    </row>
-    <row r="7" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P6" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>21.629960533435224</v>
+      </c>
+      <c r="Q6" s="15"/>
+    </row>
+    <row r="7" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14">
         <v>42985.921072815276</v>
       </c>
@@ -23525,9 +23654,13 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P7" s="15"/>
-    </row>
-    <row r="8" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P7" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0.83914482299587689</v>
+      </c>
+      <c r="Q7" s="15"/>
+    </row>
+    <row r="8" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14">
         <v>43007.497531597422</v>
       </c>
@@ -23577,12 +23710,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P8" s="15" t="str">
+      <c r="P8" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>6.4117765990304179</v>
+      </c>
+      <c r="Q8" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),Vencida,"Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="14">
         <v>43020.93099062844</v>
       </c>
@@ -23632,12 +23769,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P9" s="15" t="str">
+      <c r="P9" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),Vencida,"Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="10" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14">
         <v>43014.490029992223</v>
       </c>
@@ -23687,12 +23828,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P10" s="15" t="str">
+      <c r="P10" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),Vencida,"Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="11" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="14">
         <v>43054.754604096757</v>
       </c>
@@ -23742,12 +23887,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P11" s="15" t="str">
+      <c r="P11" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>24.157237394952972</v>
+      </c>
+      <c r="Q11" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),Vencida,"Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="12" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="14">
         <v>43087.201387518355</v>
       </c>
@@ -23797,12 +23946,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P12" s="15" t="str">
+      <c r="P12" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>77.398206108322483</v>
+      </c>
+      <c r="Q12" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="13" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="14">
         <v>43004.688402044558</v>
       </c>
@@ -23852,12 +24005,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P13" s="15" t="str">
+      <c r="P13" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="14" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
         <v>43015.979718768547</v>
       </c>
@@ -23907,12 +24064,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P14" s="15" t="str">
+      <c r="P14" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="15" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>93</v>
       </c>
@@ -23962,12 +24123,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P15" s="15" t="str">
+      <c r="P15" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>2379.0456953517423</v>
+      </c>
+      <c r="Q15" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Vencida</v>
       </c>
     </row>
-    <row r="16" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="14">
         <v>42997.551902670813</v>
       </c>
@@ -24017,12 +24182,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P16" s="15" t="str">
+      <c r="P16" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="14">
         <v>43004.663371860901</v>
       </c>
@@ -24072,12 +24241,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P17" s="15" t="str">
+      <c r="P17" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>1.8067655116465176</v>
+      </c>
+      <c r="Q17" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="14">
         <v>43010.987674560682</v>
       </c>
@@ -24127,12 +24300,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P18" s="15" t="str">
+      <c r="P18" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>9.9876745606816257</v>
+      </c>
+      <c r="Q18" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="14">
         <v>43056.628172621648</v>
       </c>
@@ -24182,12 +24359,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P19" s="15" t="str">
+      <c r="P19" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="14">
         <v>43033.143288673884</v>
       </c>
@@ -24237,12 +24418,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P20" s="15" t="str">
+      <c r="P20" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>14.342515323827683</v>
+      </c>
+      <c r="Q20" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="14">
         <v>43019.580095755031</v>
       </c>
@@ -24292,12 +24477,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P21" s="15" t="str">
+      <c r="P21" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="14">
         <v>43025.995076094237</v>
       </c>
@@ -24347,12 +24536,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P22" s="15" t="str">
+      <c r="P22" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="14">
         <v>43052.454388600381</v>
       </c>
@@ -24402,12 +24595,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P23" s="15" t="str">
+      <c r="P23" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
         <v>93</v>
       </c>
@@ -24457,12 +24654,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P24" s="15" t="str">
+      <c r="P24" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>2349.7015022281194</v>
+      </c>
+      <c r="Q24" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Vencida</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="14">
         <v>43134.960630268302</v>
       </c>
@@ -24512,12 +24713,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P25" s="15" t="str">
+      <c r="P25" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>74.051262530912936</v>
+      </c>
+      <c r="Q25" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="14">
         <v>43045.105355406915</v>
       </c>
@@ -24567,12 +24772,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P26" s="15" t="str">
+      <c r="P26" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="14">
         <v>43057.775638731524</v>
       </c>
@@ -24622,12 +24831,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P27" s="15" t="str">
+      <c r="P27" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>31.775638731523941</v>
+      </c>
+      <c r="Q27" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="14">
         <v>43037.453877289088</v>
       </c>
@@ -24677,12 +24890,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P28" s="15" t="str">
+      <c r="P28" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>7.4538772890882683</v>
+      </c>
+      <c r="Q28" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" s="14">
         <v>43086.43235653804</v>
       </c>
@@ -24732,12 +24949,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P29" s="15" t="str">
+      <c r="P29" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>54.43235653804004</v>
+      </c>
+      <c r="Q29" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" s="14">
         <v>43068.089414353737</v>
       </c>
@@ -24787,12 +25008,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P30" s="15" t="str">
+      <c r="P30" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" s="14">
         <v>43091.729186681107</v>
       </c>
@@ -24842,12 +25067,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P31" s="15" t="str">
+      <c r="P31" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>57.729186681106512</v>
+      </c>
+      <c r="Q31" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" s="14">
         <v>43052.461098465239</v>
       </c>
@@ -24897,12 +25126,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P32" s="15" t="str">
+      <c r="P32" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" s="14">
         <v>43057.597589016004</v>
       </c>
@@ -24952,12 +25185,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P33" s="15" t="str">
+      <c r="P33" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" s="14">
         <v>43082.490898737618</v>
       </c>
@@ -25007,12 +25244,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P34" s="15" t="str">
+      <c r="P34" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>13.907789642427815</v>
+      </c>
+      <c r="Q34" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" s="14">
         <v>43073.038025931273</v>
       </c>
@@ -25062,12 +25303,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P35" s="15" t="str">
+      <c r="P35" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>26.038025931273296</v>
+      </c>
+      <c r="Q35" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" s="14">
         <v>43090.51661478445</v>
       </c>
@@ -25117,12 +25362,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P36" s="15" t="str">
+      <c r="P36" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>39.516614784450212</v>
+      </c>
+      <c r="Q36" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B37" s="14">
         <v>43130.815754318886</v>
       </c>
@@ -25172,12 +25421,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P37" s="15" t="str">
+      <c r="P37" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>29.177695463818964</v>
+      </c>
+      <c r="Q37" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" s="14">
         <v>43081.249044856137</v>
       </c>
@@ -25227,12 +25480,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P38" s="15" t="str">
+      <c r="P38" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>26.249044856136607</v>
+      </c>
+      <c r="Q38" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B39" s="14">
         <v>43101.376481739084</v>
       </c>
@@ -25282,12 +25539,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P39" s="15" t="str">
+      <c r="P39" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B40" s="14">
         <v>43151.25396646517</v>
       </c>
@@ -25337,12 +25598,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P40" s="15" t="str">
+      <c r="P40" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>60.627856561965018</v>
+      </c>
+      <c r="Q40" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B41" s="14">
         <v>43188.080050119235</v>
       </c>
@@ -25392,12 +25657,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P41" s="15" t="str">
+      <c r="P41" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>129.08005011923524</v>
+      </c>
+      <c r="Q41" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B42" s="14">
         <v>43122.64068927092</v>
       </c>
@@ -25447,12 +25716,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P42" s="15" t="str">
+      <c r="P42" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
         <v>93</v>
       </c>
@@ -25502,12 +25775,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P43" s="15" t="str">
+      <c r="P43" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>2325</v>
+      </c>
+      <c r="Q43" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Vencida</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B44" s="14">
         <v>43121.095142901788</v>
       </c>
@@ -25557,12 +25834,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P44" s="15" t="str">
+      <c r="P44" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>48.095142901787767</v>
+      </c>
+      <c r="Q44" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B45" s="14">
         <v>43084.95442532179</v>
       </c>
@@ -25612,12 +25893,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P45" s="15" t="str">
+      <c r="P45" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>11.95442532179004</v>
+      </c>
+      <c r="Q45" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B46" s="14">
         <v>43131.56407100569</v>
       </c>
@@ -25667,12 +25952,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P46" s="15" t="str">
+      <c r="P46" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>51.564071005690494</v>
+      </c>
+      <c r="Q46" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B47" s="14">
         <v>43103.027346399656</v>
       </c>
@@ -25722,12 +26011,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P47" s="15" t="str">
+      <c r="P47" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B48" s="14">
         <v>43086.779201496618</v>
       </c>
@@ -25777,12 +26070,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P48" s="15" t="str">
+      <c r="P48" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B49" s="14">
         <v>43135.384353482346</v>
       </c>
@@ -25832,12 +26129,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P49" s="15" t="str">
+      <c r="P49" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>12.595738367628655</v>
+      </c>
+      <c r="Q49" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B50" s="14">
         <v>43123.054998054176</v>
       </c>
@@ -25887,12 +26188,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P50" s="15" t="str">
+      <c r="P50" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B51" s="14">
         <v>43125.461755740398</v>
       </c>
@@ -25942,12 +26247,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P51" s="15" t="str">
+      <c r="P51" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B52" s="14">
         <v>43117.265187618672</v>
       </c>
@@ -25997,12 +26306,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P52" s="15" t="str">
+      <c r="P52" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>28.265187618671916</v>
+      </c>
+      <c r="Q52" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B53" s="14">
         <v>43222.826071389798</v>
       </c>
@@ -26052,12 +26365,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P53" s="15" t="str">
+      <c r="P53" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>89.004790255254193</v>
+      </c>
+      <c r="Q53" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B54" s="14">
         <v>43171.526334246679</v>
       </c>
@@ -26107,12 +26424,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P54" s="15" t="str">
+      <c r="P54" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>76.526334246678744</v>
+      </c>
+      <c r="Q54" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B55" s="14">
         <v>43101.6816504218</v>
       </c>
@@ -26162,12 +26483,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P55" s="15" t="str">
+      <c r="P55" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B56" s="14">
         <v>43144.070709460881</v>
       </c>
@@ -26217,12 +26542,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P56" s="15" t="str">
+      <c r="P56" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B57" s="14">
         <v>43159.768399969107</v>
       </c>
@@ -26272,12 +26601,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P57" s="15" t="str">
+      <c r="P57" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q57" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B58" s="14">
         <v>43113.535870555577</v>
       </c>
@@ -26327,12 +26660,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P58" s="15" t="str">
+      <c r="P58" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B59" s="14">
         <v>43147.636765206888</v>
       </c>
@@ -26382,12 +26719,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P59" s="15" t="str">
+      <c r="P59" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>30.636765206887503</v>
+      </c>
+      <c r="Q59" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B60" s="14">
         <v>43166.506331380886</v>
       </c>
@@ -26437,12 +26778,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P60" s="15" t="str">
+      <c r="P60" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q60" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B61" s="14">
         <v>43164.402079160267</v>
       </c>
@@ -26492,12 +26837,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P61" s="15" t="str">
+      <c r="P61" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>18.471830915259488</v>
+      </c>
+      <c r="Q61" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B62" s="14">
         <v>43142.713591319029</v>
       </c>
@@ -26547,12 +26896,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P62" s="15" t="str">
+      <c r="P62" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q62" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B63" s="14">
         <v>43183.516256023155</v>
       </c>
@@ -26602,12 +26955,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P63" s="15" t="str">
+      <c r="P63" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>54.140953804882884</v>
+      </c>
+      <c r="Q63" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B64" s="14">
         <v>43181.942093945734</v>
       </c>
@@ -26657,12 +27014,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P64" s="15" t="str">
+      <c r="P64" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>53.942093945734086</v>
+      </c>
+      <c r="Q64" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B65" s="14">
         <v>43161.227605046144</v>
       </c>
@@ -26712,12 +27073,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P65" s="15" t="str">
+      <c r="P65" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q65" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B66" s="14">
         <v>43178.327075601032</v>
       </c>
@@ -26767,12 +27132,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P66" s="15" t="str">
+      <c r="P66" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q66" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B67" s="14">
         <v>43138.085439585935</v>
       </c>
@@ -26822,12 +27191,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P67" s="15" t="str">
+      <c r="P67" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q67" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B68" s="14">
         <v>43190.17599100792</v>
       </c>
@@ -26877,12 +27250,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P68" s="15" t="str">
+      <c r="P68" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q68" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B69" s="14">
         <v>43145.940969359632</v>
       </c>
@@ -26932,12 +27309,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P69" s="15" t="str">
+      <c r="P69" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q69" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B70" s="14">
         <v>43146.225751185812</v>
       </c>
@@ -26987,12 +27368,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P70" s="15" t="str">
+      <c r="P70" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q70" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B71" s="14">
         <v>43193.467827275977</v>
       </c>
@@ -27042,12 +27427,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P71" s="15" t="str">
+      <c r="P71" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q71" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B72" s="14">
         <v>43193.409618971542</v>
       </c>
@@ -27097,12 +27486,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P72" s="15" t="str">
+      <c r="P72" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q72" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B73" s="14">
         <v>43261.17512133922</v>
       </c>
@@ -27152,12 +27545,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P73" s="15" t="str">
+      <c r="P73" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>107.17512133921991</v>
+      </c>
+      <c r="Q73" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B74" s="14">
         <v>43253.722363167413</v>
       </c>
@@ -27207,12 +27604,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P74" s="15" t="str">
+      <c r="P74" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>47.968965847481741</v>
+      </c>
+      <c r="Q74" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B75" s="14">
         <v>43268.070563511268</v>
       </c>
@@ -27262,12 +27663,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P75" s="15" t="str">
+      <c r="P75" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>79.240998561639572</v>
+      </c>
+      <c r="Q75" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B76" s="14">
         <v>43169.443907551016</v>
       </c>
@@ -27317,12 +27722,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P76" s="15" t="str">
+      <c r="P76" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q76" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B77" s="14">
         <v>43202.812742183109</v>
       </c>
@@ -27372,12 +27781,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P77" s="15" t="str">
+      <c r="P77" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q77" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B78" s="14">
         <v>43277.69194849013</v>
       </c>
@@ -27427,12 +27840,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P78" s="15" t="str">
+      <c r="P78" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>66.578321043110918</v>
+      </c>
+      <c r="Q78" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B79" s="14">
         <v>43283.817447549081</v>
       </c>
@@ -27482,12 +27899,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P79" s="15" t="str">
+      <c r="P79" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>80.642976425762754</v>
+      </c>
+      <c r="Q79" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B80" s="14">
         <v>43184.083980960655</v>
       </c>
@@ -27537,12 +27958,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P80" s="15" t="str">
+      <c r="P80" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>15.083980960655026</v>
+      </c>
+      <c r="Q80" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B81" s="14">
         <v>43200.147034627953</v>
       </c>
@@ -27592,12 +28017,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P81" s="15" t="str">
+      <c r="P81" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q81" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B82" s="14">
         <v>43207.818228031581</v>
       </c>
@@ -27647,12 +28076,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P82" s="15" t="str">
+      <c r="P82" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>31.818228031581384</v>
+      </c>
+      <c r="Q82" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B83" s="14">
         <v>43234.457970610572</v>
       </c>
@@ -27702,12 +28135,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P83" s="15" t="str">
+      <c r="P83" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>57.457970610572374</v>
+      </c>
+      <c r="Q83" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B84" s="14">
         <v>43220.822063654756</v>
       </c>
@@ -27757,12 +28194,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P84" s="15" t="str">
+      <c r="P84" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>40.822063654755766</v>
+      </c>
+      <c r="Q84" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B85" s="14" t="s">
         <v>93</v>
       </c>
@@ -27812,12 +28253,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P85" s="15" t="str">
+      <c r="P85" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>2193.936940915708</v>
+      </c>
+      <c r="Q85" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Vencida</v>
       </c>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B86" s="14">
         <v>43187.544050679455</v>
       </c>
@@ -27867,12 +28312,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P86" s="15" t="str">
+      <c r="P86" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q86" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B87" s="14">
         <v>43205.258677559352</v>
       </c>
@@ -27922,12 +28371,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P87" s="15" t="str">
+      <c r="P87" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q87" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B88" s="14">
         <v>43228.479640925485</v>
       </c>
@@ -27977,12 +28430,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P88" s="15" t="str">
+      <c r="P88" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>39.479640925485</v>
+      </c>
+      <c r="Q88" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B89" s="14">
         <v>43228.526498585612</v>
       </c>
@@ -28032,12 +28489,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P89" s="15" t="str">
+      <c r="P89" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q89" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B90" s="14">
         <v>43289.577504759094</v>
       </c>
@@ -28087,12 +28548,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P90" s="15" t="str">
+      <c r="P90" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>96.577504759094154</v>
+      </c>
+      <c r="Q90" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B91" s="14">
         <v>43221.091190775791</v>
       </c>
@@ -28142,12 +28607,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P91" s="15" t="str">
+      <c r="P91" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>25.091190775790892</v>
+      </c>
+      <c r="Q91" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B92" s="14">
         <v>43251.171133907985</v>
       </c>
@@ -28197,12 +28666,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P92" s="15" t="str">
+      <c r="P92" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q92" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B93" s="14">
         <v>43264.89293629631</v>
       </c>
@@ -28252,12 +28725,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P93" s="15" t="str">
+      <c r="P93" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>4.3571862618555315</v>
+      </c>
+      <c r="Q93" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B94" s="14">
         <v>43224.851474146271</v>
       </c>
@@ -28307,12 +28784,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P94" s="15" t="str">
+      <c r="P94" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q94" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B95" s="14" t="s">
         <v>93</v>
       </c>
@@ -28362,12 +28843,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P95" s="15" t="str">
+      <c r="P95" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>2184</v>
+      </c>
+      <c r="Q95" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Vencida</v>
       </c>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B96" s="14">
         <v>43302.517348540277</v>
       </c>
@@ -28417,12 +28902,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P96" s="15" t="str">
+      <c r="P96" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>68.429620920804155</v>
+      </c>
+      <c r="Q96" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B97" s="14">
         <v>43299.933065152305</v>
       </c>
@@ -28472,12 +28961,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P97" s="15" t="str">
+      <c r="P97" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>83.933065152305062</v>
+      </c>
+      <c r="Q97" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B98" s="14">
         <v>43265.565544078599</v>
       </c>
@@ -28527,12 +29020,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P98" s="15" t="str">
+      <c r="P98" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>45.565544078599487</v>
+      </c>
+      <c r="Q98" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B99" s="14">
         <v>43330.643378541507</v>
       </c>
@@ -28582,12 +29079,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P99" s="15" t="str">
+      <c r="P99" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>46.72229155828245</v>
+      </c>
+      <c r="Q99" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B100" s="14">
         <v>43279.381017407846</v>
       </c>
@@ -28637,12 +29138,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P100" s="15" t="str">
+      <c r="P100" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q100" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B101" s="14">
         <v>43285.463133098099</v>
       </c>
@@ -28692,12 +29197,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P101" s="15" t="str">
+      <c r="P101" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>52.463133098099206</v>
+      </c>
+      <c r="Q101" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B102" s="14">
         <v>43252.121501784946</v>
       </c>
@@ -28747,12 +29256,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P102" s="15" t="str">
+      <c r="P102" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q102" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B103" s="14" t="s">
         <v>93</v>
       </c>
@@ -28802,12 +29315,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P103" s="15" t="str">
+      <c r="P103" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>2117.5425368154756</v>
+      </c>
+      <c r="Q103" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Vencida</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B104" s="14">
         <v>43275.663970819842</v>
       </c>
@@ -28857,12 +29374,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P104" s="15" t="str">
+      <c r="P104" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q104" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B105" s="14">
         <v>43265.40932974538</v>
       </c>
@@ -28912,12 +29433,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P105" s="15" t="str">
+      <c r="P105" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q105" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B106" s="14">
         <v>43313.778330733978</v>
       </c>
@@ -28967,12 +29492,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P106" s="15" t="str">
+      <c r="P106" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q106" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B107" s="14">
         <v>43309.034479812522</v>
       </c>
@@ -29022,12 +29551,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P107" s="15" t="str">
+      <c r="P107" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>54.034479812522477</v>
+      </c>
+      <c r="Q107" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B108" s="14">
         <v>43267.639792395334</v>
       </c>
@@ -29077,12 +29610,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P108" s="15" t="str">
+      <c r="P108" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q108" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B109" s="14">
         <v>43295.992726264638</v>
       </c>
@@ -29132,12 +29669,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P109" s="15" t="str">
+      <c r="P109" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>36.992726264637895</v>
+      </c>
+      <c r="Q109" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B110" s="14">
         <v>43276.511490365912</v>
       </c>
@@ -29187,12 +29728,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P110" s="15" t="str">
+      <c r="P110" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q110" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B111" s="14">
         <v>43320.151513939236</v>
       </c>
@@ -29242,12 +29787,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P111" s="15" t="str">
+      <c r="P111" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q111" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B112" s="14">
         <v>43303.335943391627</v>
       </c>
@@ -29297,12 +29846,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P112" s="15" t="str">
+      <c r="P112" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q112" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B113" s="14">
         <v>43293.385542692129</v>
       </c>
@@ -29352,12 +29905,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P113" s="15" t="str">
+      <c r="P113" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q113" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B114" s="14">
         <v>43347.784698126074</v>
       </c>
@@ -29407,12 +29964,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P114" s="15" t="str">
+      <c r="P114" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>79.784698126073636</v>
+      </c>
+      <c r="Q114" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B115" s="14">
         <v>43328.142631140596</v>
       </c>
@@ -29462,12 +30023,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P115" s="15" t="str">
+      <c r="P115" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>18.749179615020694</v>
+      </c>
+      <c r="Q115" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B116" s="14" t="s">
         <v>93</v>
       </c>
@@ -29517,12 +30082,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P116" s="15" t="str">
+      <c r="P116" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>2079.3623005746631</v>
+      </c>
+      <c r="Q116" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Vencida</v>
       </c>
     </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B117" s="14">
         <v>43321.066181249873</v>
       </c>
@@ -29572,12 +30141,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P117" s="15" t="str">
+      <c r="P117" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>3.3281390661577461</v>
+      </c>
+      <c r="Q117" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B118" s="14">
         <v>43328.896220051167</v>
       </c>
@@ -29627,12 +30200,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P118" s="15" t="str">
+      <c r="P118" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q118" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B119" s="14">
         <v>43310.362560784597</v>
       </c>
@@ -29682,12 +30259,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P119" s="15" t="str">
+      <c r="P119" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q119" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B120" s="14">
         <v>43343.848263098727</v>
       </c>
@@ -29737,12 +30318,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P120" s="15" t="str">
+      <c r="P120" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q120" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B121" s="14">
         <v>43316.086897207155</v>
       </c>
@@ -29792,12 +30377,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P121" s="15" t="str">
+      <c r="P121" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q121" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="122" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B122" s="14">
         <v>43336.184362990563</v>
       </c>
@@ -29847,12 +30436,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P122" s="15" t="str">
+      <c r="P122" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q122" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="123" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B123" s="14">
         <v>43367.055849144577</v>
       </c>
@@ -29902,12 +30495,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P123" s="15" t="str">
+      <c r="P123" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>43.396862951798539</v>
+      </c>
+      <c r="Q123" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B124" s="14">
         <v>43311.051743268465</v>
       </c>
@@ -29957,12 +30554,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P124" s="15" t="str">
+      <c r="P124" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q124" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="125" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B125" s="14">
         <v>43302.671415134202</v>
       </c>
@@ -30012,12 +30613,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P125" s="15" t="str">
+      <c r="P125" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q125" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B126" s="14">
         <v>43346.313143570049</v>
       </c>
@@ -30067,12 +30672,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P126" s="15" t="str">
+      <c r="P126" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q126" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="127" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B127" s="14">
         <v>43333.777244922574</v>
       </c>
@@ -30122,12 +30731,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P127" s="15" t="str">
+      <c r="P127" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>29.777244922574027</v>
+      </c>
+      <c r="Q127" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="128" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B128" s="14">
         <v>43428.73128891184</v>
       </c>
@@ -30177,12 +30790,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P128" s="15" t="str">
+      <c r="P128" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>78.553035857927171</v>
+      </c>
+      <c r="Q128" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="129" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B129" s="14">
         <v>43352.69621488743</v>
       </c>
@@ -30232,12 +30849,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P129" s="15" t="str">
+      <c r="P129" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>42.69621488742996</v>
+      </c>
+      <c r="Q129" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="130" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B130" s="14">
         <v>43357.5698549507</v>
       </c>
@@ -30287,12 +30908,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P130" s="15" t="str">
+      <c r="P130" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q130" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="131" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B131" s="14">
         <v>43321.343775306508</v>
       </c>
@@ -30342,12 +30967,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P131" s="15" t="str">
+      <c r="P131" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>3.3437753065081779</v>
+      </c>
+      <c r="Q131" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="132" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B132" s="14">
         <v>43341.446775987133</v>
       </c>
@@ -30397,12 +31026,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P132" s="15" t="str">
+      <c r="P132" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q132" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="133" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B133" s="14">
         <v>43343.77071694022</v>
       </c>
@@ -30452,12 +31085,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P133" s="15" t="str">
+      <c r="P133" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>20.770716940220154</v>
+      </c>
+      <c r="Q133" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="134" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B134" s="14">
         <v>43360.32999077069</v>
       </c>
@@ -30507,12 +31144,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P134" s="15" t="str">
+      <c r="P134" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q134" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="135" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B135" s="14">
         <v>43329.315214521994</v>
       </c>
@@ -30562,12 +31203,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P135" s="15" t="str">
+      <c r="P135" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0.31521452199376654</v>
+      </c>
+      <c r="Q135" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="136" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B136" s="14">
         <v>43388.49957155843</v>
       </c>
@@ -30617,12 +31262,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P136" s="15" t="str">
+      <c r="P136" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>52.499571558430034</v>
+      </c>
+      <c r="Q136" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="137" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B137" s="14">
         <v>43395.898810917068</v>
       </c>
@@ -30672,12 +31321,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P137" s="15" t="str">
+      <c r="P137" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q137" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="138" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B138" s="14">
         <v>43393.910050358987</v>
       </c>
@@ -30727,12 +31380,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P138" s="15" t="str">
+      <c r="P138" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q138" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="139" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B139" s="14">
         <v>43354.387651420941</v>
       </c>
@@ -30782,12 +31439,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P139" s="15" t="str">
+      <c r="P139" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q139" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="140" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B140" s="14" t="s">
         <v>93</v>
       </c>
@@ -30837,12 +31498,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P140" s="15" t="str">
+      <c r="P140" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>2022.3362076712438</v>
+      </c>
+      <c r="Q140" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Vencida</v>
       </c>
     </row>
-    <row r="141" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B141" s="14">
         <v>43357.782262904322</v>
       </c>
@@ -30892,12 +31557,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P141" s="15" t="str">
+      <c r="P141" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>7.7822629043221241</v>
+      </c>
+      <c r="Q141" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="142" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B142" s="14">
         <v>43370.746792358121</v>
       </c>
@@ -30947,12 +31616,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P142" s="15" t="str">
+      <c r="P142" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>4.9476453272945946</v>
+      </c>
+      <c r="Q142" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="143" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B143" s="14">
         <v>43452.502445224149</v>
       </c>
@@ -31002,12 +31675,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P143" s="15" t="str">
+      <c r="P143" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>69.271336547055398</v>
+      </c>
+      <c r="Q143" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="144" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B144" s="14">
         <v>43412.045933493078</v>
       </c>
@@ -31057,12 +31734,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P144" s="15" t="str">
+      <c r="P144" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q144" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="145" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B145" s="14">
         <v>43374.505096957248</v>
       </c>
@@ -31112,12 +31793,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P145" s="15" t="str">
+      <c r="P145" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q145" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="146" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B146" s="14">
         <v>43388.790596442639</v>
       </c>
@@ -31167,12 +31852,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P146" s="15" t="str">
+      <c r="P146" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>24.790596442639071</v>
+      </c>
+      <c r="Q146" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="147" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B147" s="14">
         <v>43405.698265794999</v>
       </c>
@@ -31222,12 +31911,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P147" s="15" t="str">
+      <c r="P147" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q147" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="148" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B148" s="14">
         <v>43395.635115246572</v>
       </c>
@@ -31277,12 +31970,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P148" s="15" t="str">
+      <c r="P148" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>26.635115246572241</v>
+      </c>
+      <c r="Q148" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="149" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B149" s="14">
         <v>43392.294011107704</v>
       </c>
@@ -31332,12 +32029,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P149" s="15" t="str">
+      <c r="P149" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q149" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="150" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B150" s="14" t="s">
         <v>93</v>
       </c>
@@ -31387,12 +32088,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P150" s="15" t="str">
+      <c r="P150" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>1993.1837426896745</v>
+      </c>
+      <c r="Q150" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Vencida</v>
       </c>
     </row>
-    <row r="151" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B151" s="14">
         <v>43491.255960910879</v>
       </c>
@@ -31442,12 +32147,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P151" s="15" t="str">
+      <c r="P151" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>58.362280260720581</v>
+      </c>
+      <c r="Q151" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="152" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B152" s="14">
         <v>43442.77456497735</v>
       </c>
@@ -31497,12 +32206,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P152" s="15" t="str">
+      <c r="P152" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>60.774564977349655</v>
+      </c>
+      <c r="Q152" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="153" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B153" s="14">
         <v>43400.871146361249</v>
       </c>
@@ -31552,12 +32265,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P153" s="15" t="str">
+      <c r="P153" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q153" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="154" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B154" s="14">
         <v>43438.136766228803</v>
       </c>
@@ -31607,12 +32324,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P154" s="15" t="str">
+      <c r="P154" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q154" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="155" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B155" s="14">
         <v>43493.104436604881</v>
       </c>
@@ -31662,12 +32383,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P155" s="15" t="str">
+      <c r="P155" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>57.292110309441341</v>
+      </c>
+      <c r="Q155" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="156" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B156" s="14">
         <v>43419.609240604143</v>
       </c>
@@ -31717,12 +32442,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P156" s="15" t="str">
+      <c r="P156" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q156" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="157" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B157" s="14">
         <v>43457.427069040656</v>
       </c>
@@ -31772,12 +32501,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P157" s="15" t="str">
+      <c r="P157" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>59.427069040655624</v>
+      </c>
+      <c r="Q157" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="158" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B158" s="14">
         <v>43416.791420716982</v>
       </c>
@@ -31827,12 +32560,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P158" s="15" t="str">
+      <c r="P158" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>13.79142071698152</v>
+      </c>
+      <c r="Q158" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="159" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B159" s="14">
         <v>43503.017030074843</v>
       </c>
@@ -31882,12 +32619,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P159" s="15" t="str">
+      <c r="P159" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>60.116937352882815</v>
+      </c>
+      <c r="Q159" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="160" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B160" s="14">
         <v>43431.589825007759</v>
       </c>
@@ -31937,12 +32678,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P160" s="15" t="str">
+      <c r="P160" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q160" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="161" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B161" s="14">
         <v>43467.343545956064</v>
       </c>
@@ -31992,12 +32737,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P161" s="15" t="str">
+      <c r="P161" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>46.251578706040164</v>
+      </c>
+      <c r="Q161" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="162" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B162" s="14">
         <v>43523.081285354827</v>
       </c>
@@ -32047,12 +32796,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P162" s="15" t="str">
+      <c r="P162" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>105.08128535482683</v>
+      </c>
+      <c r="Q162" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="163" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B163" s="14">
         <v>43464.748499618698</v>
       </c>
@@ -32102,12 +32855,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P163" s="15" t="str">
+      <c r="P163" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q163" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="164" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B164" s="14">
         <v>43455.375597423525</v>
       </c>
@@ -32157,12 +32914,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P164" s="15" t="str">
+      <c r="P164" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>30.375597423524596</v>
+      </c>
+      <c r="Q164" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="165" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B165" s="14" t="s">
         <v>93</v>
       </c>
@@ -32212,12 +32973,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P165" s="15" t="str">
+      <c r="P165" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>1927.9366181493533</v>
+      </c>
+      <c r="Q165" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Vencida</v>
       </c>
     </row>
-    <row r="166" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B166" s="14" t="s">
         <v>93</v>
       </c>
@@ -32267,12 +33032,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P166" s="15" t="str">
+      <c r="P166" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>1945.1100758552057</v>
+      </c>
+      <c r="Q166" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Vencida</v>
       </c>
     </row>
-    <row r="167" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B167" s="14">
         <v>43477.965813489587</v>
       </c>
@@ -32322,12 +33091,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P167" s="15" t="str">
+      <c r="P167" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>46.965813489587163</v>
+      </c>
+      <c r="Q167" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="168" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B168" s="14" t="s">
         <v>93</v>
       </c>
@@ -32377,12 +33150,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P168" s="15" t="str">
+      <c r="P168" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>1959</v>
+      </c>
+      <c r="Q168" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Vencida</v>
       </c>
     </row>
-    <row r="169" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B169" s="14">
         <v>43544.142248909535</v>
       </c>
@@ -32432,12 +33209,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P169" s="15" t="str">
+      <c r="P169" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>56.751634494743485</v>
+      </c>
+      <c r="Q169" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="170" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B170" s="14" t="s">
         <v>93</v>
       </c>
@@ -32487,12 +33268,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P170" s="15" t="str">
+      <c r="P170" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>1915.8297955012094</v>
+      </c>
+      <c r="Q170" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Vencida</v>
       </c>
     </row>
-    <row r="171" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B171" s="14">
         <v>43469.404646888193</v>
       </c>
@@ -32542,12 +33327,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P171" s="15" t="str">
+      <c r="P171" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q171" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="172" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B172" s="14">
         <v>43459.694209767709</v>
       </c>
@@ -32597,12 +33386,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P172" s="15" t="str">
+      <c r="P172" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q172" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="173" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B173" s="14">
         <v>43497.817197182514</v>
       </c>
@@ -32652,12 +33445,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P173" s="15" t="str">
+      <c r="P173" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q173" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="174" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B174" s="14">
         <v>43550.908167683869</v>
       </c>
@@ -32707,12 +33504,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P174" s="15" t="str">
+      <c r="P174" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>93.908167683868669</v>
+      </c>
+      <c r="Q174" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="175" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B175" s="14">
         <v>43519.692753371986</v>
       </c>
@@ -32762,12 +33563,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P175" s="15" t="str">
+      <c r="P175" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q175" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="176" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B176" s="14">
         <v>43484.08707667359</v>
       </c>
@@ -32817,12 +33622,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P176" s="15" t="str">
+      <c r="P176" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0.99647032866778318</v>
+      </c>
+      <c r="Q176" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="177" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B177" s="14">
         <v>43511.69240968494</v>
       </c>
@@ -32872,12 +33681,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P177" s="15" t="str">
+      <c r="P177" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q177" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="178" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B178" s="14">
         <v>43511.114471984198</v>
       </c>
@@ -32927,12 +33740,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P178" s="15" t="str">
+      <c r="P178" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>38.114471984197735</v>
+      </c>
+      <c r="Q178" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="179" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B179" s="14">
         <v>43509.221158562403</v>
       </c>
@@ -32982,12 +33799,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P179" s="15" t="str">
+      <c r="P179" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>31.221158562402707</v>
+      </c>
+      <c r="Q179" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="180" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B180" s="14">
         <v>43601.782099050732</v>
       </c>
@@ -33037,12 +33858,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P180" s="15" t="str">
+      <c r="P180" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>63.238623675693816</v>
+      </c>
+      <c r="Q180" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="181" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B181" s="14">
         <v>43485.955494346097</v>
       </c>
@@ -33092,12 +33917,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P181" s="15" t="str">
+      <c r="P181" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q181" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="182" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B182" s="14">
         <v>43522.615238592094</v>
       </c>
@@ -33147,12 +33976,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P182" s="15" t="str">
+      <c r="P182" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q182" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="183" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B183" s="14">
         <v>43505.043861470636</v>
       </c>
@@ -33202,12 +34035,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P183" s="15" t="str">
+      <c r="P183" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q183" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="184" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B184" s="14">
         <v>43513.423178401492</v>
       </c>
@@ -33257,12 +34094,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P184" s="15" t="str">
+      <c r="P184" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q184" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="185" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B185" s="14">
         <v>43513.404065853094</v>
       </c>
@@ -33312,12 +34153,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P185" s="15" t="str">
+      <c r="P185" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>19.404065853093925</v>
+      </c>
+      <c r="Q185" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="186" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B186" s="14">
         <v>43534.989762344601</v>
       </c>
@@ -33367,12 +34212,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P186" s="15" t="str">
+      <c r="P186" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q186" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="187" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B187" s="14">
         <v>43512.886043755854</v>
       </c>
@@ -33422,12 +34271,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P187" s="15" t="str">
+      <c r="P187" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q187" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="188" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B188" s="14">
         <v>43532.824988934779</v>
       </c>
@@ -33477,12 +34330,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P188" s="15" t="str">
+      <c r="P188" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q188" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="189" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B189" s="14">
         <v>43540.311131757786</v>
       </c>
@@ -33532,12 +34389,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P189" s="15" t="str">
+      <c r="P189" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q189" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="190" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B190" s="14">
         <v>43541.652544038297</v>
       </c>
@@ -33587,12 +34448,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P190" s="15" t="str">
+      <c r="P190" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q190" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="191" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B191" s="14">
         <v>43560.051672837129</v>
       </c>
@@ -33642,12 +34507,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P191" s="15" t="str">
+      <c r="P191" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>52.051672837129445</v>
+      </c>
+      <c r="Q191" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="192" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B192" s="14">
         <v>43512.426649972214</v>
       </c>
@@ -33697,12 +34566,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P192" s="15" t="str">
+      <c r="P192" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>3.4266499722143635</v>
+      </c>
+      <c r="Q192" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="193" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B193" s="14" t="s">
         <v>93</v>
       </c>
@@ -33752,12 +34625,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P193" s="15" t="str">
+      <c r="P193" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>1881</v>
+      </c>
+      <c r="Q193" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Vencida</v>
       </c>
     </row>
-    <row r="194" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B194" s="14">
         <v>43560.066685649028</v>
       </c>
@@ -33807,12 +34684,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P194" s="15" t="str">
+      <c r="P194" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>47.066685649027932</v>
+      </c>
+      <c r="Q194" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="195" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B195" s="14">
         <v>43540.820705056554</v>
       </c>
@@ -33862,12 +34743,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P195" s="15" t="str">
+      <c r="P195" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q195" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="196" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B196" s="14">
         <v>43548.222942782464</v>
       </c>
@@ -33917,12 +34802,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P196" s="15" t="str">
+      <c r="P196" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q196" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="197" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B197" s="14">
         <v>43625.080024605937</v>
       </c>
@@ -33972,12 +34861,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P197" s="15" t="str">
+      <c r="P197" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>103.08002460593707</v>
+      </c>
+      <c r="Q197" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="198" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B198" s="14">
         <v>43571.459066587013</v>
       </c>
@@ -34027,12 +34920,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P198" s="15" t="str">
+      <c r="P198" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>46.459066587012785</v>
+      </c>
+      <c r="Q198" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="199" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B199" s="14">
         <v>43590.006789576961</v>
       </c>
@@ -34082,12 +34979,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P199" s="15" t="str">
+      <c r="P199" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>63.006789576960728</v>
+      </c>
+      <c r="Q199" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="200" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B200" s="14">
         <v>43563.221434488092</v>
       </c>
@@ -34137,12 +35038,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P200" s="15" t="str">
+      <c r="P200" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q200" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="201" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B201" s="14">
         <v>43578.576921560554</v>
       </c>
@@ -34192,12 +35097,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P201" s="15" t="str">
+      <c r="P201" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q201" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="202" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B202" s="14">
         <v>43555.68421267363</v>
       </c>
@@ -34247,12 +35156,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P202" s="15" t="str">
+      <c r="P202" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>12.6842126736301</v>
+      </c>
+      <c r="Q202" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="203" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B203" s="14">
         <v>43614.347330751698</v>
       </c>
@@ -34302,12 +35215,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P203" s="15" t="str">
+      <c r="P203" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>69.347330751697882</v>
+      </c>
+      <c r="Q203" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="204" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B204" s="14">
         <v>43622.661194715285</v>
       </c>
@@ -34357,12 +35274,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P204" s="15" t="str">
+      <c r="P204" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>36.614235798559093</v>
+      </c>
+      <c r="Q204" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="205" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B205" s="14" t="s">
         <v>93</v>
       </c>
@@ -34412,12 +35333,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P205" s="15" t="str">
+      <c r="P205" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>1806.1088247422158</v>
+      </c>
+      <c r="Q205" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Vencida</v>
       </c>
     </row>
-    <row r="206" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B206" s="14">
         <v>43579.560843489548</v>
       </c>
@@ -34467,12 +35392,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P206" s="15" t="str">
+      <c r="P206" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>21.560843489547551</v>
+      </c>
+      <c r="Q206" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="207" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B207" s="14">
         <v>43616.927767605004</v>
       </c>
@@ -34522,12 +35451,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P207" s="15" t="str">
+      <c r="P207" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>55.927767605004192</v>
+      </c>
+      <c r="Q207" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="208" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B208" s="14">
         <v>43625.82552449884</v>
       </c>
@@ -34577,12 +35510,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P208" s="15" t="str">
+      <c r="P208" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>39.132076591755322</v>
+      </c>
+      <c r="Q208" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="209" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B209" s="14">
         <v>43680.092544285042</v>
       </c>
@@ -34632,12 +35569,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P209" s="15" t="str">
+      <c r="P209" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>70.891041702867369</v>
+      </c>
+      <c r="Q209" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="210" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B210" s="14">
         <v>43615.075827004257</v>
       </c>
@@ -34687,12 +35628,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P210" s="15" t="str">
+      <c r="P210" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q210" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="211" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B211" s="14">
         <v>43570.769485626974</v>
       </c>
@@ -34742,12 +35687,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P211" s="15" t="str">
+      <c r="P211" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>1.7694856269736192</v>
+      </c>
+      <c r="Q211" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="212" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B212" s="14">
         <v>43579.931861207129</v>
       </c>
@@ -34797,12 +35746,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P212" s="15" t="str">
+      <c r="P212" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q212" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="213" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B213" s="14">
         <v>43598.937055888804</v>
       </c>
@@ -34852,12 +35805,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P213" s="15" t="str">
+      <c r="P213" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q213" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="214" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B214" s="14">
         <v>43625.868579479997</v>
       </c>
@@ -34907,12 +35864,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P214" s="15" t="str">
+      <c r="P214" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q214" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="215" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B215" s="14">
         <v>43595.986786318994</v>
       </c>
@@ -34962,12 +35923,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P215" s="15" t="str">
+      <c r="P215" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q215" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="216" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B216" s="14">
         <v>43594.434933470475</v>
       </c>
@@ -35017,12 +35982,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P216" s="15" t="str">
+      <c r="P216" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q216" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="217" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B217" s="14">
         <v>43604.067998386839</v>
       </c>
@@ -35072,12 +36041,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P217" s="15" t="str">
+      <c r="P217" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>17.067998386839463</v>
+      </c>
+      <c r="Q217" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="218" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B218" s="14">
         <v>43626.576857263979</v>
       </c>
@@ -35127,12 +36100,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P218" s="15" t="str">
+      <c r="P218" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q218" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="219" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B219" s="14">
         <v>43624.539951944804</v>
       </c>
@@ -35182,12 +36159,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P219" s="15" t="str">
+      <c r="P219" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>32.539951944803761</v>
+      </c>
+      <c r="Q219" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="220" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B220" s="14">
         <v>43603.679990785502</v>
       </c>
@@ -35237,12 +36218,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P220" s="15" t="str">
+      <c r="P220" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q220" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="221" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B221" s="14" t="s">
         <v>93</v>
       </c>
@@ -35292,12 +36277,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P221" s="15" t="str">
+      <c r="P221" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>1796</v>
+      </c>
+      <c r="Q221" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Vencida</v>
       </c>
     </row>
-    <row r="222" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B222" s="14">
         <v>43631.169319753048</v>
       </c>
@@ -35347,12 +36336,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P222" s="15" t="str">
+      <c r="P222" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q222" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="223" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B223" s="14">
         <v>43686.642670066765</v>
       </c>
@@ -35402,12 +36395,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P223" s="15" t="str">
+      <c r="P223" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>50.764571289568266</v>
+      </c>
+      <c r="Q223" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="224" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B224" s="14">
         <v>43630.288414733965</v>
       </c>
@@ -35457,12 +36454,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P224" s="15" t="str">
+      <c r="P224" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q224" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="225" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B225" s="14">
         <v>43611.846709635254</v>
       </c>
@@ -35512,12 +36513,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P225" s="15" t="str">
+      <c r="P225" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q225" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="226" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B226" s="14">
         <v>43708.684678024969</v>
       </c>
@@ -35567,12 +36572,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P226" s="15" t="str">
+      <c r="P226" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>53.466303244167648</v>
+      </c>
+      <c r="Q226" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="227" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B227" s="14">
         <v>43648.175451286195</v>
       </c>
@@ -35622,12 +36631,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P227" s="15" t="str">
+      <c r="P227" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q227" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="228" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B228" s="14">
         <v>43667.504857748412</v>
       </c>
@@ -35677,12 +36690,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P228" s="15" t="str">
+      <c r="P228" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>25.887992416013731</v>
+      </c>
+      <c r="Q228" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="229" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B229" s="14">
         <v>43633.202763509209</v>
       </c>
@@ -35732,12 +36749,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P229" s="15" t="str">
+      <c r="P229" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0.3553434612476849</v>
+      </c>
+      <c r="Q229" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="230" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B230" s="14" t="s">
         <v>93</v>
       </c>
@@ -35787,12 +36808,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P230" s="15" t="str">
+      <c r="P230" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>1724.0751294987131</v>
+      </c>
+      <c r="Q230" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Vencida</v>
       </c>
     </row>
-    <row r="231" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B231" s="14">
         <v>43663.604642253973</v>
       </c>
@@ -35842,12 +36867,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Vista</v>
       </c>
-      <c r="P231" s="15" t="str">
+      <c r="P231" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>32.604642253972997</v>
+      </c>
+      <c r="Q231" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="232" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B232" s="14">
         <v>43647.603244851816</v>
       </c>
@@ -35897,12 +36926,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P232" s="15" t="str">
+      <c r="P232" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q232" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="233" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B233" s="14">
         <v>43741.143740040614</v>
       </c>
@@ -35952,12 +36985,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P233" s="15" t="str">
+      <c r="P233" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>53.572769729180436</v>
+      </c>
+      <c r="Q233" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="234" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B234" s="14">
         <v>43645.269692137255</v>
       </c>
@@ -36007,12 +37044,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P234" s="15" t="str">
+      <c r="P234" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q234" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
     </row>
-    <row r="235" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B235" s="14" t="s">
         <v>93</v>
       </c>
@@ -36062,12 +37103,16 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P235" s="15" t="str">
+      <c r="P235" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>1730.731398697244</v>
+      </c>
+      <c r="Q235" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Vencida</v>
       </c>
     </row>
-    <row r="236" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B236" s="14">
         <v>43727.35674683658</v>
       </c>
@@ -36115,7 +37160,11 @@
         <f>IF(TbRegistroEntradas[[#This Row],[Data da Competência]]=TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],"Vista","Prazo")</f>
         <v>Prazo</v>
       </c>
-      <c r="P236" s="15" t="str">
+      <c r="P236" s="140">
+        <f ca="1">IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>43727.35674683658</v>
+      </c>
+      <c r="Q236" s="15" t="str">
         <f ca="1">IF(AND(TbRegistroEntradas[[#This Row],[Data do Caixa Previsto]]&lt;TODAY(),TbRegistroEntradas[[#This Row],[Data do Caixa Realizado]]=""),"Vencida","Não vencida")</f>
         <v>Não vencida</v>
       </c>
@@ -36147,9 +37196,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O235"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A223" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E236" sqref="E236"/>
+    <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O149" sqref="O149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36165,7 +37214,7 @@
     <col min="16" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -36176,7 +37225,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -36185,9 +37234,9 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:14" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:15" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="23" t="s">
         <v>9</v>
       </c>
@@ -36227,8 +37276,11 @@
       <c r="N5" s="23" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="6" spans="2:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O5" s="23" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="21">
         <v>43015.689099944895</v>
       </c>
@@ -36274,8 +37326,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="7" spans="2:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O6" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="21">
         <v>42995.83151981284</v>
       </c>
@@ -36321,8 +37377,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="8" spans="2:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O7" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="21">
         <v>42983.821864178215</v>
       </c>
@@ -36368,8 +37428,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="9" spans="2:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O8" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="21">
         <v>43004.400385589004</v>
       </c>
@@ -36415,8 +37479,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="10" spans="2:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O9" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="21">
         <v>43002.058153394239</v>
       </c>
@@ -36462,8 +37530,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="11" spans="2:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O10" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="21">
         <v>42980.358785052202</v>
       </c>
@@ -36509,8 +37581,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="12" spans="2:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O11" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="21">
         <v>43014.597468673528</v>
       </c>
@@ -36556,8 +37632,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="13" spans="2:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O12" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="21">
         <v>42990.1117348099</v>
       </c>
@@ -36603,8 +37683,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="14" spans="2:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O13" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>9.5551236771279946</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="21">
         <v>42987.417576127409</v>
       </c>
@@ -36650,8 +37734,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="15" spans="2:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O14" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="21" t="s">
         <v>93</v>
       </c>
@@ -36697,8 +37785,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="16" spans="2:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O15" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>2408.2969940987969</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="21" t="s">
         <v>93</v>
       </c>
@@ -36744,8 +37836,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="17" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O16" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>2372.766408007039</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="21">
         <v>43025.32782899923</v>
       </c>
@@ -36791,8 +37887,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="18" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O17" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="21">
         <v>43008.599150206064</v>
       </c>
@@ -36838,8 +37938,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="19" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O18" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="21">
         <v>43004.132052173023</v>
       </c>
@@ -36885,8 +37989,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="20" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O19" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="21">
         <v>43043.977578613987</v>
       </c>
@@ -36932,8 +38040,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="21" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O20" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="21">
         <v>43015.898045269183</v>
       </c>
@@ -36979,8 +38091,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="22" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O21" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="21">
         <v>43010.944524159138</v>
       </c>
@@ -37026,8 +38142,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="23" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O22" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="21">
         <v>43118.867552272008</v>
       </c>
@@ -37073,8 +38193,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="24" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O23" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>76.266783360420959</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="21">
         <v>43059.310583292005</v>
       </c>
@@ -37120,8 +38244,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="25" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O24" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="21" t="s">
         <v>93</v>
       </c>
@@ -37167,8 +38295,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="26" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O25" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>2362.7061764536775</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="21">
         <v>43031.057901657718</v>
       </c>
@@ -37214,8 +38346,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="27" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O26" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="21">
         <v>43051.580861965143</v>
       </c>
@@ -37261,8 +38397,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="28" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O27" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>4.5936627882620087</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="21">
         <v>43134.239961092644</v>
       </c>
@@ -37308,8 +38448,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="29" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O28" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>89.197988829830138</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" s="21">
         <v>43051.301144712357</v>
       </c>
@@ -37355,8 +38499,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="30" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O29" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>20.055650867514487</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="21">
         <v>43059.361635124777</v>
       </c>
@@ -37402,8 +38550,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="31" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O30" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" s="21">
         <v>43037.396901300337</v>
       </c>
@@ -37449,8 +38601,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="32" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O31" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="21">
         <v>43130.980668733508</v>
       </c>
@@ -37496,8 +38652,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O32" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>62.805501991977508</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="21">
         <v>43089.045976990965</v>
       </c>
@@ -37543,8 +38703,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O33" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" s="21">
         <v>43053.799831016353</v>
       </c>
@@ -37590,8 +38754,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O34" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" s="21">
         <v>43080.068251063065</v>
       </c>
@@ -37637,8 +38805,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="36" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O35" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" s="21">
         <v>43097.450419750799</v>
       </c>
@@ -37684,8 +38856,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O36" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>9.938090082097915</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="21">
         <v>43095.145797073659</v>
       </c>
@@ -37731,8 +38907,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="38" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O37" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="21">
         <v>43085.287677276574</v>
       </c>
@@ -37778,8 +38958,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O38" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="21">
         <v>43112.669025156058</v>
       </c>
@@ -37825,8 +39009,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="40" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O39" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="21">
         <v>43076.636591836308</v>
       </c>
@@ -37872,8 +39060,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="41" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O40" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="21">
         <v>43097.776800296095</v>
       </c>
@@ -37919,8 +39111,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O41" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" s="21" t="s">
         <v>93</v>
       </c>
@@ -37966,8 +39162,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O42" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>2289.5913825177995</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" s="21" t="s">
         <v>93</v>
       </c>
@@ -38013,8 +39213,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O43" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>2322.9753024652091</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="21">
         <v>43159.922520357031</v>
       </c>
@@ -38060,8 +39264,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O44" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>63.826419745593739</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" s="21">
         <v>43125.34551811625</v>
       </c>
@@ -38107,8 +39315,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O45" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" s="21">
         <v>43118.533892290689</v>
       </c>
@@ -38154,8 +39366,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O46" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="21">
         <v>43129.076273391656</v>
       </c>
@@ -38201,8 +39417,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O47" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" s="21">
         <v>43099.632017726879</v>
       </c>
@@ -38248,8 +39468,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="49" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O48" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" s="21">
         <v>43142.610706080763</v>
       </c>
@@ -38295,8 +39519,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="50" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O49" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B50" s="21">
         <v>43098.200846805485</v>
       </c>
@@ -38342,8 +39570,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="51" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O50" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51" s="21">
         <v>43111.046742717648</v>
       </c>
@@ -38389,8 +39621,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="52" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O51" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" s="21">
         <v>43148.048932403181</v>
       </c>
@@ -38436,8 +39672,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="53" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O52" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" s="21">
         <v>43135.265910262075</v>
       </c>
@@ -38483,8 +39723,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="54" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O53" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" s="21">
         <v>43124.925483598126</v>
       </c>
@@ -38530,8 +39774,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="55" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O54" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55" s="21">
         <v>43143.989919163403</v>
       </c>
@@ -38577,8 +39825,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="56" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O55" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" s="21">
         <v>43180.312256585908</v>
       </c>
@@ -38624,8 +39876,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="57" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O56" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>28.958285734232049</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B57" s="21">
         <v>43144.795115927831</v>
       </c>
@@ -38671,8 +39927,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="58" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O57" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>35.946524447870615</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B58" s="21">
         <v>43117.371907988454</v>
       </c>
@@ -38718,8 +39978,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="59" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O58" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B59" s="21">
         <v>43127.72575701114</v>
       </c>
@@ -38765,8 +40029,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="60" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O59" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B60" s="21">
         <v>43118.823326450649</v>
       </c>
@@ -38812,8 +40080,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="61" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O60" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B61" s="21">
         <v>43167.544338803593</v>
       </c>
@@ -38859,8 +40131,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="62" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O61" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62" s="21">
         <v>43137.043955849207</v>
       </c>
@@ -38906,8 +40182,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="63" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O62" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B63" s="21">
         <v>43144.881827671154</v>
       </c>
@@ -38953,8 +40233,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="64" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O63" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B64" s="21">
         <v>43127.357625825418</v>
       </c>
@@ -39000,8 +40284,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O64" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B65" s="21">
         <v>43164.408101095891</v>
       </c>
@@ -39047,8 +40335,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O65" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B66" s="21">
         <v>43141.579590343346</v>
       </c>
@@ -39094,8 +40386,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O66" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B67" s="21">
         <v>43140.52607681365</v>
       </c>
@@ -39141,8 +40437,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="68" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O67" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68" s="21">
         <v>43167.136566438901</v>
       </c>
@@ -39188,8 +40488,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O68" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B69" s="21">
         <v>43180.080222393961</v>
       </c>
@@ -39235,8 +40539,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O69" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B70" s="21">
         <v>43153.557863903276</v>
       </c>
@@ -39282,8 +40590,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O70" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>10.96434565702657</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B71" s="21">
         <v>43144.375909015784</v>
       </c>
@@ -39329,8 +40641,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O71" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72" s="21">
         <v>43188.99516604135</v>
       </c>
@@ -39376,8 +40692,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O72" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>18.864296683648718</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B73" s="21">
         <v>43179.613666487414</v>
       </c>
@@ -39423,8 +40743,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O73" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>3.4059683494342607</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B74" s="21">
         <v>43175.293624405407</v>
       </c>
@@ -39470,8 +40794,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O74" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B75" s="21">
         <v>43177.329774401594</v>
       </c>
@@ -39517,8 +40845,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O75" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B76" s="21">
         <v>43175.004800342591</v>
       </c>
@@ -39564,8 +40896,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O76" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B77" s="21">
         <v>43238.007350836197</v>
       </c>
@@ -39611,8 +40947,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="78" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O77" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>87.550870348401077</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B78" s="21" t="s">
         <v>93</v>
       </c>
@@ -39658,8 +40998,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O78" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>2223.2216524770338</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B79" s="21">
         <v>43198.215136039675</v>
       </c>
@@ -39705,8 +41049,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="80" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O79" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B80" s="21">
         <v>43199.384372741159</v>
       </c>
@@ -39752,8 +41100,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="81" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O80" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B81" s="21">
         <v>43184.353160705636</v>
       </c>
@@ -39799,8 +41151,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="82" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O81" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B82" s="21">
         <v>43219.347145801272</v>
       </c>
@@ -39846,8 +41202,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="83" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O82" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B83" s="21">
         <v>43188.959993905235</v>
       </c>
@@ -39893,8 +41253,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="84" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O83" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B84" s="21">
         <v>43197.842717434411</v>
       </c>
@@ -39940,8 +41304,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="85" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O84" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B85" s="21">
         <v>43228.717380772498</v>
       </c>
@@ -39987,8 +41355,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="86" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O85" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B86" s="21">
         <v>43288.26904093464</v>
       </c>
@@ -40034,8 +41406,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="87" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O86" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>86.697733497596346</v>
+      </c>
+    </row>
+    <row r="87" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B87" s="21">
         <v>43191.559855343337</v>
       </c>
@@ -40081,8 +41457,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="88" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O87" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B88" s="21">
         <v>43187.734676954671</v>
       </c>
@@ -40128,8 +41508,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="89" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O88" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B89" s="21">
         <v>43223.623035835837</v>
       </c>
@@ -40175,8 +41559,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="90" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O89" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B90" s="21">
         <v>43234.522556233635</v>
       </c>
@@ -40222,8 +41610,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="91" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O90" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B91" s="21">
         <v>43202.116934975762</v>
       </c>
@@ -40269,8 +41661,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="92" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O91" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B92" s="21">
         <v>43220.080853168562</v>
       </c>
@@ -40316,8 +41712,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="93" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O92" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>4.3834890981233912</v>
+      </c>
+    </row>
+    <row r="93" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B93" s="21">
         <v>43221.571171062293</v>
       </c>
@@ -40363,8 +41763,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="94" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O93" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B94" s="21">
         <v>43240.686796046153</v>
       </c>
@@ -40410,8 +41814,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="95" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O94" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B95" s="21">
         <v>43290.30848134488</v>
       </c>
@@ -40457,8 +41865,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="96" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O95" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>81.187894111586502</v>
+      </c>
+    </row>
+    <row r="96" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B96" s="21">
         <v>43222.305289041076</v>
       </c>
@@ -40504,8 +41916,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="97" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O96" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B97" s="21">
         <v>43232.768700738379</v>
       </c>
@@ -40551,8 +41967,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="98" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O97" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B98" s="21">
         <v>43241.145893950612</v>
       </c>
@@ -40598,8 +42018,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="99" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O98" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>17.339637859593495</v>
+      </c>
+    </row>
+    <row r="99" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B99" s="21">
         <v>43251.616600040084</v>
       </c>
@@ -40645,8 +42069,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="100" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O99" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B100" s="21">
         <v>43228.679133753983</v>
       </c>
@@ -40692,8 +42120,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="101" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O100" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B101" s="21">
         <v>43264.296949259209</v>
       </c>
@@ -40739,8 +42171,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="102" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O101" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B102" s="21">
         <v>43278.791757178202</v>
       </c>
@@ -40786,8 +42222,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="103" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O102" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B103" s="21" t="s">
         <v>93</v>
       </c>
@@ -40833,8 +42273,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="104" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O103" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>2139.8986873632384</v>
+      </c>
+    </row>
+    <row r="104" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B104" s="21">
         <v>43278.250305144895</v>
       </c>
@@ -40880,8 +42324,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="105" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O104" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B105" s="21">
         <v>43350.331612666698</v>
       </c>
@@ -40927,8 +42375,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="106" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O105" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>67.514069071345148</v>
+      </c>
+    </row>
+    <row r="106" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B106" s="21">
         <v>43334.039973021354</v>
       </c>
@@ -40974,8 +42426,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="107" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O106" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>27.486589171661763</v>
+      </c>
+    </row>
+    <row r="107" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B107" s="21">
         <v>43292.621992013512</v>
       </c>
@@ -41021,8 +42477,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="108" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O107" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B108" s="21">
         <v>43279.068040624879</v>
       </c>
@@ -41068,8 +42528,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="109" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O108" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B109" s="21">
         <v>43259.6666754662</v>
       </c>
@@ -41115,8 +42579,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="110" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O109" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B110" s="21">
         <v>43282.67946727157</v>
       </c>
@@ -41162,8 +42630,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="111" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O110" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B111" s="21">
         <v>43306.811336210056</v>
       </c>
@@ -41209,8 +42681,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="112" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O111" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B112" s="21">
         <v>43269.791763204586</v>
       </c>
@@ -41256,8 +42732,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="113" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O112" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B113" s="21">
         <v>43309.241793705783</v>
       </c>
@@ -41303,8 +42783,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="114" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O113" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B114" s="21">
         <v>43328.010321588059</v>
       </c>
@@ -41350,8 +42834,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="115" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O114" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B115" s="21">
         <v>43329.109711177305</v>
       </c>
@@ -41397,8 +42885,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="116" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O115" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>41.068831210279313</v>
+      </c>
+    </row>
+    <row r="116" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B116" s="21">
         <v>43336.432893175937</v>
       </c>
@@ -41444,8 +42936,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="117" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O116" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B117" s="21">
         <v>43290.700268540626</v>
       </c>
@@ -41491,8 +42987,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="118" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O117" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B118" s="21">
         <v>43305.188654160578</v>
       </c>
@@ -41538,8 +43038,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="119" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O118" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B119" s="21">
         <v>43305.434626119764</v>
       </c>
@@ -41585,8 +43089,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="120" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O119" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B120" s="21">
         <v>43313.176696691356</v>
       </c>
@@ -41632,8 +43140,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="121" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O120" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B121" s="21">
         <v>43340.349295717155</v>
       </c>
@@ -41679,8 +43191,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="122" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O121" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B122" s="21">
         <v>43321.703958375911</v>
       </c>
@@ -41726,8 +43242,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="123" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O122" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B123" s="21">
         <v>43330.010675622812</v>
       </c>
@@ -41773,8 +43293,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="124" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O123" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B124" s="21">
         <v>43357.040894197533</v>
       </c>
@@ -41820,8 +43344,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="125" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O124" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B125" s="21" t="s">
         <v>93</v>
       </c>
@@ -41867,8 +43395,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="126" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O125" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>2068.1111562186488</v>
+      </c>
+    </row>
+    <row r="126" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B126" s="21">
         <v>43342.623492549312</v>
       </c>
@@ -41914,8 +43446,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="127" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O126" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B127" s="21">
         <v>43354.968085716326</v>
       </c>
@@ -41961,8 +43497,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="128" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O127" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>23.637578560781549</v>
+      </c>
+    </row>
+    <row r="128" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B128" s="21">
         <v>43374.615784892369</v>
       </c>
@@ -42008,8 +43548,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="129" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O128" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>60.039692208229098</v>
+      </c>
+    </row>
+    <row r="129" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B129" s="21">
         <v>43375.491443107414</v>
       </c>
@@ -42055,8 +43599,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="130" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O129" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B130" s="21">
         <v>43368.704862392784</v>
       </c>
@@ -42102,8 +43650,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="131" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O130" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B131" s="21">
         <v>43366.872016051886</v>
       </c>
@@ -42149,8 +43701,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="132" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O131" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B132" s="21">
         <v>43356.956112414089</v>
       </c>
@@ -42196,8 +43752,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="133" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O132" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B133" s="21">
         <v>43433.012235706425</v>
       </c>
@@ -42243,8 +43803,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="134" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O133" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>73.9955998959922</v>
+      </c>
+    </row>
+    <row r="134" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B134" s="21">
         <v>43352.077398814596</v>
       </c>
@@ -42290,8 +43854,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="135" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O134" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B135" s="21">
         <v>43363.149663367352</v>
       </c>
@@ -42337,8 +43905,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="136" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O135" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B136" s="21">
         <v>43370.729955212279</v>
       </c>
@@ -42384,8 +43956,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="137" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O136" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B137" s="21">
         <v>43438.840632706146</v>
       </c>
@@ -42431,8 +44007,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="138" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O137" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>36.061121181221097</v>
+      </c>
+    </row>
+    <row r="138" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B138" s="21">
         <v>43381.142100455778</v>
       </c>
@@ -42478,8 +44058,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="139" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O138" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B139" s="21">
         <v>43355.021702138809</v>
       </c>
@@ -42525,8 +44109,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="140" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O139" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B140" s="21">
         <v>43382.641285204452</v>
       </c>
@@ -42572,8 +44160,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="141" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O140" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B141" s="21">
         <v>43405.129639238316</v>
       </c>
@@ -42619,8 +44211,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="142" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O141" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B142" s="21">
         <v>43377.659993656314</v>
       </c>
@@ -42666,8 +44262,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="143" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O142" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B143" s="21">
         <v>43375.186046774324</v>
       </c>
@@ -42713,8 +44313,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="144" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O143" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B144" s="21">
         <v>43422.470077078746</v>
       </c>
@@ -42760,8 +44364,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="145" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O144" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B145" s="21">
         <v>43417.82681558784</v>
       </c>
@@ -42807,8 +44415,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="146" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O145" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B146" s="21">
         <v>43433.158712252123</v>
       </c>
@@ -42854,8 +44466,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="147" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O146" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B147" s="21">
         <v>43389.890057350683</v>
       </c>
@@ -42901,8 +44517,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="148" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O147" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B148" s="21">
         <v>43404.046693214259</v>
       </c>
@@ -42948,8 +44568,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O148" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B149" s="21">
         <v>43507.755970956488</v>
       </c>
@@ -42995,8 +44619,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="150" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O149" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>79.607408259435033</v>
+      </c>
+    </row>
+    <row r="150" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B150" s="21">
         <v>43449.211879770926</v>
       </c>
@@ -43042,8 +44670,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="151" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O150" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B151" s="21">
         <v>43404.811332468627</v>
       </c>
@@ -43089,8 +44721,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="152" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O151" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B152" s="21">
         <v>43456.031618147535</v>
       </c>
@@ -43136,8 +44772,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="153" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O152" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>7.0181459510931745</v>
+      </c>
+    </row>
+    <row r="153" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B153" s="21">
         <v>43424.062053727328</v>
       </c>
@@ -43183,8 +44823,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="154" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O153" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B154" s="21">
         <v>43420.587272347206</v>
       </c>
@@ -43230,8 +44874,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="155" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O154" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B155" s="21">
         <v>43461.891878681301</v>
       </c>
@@ -43277,8 +44925,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O155" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B156" s="21">
         <v>43491.131651867006</v>
       </c>
@@ -43324,8 +44976,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="157" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O156" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>24.579489612937323</v>
+      </c>
+    </row>
+    <row r="157" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B157" s="21">
         <v>43446.7351960983</v>
       </c>
@@ -43371,8 +45027,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O157" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B158" s="21">
         <v>43474.679630611819</v>
       </c>
@@ -43418,8 +45078,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="159" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O158" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B159" s="21">
         <v>43420.10775852378</v>
       </c>
@@ -43465,8 +45129,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="160" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O159" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B160" s="21">
         <v>43451.20401159949</v>
       </c>
@@ -43512,8 +45180,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="161" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O160" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B161" s="21">
         <v>43441.762171101494</v>
       </c>
@@ -43559,8 +45231,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="162" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O161" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B162" s="21">
         <v>43465.942395888327</v>
       </c>
@@ -43606,8 +45282,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="163" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O162" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B163" s="21">
         <v>43430.953637786966</v>
       </c>
@@ -43653,8 +45333,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O163" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B164" s="21">
         <v>43517.76387190332</v>
       </c>
@@ -43700,8 +45384,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="165" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O164" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>38.95954425088712</v>
+      </c>
+    </row>
+    <row r="165" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B165" s="21" t="s">
         <v>93</v>
       </c>
@@ -43747,8 +45435,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O165" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>1907.1790700297788</v>
+      </c>
+    </row>
+    <row r="166" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B166" s="21">
         <v>43576.35130395602</v>
       </c>
@@ -43794,8 +45486,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="167" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O166" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>81.601238821815059</v>
+      </c>
+    </row>
+    <row r="167" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B167" s="21">
         <v>43465.7468934922</v>
       </c>
@@ -43841,8 +45537,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="168" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O167" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B168" s="21">
         <v>43465.107280855569</v>
       </c>
@@ -43888,8 +45588,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="169" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O168" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>6.9467066987926955</v>
+      </c>
+    </row>
+    <row r="169" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B169" s="21" t="s">
         <v>93</v>
       </c>
@@ -43935,8 +45639,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O169" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>1912.2530222151472</v>
+      </c>
+    </row>
+    <row r="170" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B170" s="21">
         <v>43506.264597842761</v>
       </c>
@@ -43982,8 +45690,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O170" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>16.928659294382669</v>
+      </c>
+    </row>
+    <row r="171" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B171" s="21">
         <v>43487.188431641203</v>
       </c>
@@ -44029,8 +45741,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O171" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B172" s="21">
         <v>43514.403187421965</v>
       </c>
@@ -44076,8 +45792,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O172" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B173" s="21">
         <v>43491.679228472654</v>
       </c>
@@ -44123,8 +45843,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O173" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B174" s="21">
         <v>43515.206907104708</v>
       </c>
@@ -44170,8 +45894,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O174" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B175" s="21">
         <v>43573.207294267304</v>
       </c>
@@ -44217,8 +45945,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O175" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>89.627354713862587</v>
+      </c>
+    </row>
+    <row r="176" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B176" s="21">
         <v>43485.642328387614</v>
       </c>
@@ -44264,8 +45996,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O176" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B177" s="21">
         <v>43501.032672097659</v>
       </c>
@@ -44311,8 +46047,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O177" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B178" s="21">
         <v>43495.478907818499</v>
       </c>
@@ -44358,8 +46098,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O178" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B179" s="21">
         <v>43536.025611727033</v>
       </c>
@@ -44405,8 +46149,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O179" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B180" s="21">
         <v>43499.993512821027</v>
       </c>
@@ -44452,8 +46200,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O180" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B181" s="21">
         <v>43498.131083059947</v>
       </c>
@@ -44499,8 +46251,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O181" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B182" s="21">
         <v>43496.93367126838</v>
       </c>
@@ -44546,8 +46302,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O182" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B183" s="21">
         <v>43509.777939985303</v>
       </c>
@@ -44593,8 +46353,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O183" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B184" s="21">
         <v>43520.73063092697</v>
       </c>
@@ -44640,8 +46404,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O184" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B185" s="21">
         <v>43548.78797907626</v>
       </c>
@@ -44687,8 +46455,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O185" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B186" s="21">
         <v>43552.247547339066</v>
       </c>
@@ -44734,8 +46506,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O186" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B187" s="21">
         <v>43554.442660476037</v>
       </c>
@@ -44781,8 +46557,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O187" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B188" s="21">
         <v>43508.592568137858</v>
       </c>
@@ -44828,8 +46608,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O188" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B189" s="21">
         <v>43555.285152896111</v>
       </c>
@@ -44875,8 +46659,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O189" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B190" s="21">
         <v>43619.877278489352</v>
       </c>
@@ -44922,8 +46710,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O190" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>71.870903102673765</v>
+      </c>
+    </row>
+    <row r="191" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B191" s="21">
         <v>43566.482468635586</v>
       </c>
@@ -44969,8 +46761,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O191" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>12.562376887341088</v>
+      </c>
+    </row>
+    <row r="192" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B192" s="21">
         <v>43531.738180250693</v>
       </c>
@@ -45016,8 +46812,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O192" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B193" s="21">
         <v>43569.835590824536</v>
       </c>
@@ -45063,8 +46863,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O193" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B194" s="21">
         <v>43567.757979105008</v>
       </c>
@@ -45110,8 +46914,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="195" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O194" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B195" s="21">
         <v>43535.079288493936</v>
       </c>
@@ -45157,8 +46965,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O195" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B196" s="21">
         <v>43572.596134843683</v>
       </c>
@@ -45204,8 +47016,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O196" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B197" s="21">
         <v>43621.515266358365</v>
       </c>
@@ -45251,8 +47067,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O197" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>50.976243909935874</v>
+      </c>
+    </row>
+    <row r="198" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B198" s="21">
         <v>43571.740759038665</v>
       </c>
@@ -45298,8 +47118,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="199" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O198" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B199" s="21" t="s">
         <v>93</v>
       </c>
@@ -45345,8 +47169,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="200" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O199" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>1816.6230751911935</v>
+      </c>
+    </row>
+    <row r="200" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B200" s="21">
         <v>43543.657350348039</v>
       </c>
@@ -45392,8 +47220,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O200" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B201" s="21">
         <v>43566.33302641497</v>
       </c>
@@ -45439,8 +47271,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="202" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O201" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B202" s="21">
         <v>43663.382687512385</v>
       </c>
@@ -45486,8 +47322,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="203" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O202" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>76.900761643715668</v>
+      </c>
+    </row>
+    <row r="203" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B203" s="21">
         <v>43570.097263655982</v>
       </c>
@@ -45533,8 +47373,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="204" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O203" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>13.01368457609351</v>
+      </c>
+    </row>
+    <row r="204" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B204" s="21">
         <v>43578.736317775256</v>
       </c>
@@ -45580,8 +47424,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="205" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O204" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B205" s="21">
         <v>43575.110312084966</v>
       </c>
@@ -45627,8 +47475,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="206" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O205" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>14.291841027115879</v>
+      </c>
+    </row>
+    <row r="206" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B206" s="21">
         <v>43605.865431208142</v>
       </c>
@@ -45674,8 +47526,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="207" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O206" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B207" s="21">
         <v>43603.683759744941</v>
       </c>
@@ -45721,8 +47577,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="208" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O207" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B208" s="21">
         <v>43599.508668008042</v>
       </c>
@@ -45768,8 +47628,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="209" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O208" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B209" s="21">
         <v>43584.569223583399</v>
       </c>
@@ -45815,8 +47679,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="210" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O209" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B210" s="21">
         <v>43604.655561438565</v>
       </c>
@@ -45862,8 +47730,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="211" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O210" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B211" s="21">
         <v>43589.233184767916</v>
       </c>
@@ -45909,8 +47781,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="212" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O211" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B212" s="21">
         <v>43586.8659361682</v>
       </c>
@@ -45956,8 +47832,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="213" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O212" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B213" s="21">
         <v>43641.890700157783</v>
       </c>
@@ -46003,8 +47883,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="214" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O213" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>6.8635805509547936</v>
+      </c>
+    </row>
+    <row r="214" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B214" s="21">
         <v>43622.113483825102</v>
       </c>
@@ -46050,8 +47934,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="215" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O214" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B215" s="21">
         <v>43624.026611669258</v>
       </c>
@@ -46097,8 +47985,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="216" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O215" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B216" s="21">
         <v>43595.700139752473</v>
       </c>
@@ -46144,8 +48036,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="217" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O216" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B217" s="21">
         <v>43613.712962366597</v>
       </c>
@@ -46191,8 +48087,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="218" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O217" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B218" s="21">
         <v>43623.498752151929</v>
       </c>
@@ -46238,8 +48138,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="219" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O218" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B219" s="21">
         <v>43732.354485773343</v>
       </c>
@@ -46285,8 +48189,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="220" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O219" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>87.166406665150134</v>
+      </c>
+    </row>
+    <row r="220" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B220" s="21">
         <v>43614.76373708652</v>
       </c>
@@ -46332,8 +48240,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="221" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O220" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B221" s="21">
         <v>43602.13448735002</v>
       </c>
@@ -46379,8 +48291,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="222" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O221" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B222" s="21">
         <v>43618.94333879678</v>
       </c>
@@ -46426,8 +48342,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="223" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O222" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B223" s="21">
         <v>43703.895777057623</v>
       </c>
@@ -46473,8 +48393,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="224" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O223" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>87.925930991143105</v>
+      </c>
+    </row>
+    <row r="224" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B224" s="21">
         <v>43626.228578403905</v>
       </c>
@@ -46520,8 +48444,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="225" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O224" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B225" s="21">
         <v>43643.772479924686</v>
       </c>
@@ -46567,8 +48495,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="226" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O225" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>2.031889560057607</v>
+      </c>
+    </row>
+    <row r="226" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B226" s="21">
         <v>43673.934978004319</v>
       </c>
@@ -46614,8 +48546,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="227" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O226" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>28.426823942558258</v>
+      </c>
+    </row>
+    <row r="227" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B227" s="21">
         <v>43628.969362987358</v>
       </c>
@@ -46661,8 +48597,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="228" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O227" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B228" s="21">
         <v>43639.192651531121</v>
       </c>
@@ -46708,8 +48648,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="229" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O228" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B229" s="21" t="s">
         <v>93</v>
       </c>
@@ -46755,8 +48699,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="230" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O229" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>1720.3291158164211</v>
+      </c>
+    </row>
+    <row r="230" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B230" s="21">
         <v>43741.508211497443</v>
       </c>
@@ -46802,8 +48750,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="231" spans="2:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O230" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>76.845757333467191</v>
+      </c>
+    </row>
+    <row r="231" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B231" s="21" t="s">
         <v>93</v>
       </c>
@@ -46849,8 +48801,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="232" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O231" s="58">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>1706.9144901164909</v>
+      </c>
+    </row>
+    <row r="232" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B232" s="21">
         <v>43682.520022083132</v>
       </c>
@@ -46896,8 +48852,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="233" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O232" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B233" s="21">
         <v>43697.929033863591</v>
       </c>
@@ -46943,8 +48903,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="234" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O233" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B234" s="21">
         <v>43653.195660130521</v>
       </c>
@@ -46990,8 +48954,12 @@
         <f>IF(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]="",0,YEAR(TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]]))</f>
         <v>2019</v>
       </c>
-    </row>
-    <row r="235" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O234" s="141">
+        <f ca="1">IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&lt;&gt;"",IF(TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TbRegistrosSaida[[#This Row],[Data do Caixa Realizado]]-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0),IF(TODAY()&gt;TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],TODAY()-TbRegistrosSaida[[#This Row],[Data do Caixa Previsto]],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D235" s="27" t="s">
         <v>82</v>
       </c>
@@ -47143,11 +49111,11 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="119" t="s">
+      <c r="B7" s="121" t="s">
         <v>536</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
     </row>
     <row r="8" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="30" t="s">
@@ -47405,12 +49373,12 @@
     <row r="13" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="120" t="s">
+      <c r="B15" s="122" t="s">
         <v>554</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
     </row>
     <row r="16" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="30" t="s">
@@ -47720,12 +49688,12 @@
     <row r="21" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="121" t="s">
+      <c r="B23" s="123" t="s">
         <v>555</v>
       </c>
-      <c r="C23" s="121"/>
-      <c r="D23" s="121"/>
-      <c r="E23" s="121"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
     </row>
     <row r="24" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="30" t="s">
